--- a/Documents/Thannickal_Bakers_Working.xlsx
+++ b/Documents/Thannickal_Bakers_Working.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Globocon\BMS\Application\BakeryManagementSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B7C9B9-079E-4C1F-BC5D-3D9575BBFEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D2BBE8-971C-4D15-9DFF-4846DAD076D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="28" activeTab="33" xr2:uid="{9EA4B1FA-7DD5-4CCE-97E0-9A7AE5A0A6E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="1" activeTab="4" xr2:uid="{9EA4B1FA-7DD5-4CCE-97E0-9A7AE5A0A6E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="31" r:id="rId1"/>
@@ -47,11 +47,13 @@
     <sheet name="Cherry Cake" sheetId="37" r:id="rId32"/>
     <sheet name="RawMaterials" sheetId="40" r:id="rId33"/>
     <sheet name="Products" sheetId="41" r:id="rId34"/>
+    <sheet name="Products_Rawmaterial" sheetId="43" r:id="rId35"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="321">
   <si>
     <t>Item</t>
   </si>
@@ -1006,6 +1008,24 @@
   </si>
   <si>
     <t>Chocolate_Muffin</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>SubCategoryId</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>RM MapID</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1036,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,6 +1120,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1553,7 +1593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,6 +1856,58 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1849,15 +1941,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2423,7 +2506,7 @@
   <dimension ref="A4:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G5" sqref="G5:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2443,11 +2526,11 @@
         <v>235</v>
       </c>
       <c r="B5" s="92"/>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="134" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
       <c r="G5">
         <v>1</v>
       </c>
@@ -3027,10 +3110,10 @@
       <c r="Q2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="117" t="s">
+      <c r="S2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="T2" s="117"/>
+      <c r="T2" s="137"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3099,8 +3182,8 @@
         <f>0.04*B3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3517,10 +3600,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G1" s="22"/>
-      <c r="O1" s="122" t="s">
+      <c r="O1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="122"/>
+      <c r="P1" s="142"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3571,10 +3654,10 @@
       <c r="P2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="117"/>
+      <c r="S2" s="137"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3639,8 +3722,8 @@
         <f>$B3*0.005</f>
         <v>0</v>
       </c>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3754,8 +3837,8 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G1" s="22"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3803,10 +3886,10 @@
       <c r="O2" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3867,8 +3950,8 @@
         <f>B3*0.13</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3986,10 +4069,10 @@
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="117"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4006,8 +4089,8 @@
         <f>$B3*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4068,11 +4151,11 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" s="22"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4114,10 +4197,10 @@
       <c r="M2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="117" t="s">
+      <c r="O2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="117"/>
+      <c r="P2" s="137"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4170,8 +4253,8 @@
         <f>$B3*0.005</f>
         <v>0</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4250,7 +4333,7 @@
   <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,10 +4362,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="137"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4307,8 +4390,8 @@
         <f>$B3*0.24</f>
         <v>0.96</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4388,10 +4471,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="137"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4416,8 +4499,8 @@
         <f>$B3*0.24</f>
         <v>0</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4497,10 +4580,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="137">
         <v>1</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="137"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4525,8 +4608,8 @@
         <f>$B3*0.175</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4612,10 +4695,10 @@
       <c r="G2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="137"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4644,8 +4727,8 @@
         <f>$B3*0.0555</f>
         <v>0</v>
       </c>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4699,12 +4782,12 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
@@ -4760,10 +4843,10 @@
       <c r="M2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="117" t="s">
+      <c r="O2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="117"/>
+      <c r="P2" s="137"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4813,8 +4896,8 @@
         <f t="shared" ref="M3:M14" si="3">D3*1</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
       <c r="S3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -5588,8 +5671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D191C81-5642-4EA4-BD2B-84B8CE0A2B60}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5616,23 +5699,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="136" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U2" s="117" t="s">
+      <c r="U2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="V2" s="117"/>
+      <c r="V2" s="137"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -5683,8 +5766,8 @@
       <c r="S3" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
@@ -5698,7 +5781,7 @@
       </c>
       <c r="D4" s="58">
         <f>C4-Daily_Consumption!C4</f>
-        <v>231.66364238214283</v>
+        <v>243.13030904880949</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="34" t="s">
@@ -5738,7 +5821,7 @@
       </c>
       <c r="D5" s="58">
         <f>C5-Daily_Consumption!C5</f>
-        <v>56.198602071607141</v>
+        <v>56.771935404940479</v>
       </c>
       <c r="F5" s="57">
         <v>22</v>
@@ -5751,7 +5834,7 @@
       </c>
       <c r="I5" s="69">
         <f>H5-Daily_Consumption!H5</f>
-        <v>12.818092857142856</v>
+        <v>19.468759523809524</v>
       </c>
       <c r="K5" s="57">
         <v>44</v>
@@ -5839,7 +5922,7 @@
       </c>
       <c r="D7" s="58">
         <f>C7-Daily_Consumption!C7</f>
-        <v>0.28266442382142853</v>
+        <v>0.39733109048809523</v>
       </c>
       <c r="F7" s="57">
         <v>24</v>
@@ -5893,7 +5976,7 @@
       </c>
       <c r="D8" s="58">
         <f>C8-Daily_Consumption!C8</f>
-        <v>1.581316211910714</v>
+        <v>1.6386495452440475</v>
       </c>
       <c r="F8" s="57">
         <v>25</v>
@@ -5947,7 +6030,7 @@
       </c>
       <c r="D9" s="58">
         <f>C9-Daily_Consumption!C9</f>
-        <v>259.87464238214289</v>
+        <v>390.84130904880953</v>
       </c>
       <c r="F9" s="57">
         <v>26</v>
@@ -6750,12 +6833,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N1" s="121" t="s">
+      <c r="N1" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6809,10 +6892,10 @@
       <c r="Q2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="117" t="s">
+      <c r="S2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="T2" s="117"/>
+      <c r="T2" s="137"/>
       <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -6882,8 +6965,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7052,10 +7135,10 @@
       <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="117"/>
+      <c r="R2" s="137"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7116,8 +7199,8 @@
         <f>$B3*0.0053</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7244,10 +7327,10 @@
       <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="137"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7272,8 +7355,8 @@
         <f>$B3*0.0022</f>
         <v>0</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7345,11 +7428,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7391,10 +7474,10 @@
       <c r="M2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="117"/>
+      <c r="R2" s="137"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7447,8 +7530,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7555,11 +7638,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7601,10 +7684,10 @@
       <c r="M2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7657,8 +7740,8 @@
         <f>$B3*0.00375</f>
         <v>0</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7766,11 +7849,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="124" t="s">
+      <c r="L1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7815,10 +7898,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7875,8 +7958,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7989,11 +8072,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="124" t="s">
+      <c r="L1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8038,10 +8121,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8098,8 +8181,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8212,11 +8295,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="124" t="s">
+      <c r="L1" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8261,10 +8344,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8321,8 +8404,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8445,10 +8528,10 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="137"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8473,8 +8556,8 @@
         <f>$B3*0.0076</f>
         <v>0</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8604,10 +8687,10 @@
       <c r="R2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="117" t="s">
+      <c r="T2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="U2" s="117"/>
+      <c r="U2" s="137"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8680,8 +8763,8 @@
         <f>$B3*0.08</f>
         <v>0</v>
       </c>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8818,33 +8901,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="120"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="140"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U2" s="117" t="s">
+      <c r="U2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="V2" s="117"/>
+      <c r="V2" s="137"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -8895,8 +8978,8 @@
       <c r="S3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
@@ -8907,11 +8990,11 @@
       </c>
       <c r="C4" s="49">
         <f>Puffs_Sweetna!D10+Bread_Bun!D8+Fruit_ButterBread_Donut!D7+Plum_Cake!B5+Tea_Cake!B5+Pineapple_Cake!B5+Carrot_Dates_Cake!C5+Spunge_Cake!B5+Ghee_Cake!B5+Sandwitch_Pizza!D19+Tea_Rusk!B5+White_Rusk!B5+Beans_Biscuit!B5+Pineapple_Cookies!B5+Orange_Cookies!B5+Strawberry_Cookies!B5+Pista_Cookies!B5+Semia_Cookies!B5+Masala_Cookies!B5+'Cherry Cake'!C5</f>
-        <v>64.236357617857152</v>
+        <v>52.769690951190476</v>
       </c>
       <c r="D4" s="74">
         <f>C4*'Cost of raw materials'!C7</f>
-        <v>2312.5088742428575</v>
+        <v>1899.7088742428571</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="34" t="s">
@@ -8948,11 +9031,11 @@
       </c>
       <c r="C5" s="49">
         <f>Puffs_Sweetna!G10+Bread_Bun!G8+Fruit_ButterBread_Donut!G7+Plum_Cake!C5+Plum_Cake!J14+Tea_Cake!C5+Pineapple_Cake!C5+Carrot_Dates_Cake!D5+Spunge_Cake!C5+Ghee_Cake!C5+Sandwitch_Pizza!H19+Tea_Rusk!C5+White_Rusk!C5+Coconut_Cookies!C5</f>
-        <v>19.501397928392858</v>
+        <v>18.928064595059524</v>
       </c>
       <c r="D5" s="74">
         <f>C5*'Cost of raw materials'!C8</f>
-        <v>760.5545192073215</v>
+        <v>738.19451920732149</v>
       </c>
       <c r="F5" s="57">
         <v>22</v>
@@ -8962,11 +9045,11 @@
       </c>
       <c r="H5" s="49">
         <f>Puffs_Sweetna!E10</f>
-        <v>6.881907142857143</v>
+        <v>0.23124047619047616</v>
       </c>
       <c r="I5" s="77">
         <f>H5*'Cost of raw materials'!G8</f>
-        <v>1094.2232357142857</v>
+        <v>36.767235714285711</v>
       </c>
       <c r="K5" s="57">
         <v>44</v>
@@ -9055,11 +9138,11 @@
       </c>
       <c r="C7" s="49">
         <f>Puffs_Sweetna!J10+Bread_Bun!I8+Tea_Cake!I5+Pineapple_Cake!I5+Spunge_Cake!E5+Sandwitch_Pizza!J19+Tea_Rusk!I5+White_Rusk!I5</f>
-        <v>0.59733557617857147</v>
+        <v>0.48266890951190478</v>
       </c>
       <c r="D7" s="74">
         <f>C7*'Cost of raw materials'!C10</f>
-        <v>188.16070649625001</v>
+        <v>152.04070649625001</v>
       </c>
       <c r="F7" s="57">
         <v>24</v>
@@ -9113,11 +9196,11 @@
       </c>
       <c r="C8" s="49">
         <f>Puffs_Sweetna!I10+Bread_Bun!H8+Plum_Cake!K5+Tea_Cake!H5+Pineapple_Cake!H5+Spunge_Cake!F5+Sandwitch_Pizza!I19+Tea_Rusk!H5+White_Rusk!H5+Pineapple_Cookies!H5+Orange_Cookies!H5+Strawberry_Cookies!H5+Pista_Cookies!H5+Semia_Cookies!I5+Masala_Cookies!H5</f>
-        <v>0.31868378808928577</v>
+        <v>0.26135045475595242</v>
       </c>
       <c r="D8" s="74">
         <f>C8*'Cost of raw materials'!C11</f>
-        <v>99.429341883857163</v>
+        <v>81.541341883857157</v>
       </c>
       <c r="F8" s="57">
         <v>25</v>
@@ -9171,11 +9254,11 @@
       </c>
       <c r="C9" s="50">
         <f>Puffs_Sweetna!H10+Plum_Cake!O5+Tea_Cake!J5+Pineapple_Cake!J5+Carrot_Dates_Cake!H5+Spunge_Cake!G5+Black_Forest!E5+White_Forest!E5+Red_Velvet!E5+Ghee_Cake!F5+Sandwitch_Pizza!M19+Tea_Rusk!L5+Beans_Biscuit!D5+Pineapple_Cookies!E5+Orange_Cookies!E5+Strawberry_Cookies!E5+Pista_Cookies!E5+Semia_Cookies!F5+Coconut_Cookies!E5+Masala_Cookies!E5+Muffins!C6+Chocolate_Muffin!C5+'Cherry Cake'!F5</f>
-        <v>439.12535761785711</v>
+        <v>308.15869095119047</v>
       </c>
       <c r="D9" s="74">
         <f>C9*'Cost of raw materials'!C12</f>
-        <v>2195.6267880892856</v>
+        <v>1540.7934547559523</v>
       </c>
       <c r="F9" s="57">
         <v>26</v>
@@ -10007,11 +10090,11 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D26" s="99">
         <f>SUM(D4:D24)</f>
-        <v>8100.4805604220901</v>
+        <v>6956.4792270887565</v>
       </c>
       <c r="I26" s="100">
         <f>SUM(I5:I25)</f>
-        <v>3280.5915957142856</v>
+        <v>2223.1355957142855</v>
       </c>
       <c r="N26" s="100">
         <f>SUM(N4:N25)</f>
@@ -10028,7 +10111,7 @@
       </c>
       <c r="C27" s="103">
         <f>D26+I26+N26+S26</f>
-        <v>13115.579706136376</v>
+        <v>10914.122372803042</v>
       </c>
     </row>
   </sheetData>
@@ -10088,10 +10171,10 @@
       <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="117"/>
+      <c r="I2" s="137"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10113,8 +10196,8 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10258,10 +10341,10 @@
       <c r="D2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="117"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10278,8 +10361,8 @@
         <f>$B3*0.35</f>
         <v>0</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -10373,8 +10456,8 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L1" s="22"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -10419,10 +10502,10 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="117"/>
+      <c r="R2" s="137"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10478,8 +10561,8 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
@@ -10561,14 +10644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B819E1-D83D-4723-B2CE-D289DE12D306}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="126" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="106.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10582,7 +10665,7 @@
       <c r="C1" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="125"/>
+      <c r="D1" s="114"/>
       <c r="E1" t="s">
         <v>307</v>
       </c>
@@ -10603,7 +10686,7 @@
       <c r="E2" s="15">
         <v>36</v>
       </c>
-      <c r="F2" s="127" t="str">
+      <c r="F2" s="17" t="str">
         <f>IF(B2=D2,"","Diff")</f>
         <v/>
       </c>
@@ -10631,7 +10714,7 @@
       <c r="E3" s="15">
         <v>39</v>
       </c>
-      <c r="F3" s="127" t="str">
+      <c r="F3" s="17" t="str">
         <f t="shared" ref="F3:F66" si="0">IF(B3=D3,"","Diff")</f>
         <v/>
       </c>
@@ -10659,7 +10742,7 @@
       <c r="E4" s="15">
         <v>9</v>
       </c>
-      <c r="F4" s="127" t="str">
+      <c r="F4" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10687,7 +10770,7 @@
       <c r="E5" s="15">
         <v>315</v>
       </c>
-      <c r="F5" s="127" t="str">
+      <c r="F5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10715,7 +10798,7 @@
       <c r="E6" s="15">
         <v>312</v>
       </c>
-      <c r="F6" s="127" t="str">
+      <c r="F6" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10743,7 +10826,7 @@
       <c r="E7" s="15">
         <v>5</v>
       </c>
-      <c r="F7" s="127" t="str">
+      <c r="F7" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10771,7 +10854,7 @@
       <c r="E8" s="15">
         <v>550</v>
       </c>
-      <c r="F8" s="127" t="str">
+      <c r="F8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10799,7 +10882,7 @@
       <c r="E9" s="15">
         <v>85</v>
       </c>
-      <c r="F9" s="127" t="str">
+      <c r="F9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10827,7 +10910,7 @@
       <c r="E10" s="15">
         <v>256</v>
       </c>
-      <c r="F10" s="127" t="str">
+      <c r="F10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10855,7 +10938,7 @@
       <c r="E11" s="15">
         <v>500</v>
       </c>
-      <c r="F11" s="127" t="str">
+      <c r="F11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10883,7 +10966,7 @@
       <c r="E12" s="15">
         <v>210</v>
       </c>
-      <c r="F12" s="127" t="str">
+      <c r="F12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10911,7 +10994,7 @@
       <c r="E13" s="15">
         <v>465</v>
       </c>
-      <c r="F13" s="127" t="str">
+      <c r="F13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10939,7 +11022,7 @@
       <c r="E14" s="15">
         <v>190</v>
       </c>
-      <c r="F14" s="127" t="str">
+      <c r="F14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10967,7 +11050,7 @@
       <c r="E15" s="15">
         <v>85</v>
       </c>
-      <c r="F15" s="127" t="str">
+      <c r="F15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10995,7 +11078,7 @@
       <c r="E16" s="15">
         <v>145</v>
       </c>
-      <c r="F16" s="127" t="str">
+      <c r="F16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11023,7 +11106,7 @@
       <c r="E17" s="15">
         <v>155</v>
       </c>
-      <c r="F17" s="127" t="str">
+      <c r="F17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11051,7 +11134,7 @@
       <c r="E18" s="15">
         <v>185</v>
       </c>
-      <c r="F18" s="127" t="str">
+      <c r="F18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11079,7 +11162,7 @@
       <c r="E19" s="15">
         <v>70</v>
       </c>
-      <c r="F19" s="127" t="str">
+      <c r="F19" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11107,7 +11190,7 @@
       <c r="E20" s="15">
         <v>1320</v>
       </c>
-      <c r="F20" s="127" t="str">
+      <c r="F20" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11135,7 +11218,7 @@
       <c r="E21" s="15">
         <v>60</v>
       </c>
-      <c r="F21" s="127" t="str">
+      <c r="F21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11163,7 +11246,7 @@
       <c r="E22" s="15">
         <v>45</v>
       </c>
-      <c r="F22" s="127" t="str">
+      <c r="F22" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11191,7 +11274,7 @@
       <c r="E23" s="15">
         <v>159</v>
       </c>
-      <c r="F23" s="127" t="str">
+      <c r="F23" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11219,7 +11302,7 @@
       <c r="E24" s="15">
         <v>148</v>
       </c>
-      <c r="F24" s="127" t="str">
+      <c r="F24" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11247,7 +11330,7 @@
       <c r="E25" s="15">
         <v>163</v>
       </c>
-      <c r="F25" s="127" t="str">
+      <c r="F25" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11275,7 +11358,7 @@
       <c r="E26" s="15">
         <v>170</v>
       </c>
-      <c r="F26" s="127" t="str">
+      <c r="F26" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11303,7 +11386,7 @@
       <c r="E27" s="15">
         <v>168</v>
       </c>
-      <c r="F27" s="127" t="str">
+      <c r="F27" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11331,7 +11414,7 @@
       <c r="E28" s="15">
         <v>260</v>
       </c>
-      <c r="F28" s="127" t="str">
+      <c r="F28" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11359,7 +11442,7 @@
       <c r="E29" s="15">
         <v>364</v>
       </c>
-      <c r="F29" s="127" t="str">
+      <c r="F29" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11387,7 +11470,7 @@
       <c r="E30" s="15">
         <v>500</v>
       </c>
-      <c r="F30" s="127" t="str">
+      <c r="F30" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11415,7 +11498,7 @@
       <c r="E31" s="15">
         <v>240</v>
       </c>
-      <c r="F31" s="127" t="str">
+      <c r="F31" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11443,7 +11526,7 @@
       <c r="E32" s="15">
         <v>180</v>
       </c>
-      <c r="F32" s="127" t="str">
+      <c r="F32" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11471,7 +11554,7 @@
       <c r="E33" s="15">
         <v>190</v>
       </c>
-      <c r="F33" s="127" t="str">
+      <c r="F33" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11499,7 +11582,7 @@
       <c r="E34" s="15">
         <v>50</v>
       </c>
-      <c r="F34" s="127" t="str">
+      <c r="F34" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11527,7 +11610,7 @@
       <c r="E35" s="15">
         <v>220</v>
       </c>
-      <c r="F35" s="127" t="str">
+      <c r="F35" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11555,7 +11638,7 @@
       <c r="E36" s="15">
         <v>75</v>
       </c>
-      <c r="F36" s="127" t="str">
+      <c r="F36" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11583,7 +11666,7 @@
       <c r="E37" s="15">
         <v>75</v>
       </c>
-      <c r="F37" s="127" t="str">
+      <c r="F37" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11611,7 +11694,7 @@
       <c r="E38" s="15">
         <v>85</v>
       </c>
-      <c r="F38" s="127" t="str">
+      <c r="F38" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11639,7 +11722,7 @@
       <c r="E39" s="15">
         <v>110</v>
       </c>
-      <c r="F39" s="127" t="str">
+      <c r="F39" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11667,7 +11750,7 @@
       <c r="E40" s="15">
         <v>360</v>
       </c>
-      <c r="F40" s="127" t="str">
+      <c r="F40" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11695,7 +11778,7 @@
       <c r="E41" s="15">
         <v>250</v>
       </c>
-      <c r="F41" s="127" t="str">
+      <c r="F41" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11723,7 +11806,7 @@
       <c r="E42" s="15">
         <v>180</v>
       </c>
-      <c r="F42" s="127" t="str">
+      <c r="F42" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11751,7 +11834,7 @@
       <c r="E43" s="15">
         <v>185</v>
       </c>
-      <c r="F43" s="127" t="str">
+      <c r="F43" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11779,7 +11862,7 @@
       <c r="E44" s="15">
         <v>129</v>
       </c>
-      <c r="F44" s="127" t="str">
+      <c r="F44" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11807,7 +11890,7 @@
       <c r="E45" s="15">
         <v>51</v>
       </c>
-      <c r="F45" s="127" t="str">
+      <c r="F45" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11835,7 +11918,7 @@
       <c r="E46" s="15">
         <v>105</v>
       </c>
-      <c r="F46" s="127" t="str">
+      <c r="F46" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11863,7 +11946,7 @@
       <c r="E47" s="15">
         <v>110</v>
       </c>
-      <c r="F47" s="127" t="str">
+      <c r="F47" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11891,7 +11974,7 @@
       <c r="E48" s="15">
         <v>260</v>
       </c>
-      <c r="F48" s="127" t="str">
+      <c r="F48" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11919,7 +12002,7 @@
       <c r="E49" s="15">
         <v>39</v>
       </c>
-      <c r="F49" s="127" t="str">
+      <c r="F49" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11947,7 +12030,7 @@
       <c r="E50" s="15">
         <v>100</v>
       </c>
-      <c r="F50" s="127" t="str">
+      <c r="F50" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11975,7 +12058,7 @@
       <c r="E51" s="15">
         <v>100</v>
       </c>
-      <c r="F51" s="127" t="str">
+      <c r="F51" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Diff</v>
       </c>
@@ -12003,7 +12086,7 @@
       <c r="E52" s="15">
         <v>56</v>
       </c>
-      <c r="F52" s="127" t="str">
+      <c r="F52" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12031,7 +12114,7 @@
       <c r="E53" s="15">
         <v>220</v>
       </c>
-      <c r="F53" s="127" t="str">
+      <c r="F53" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12059,7 +12142,7 @@
       <c r="E54" s="15">
         <v>138</v>
       </c>
-      <c r="F54" s="127" t="str">
+      <c r="F54" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12087,7 +12170,7 @@
       <c r="E55" s="15">
         <v>175</v>
       </c>
-      <c r="F55" s="127" t="str">
+      <c r="F55" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12115,7 +12198,7 @@
       <c r="E56" s="15">
         <v>120</v>
       </c>
-      <c r="F56" s="127" t="str">
+      <c r="F56" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12143,7 +12226,7 @@
       <c r="E57" s="15">
         <v>102</v>
       </c>
-      <c r="F57" s="127" t="str">
+      <c r="F57" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12171,7 +12254,7 @@
       <c r="E58" s="15">
         <v>210</v>
       </c>
-      <c r="F58" s="127" t="str">
+      <c r="F58" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12200,7 +12283,7 @@
         <f>210*2</f>
         <v>420</v>
       </c>
-      <c r="F59" s="127" t="str">
+      <c r="F59" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12229,7 +12312,7 @@
         <f>240*2</f>
         <v>480</v>
       </c>
-      <c r="F60" s="127" t="str">
+      <c r="F60" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12258,7 +12341,7 @@
         <f>431</f>
         <v>431</v>
       </c>
-      <c r="F61" s="127" t="str">
+      <c r="F61" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12287,7 +12370,7 @@
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="F62" s="127" t="str">
+      <c r="F62" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12316,7 +12399,7 @@
         <f>356</f>
         <v>356</v>
       </c>
-      <c r="F63" s="127" t="str">
+      <c r="F63" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12345,7 +12428,7 @@
         <f>220*2</f>
         <v>440</v>
       </c>
-      <c r="F64" s="127" t="str">
+      <c r="F64" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12374,7 +12457,7 @@
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="F65" s="127" t="str">
+      <c r="F65" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12403,7 +12486,7 @@
         <f>680*2</f>
         <v>1360</v>
       </c>
-      <c r="F66" s="127" t="str">
+      <c r="F66" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12432,7 +12515,7 @@
         <f>110*2</f>
         <v>220</v>
       </c>
-      <c r="F67" s="127" t="str">
+      <c r="F67" s="17" t="str">
         <f t="shared" ref="F67:F72" si="2">IF(B67=D67,"","Diff")</f>
         <v/>
       </c>
@@ -12461,7 +12544,7 @@
         <f>500</f>
         <v>500</v>
       </c>
-      <c r="F68" s="127" t="str">
+      <c r="F68" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12490,7 +12573,7 @@
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="F69" s="127" t="str">
+      <c r="F69" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12518,7 +12601,7 @@
       <c r="E70" s="15">
         <v>5</v>
       </c>
-      <c r="F70" s="127" t="str">
+      <c r="F70" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12546,7 +12629,7 @@
       <c r="E71" s="15">
         <v>200</v>
       </c>
-      <c r="F71" s="127" t="str">
+      <c r="F71" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12574,7 +12657,7 @@
       <c r="E72" s="15">
         <v>250</v>
       </c>
-      <c r="F72" s="127" t="str">
+      <c r="F72" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -12593,993 +12676,3288 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF2D52-01D6-4870-AEE4-8A39B8D17AEE}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="M1" s="8">
+        <v>23</v>
+      </c>
+      <c r="N1" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="8">
+        <v>450</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H65" si="0">"new Product { ProductId = "&amp;A2&amp;", CategoryId = "&amp;B2&amp;", SubCategoryId = "&amp;C2&amp;", Name = """&amp;D2&amp;""", MRP =  "&amp;F2&amp;", CreatedById = UserId, CreatedOn = CurrentTime },"</f>
+        <v>new Product { ProductId = 1, CategoryId = 1, SubCategoryId = null, Name = "SWEETNA", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+      <c r="M2" s="8">
+        <v>24</v>
+      </c>
+      <c r="N2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="8">
+        <v>450</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 2, CategoryId = 1, SubCategoryId = null, Name = "SWEET STICK", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+      <c r="M3" s="8">
+        <v>25</v>
+      </c>
+      <c r="N3" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>450</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 3, CategoryId = 1, SubCategoryId = null, Name = "KARI", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+      <c r="M4" s="8">
+        <v>26</v>
+      </c>
+      <c r="N4" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q4" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>450</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 4, CategoryId = 1, SubCategoryId = null, Name = "DILPASANTH", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+      <c r="M5" s="8">
+        <v>27</v>
+      </c>
+      <c r="N5" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="115" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
+        <v>450</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 5, CategoryId = 1, SubCategoryId = null, Name = "CREAM CORN", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+      <c r="M6" s="8">
+        <v>28</v>
+      </c>
+      <c r="N6" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q6" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="8">
+        <v>450</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 6, CategoryId = 1, SubCategoryId = 1, Name = "Egg Puffs", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="8">
+        <v>450</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 7, CategoryId = 1, SubCategoryId = 1, Name = "Chicken Puffs", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="8">
+        <v>450</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 8, CategoryId = 1, SubCategoryId = 1, Name = "Meat Puffs", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="8">
+        <v>450</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 9, CategoryId = 1, SubCategoryId = 1, Name = "Banana Puffs", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="8">
+        <v>450</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 10, CategoryId = 1, SubCategoryId = 1, Name = "Veg Puffs", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="8">
+        <v>450</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 11, CategoryId = 1, SubCategoryId = null, Name = "Neyyappam", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="8">
+        <v>450</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 12, CategoryId = 1, SubCategoryId = null, Name = "Kubalappam", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="8">
+        <v>450</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 13, CategoryId = 1, SubCategoryId = null, Name = "Kozhakatta", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="8">
+        <v>450</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 14, CategoryId = 1, SubCategoryId = null, Name = "Elayappam", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="8">
+        <v>450</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 15, CategoryId = 1, SubCategoryId = null, Name = "Sugiyan", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="8">
+        <v>450</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 16, CategoryId = 1, SubCategoryId = null, Name = "Uzhunnuvada", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="8">
+        <v>450</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 17, CategoryId = 1, SubCategoryId = null, Name = "Parippuvada", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="8">
+        <v>450</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 18, CategoryId = 1, SubCategoryId = null, Name = "Pazhampori", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="8">
+        <v>450</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 19, CategoryId = 27, SubCategoryId = 4, Name = "Veg Samosa", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="8">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="8">
+        <v>450</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 20, CategoryId = 27, SubCategoryId = 4, Name = "Egg Samosa", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="8">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="F22" s="8">
+        <v>450</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 21, CategoryId = 27, SubCategoryId = 4, Name = "Meat Samosa", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="8">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8">
+        <v>450</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 22, CategoryId = 27, SubCategoryId = 4, Name = "Chicken Samosa", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="8">
+        <v>450</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 23, CategoryId = 2, SubCategoryId = null, Name = "BREAD", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="128" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="8">
+        <v>450</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 24, CategoryId = 2, SubCategoryId = null, Name = "BUN", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="128" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="8">
+        <v>450</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 25, CategoryId = 2, SubCategoryId = null, Name = "AVAL BUN", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="128" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="8">
+        <v>450</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 26, CategoryId = 2, SubCategoryId = null, Name = "CREAM BUN", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="C28" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="8">
+        <v>450</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 27, CategoryId = 3, SubCategoryId = null, Name = "FRUIT BREAD", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="C29" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="8">
+        <v>450</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 28, CategoryId = 3, SubCategoryId = null, Name = "BUTTER BREAD", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="8">
+        <v>450</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 29, CategoryId = 3, SubCategoryId = null, Name = "DONUT", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="8">
+        <v>450</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 30, CategoryId = 4, SubCategoryId = 2, Name = "Marble Cake", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="8">
+        <v>450</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 31, CategoryId = 4, SubCategoryId = 2, Name = "Tea Cake", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="8">
+        <v>450</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 32, CategoryId = 4, SubCategoryId = 2, Name = "Butter Plum", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="8">
+        <v>450</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 33, CategoryId = 4, SubCategoryId = 2, Name = "Strawberry Cake", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>29</v>
+      <c r="B35" s="8">
+        <v>5</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="8">
+        <v>450</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 34, CategoryId = 5, SubCategoryId = null, Name = "PLUM CAKE", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>30</v>
+      <c r="B36" s="8">
+        <v>6</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="8">
+        <v>450</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 35, CategoryId = 6, SubCategoryId = null, Name = "PINEAPPALE CAKE", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>251</v>
+      <c r="B37" s="8">
+        <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="8">
+        <v>450</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 36, CategoryId = 7, SubCategoryId = null, Name = "CARROT&amp;DATES CAKE", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>248</v>
+      <c r="B38" s="8">
+        <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="8">
+        <v>450</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 37, CategoryId = 9, SubCategoryId = null, Name = "Cream", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>249</v>
+      <c r="B39" s="8">
+        <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="8">
+        <v>450</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 38, CategoryId = 8, SubCategoryId = null, Name = "SPUNGE CAKE", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>250</v>
+      <c r="B40" s="8">
+        <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="8">
+        <v>450</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 39, CategoryId = 10, SubCategoryId = null, Name = "Black Forest Cake", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>70</v>
+      <c r="B41" s="8">
+        <v>11</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="8">
+        <v>450</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 40, CategoryId = 11, SubCategoryId = null, Name = "White Forest Cake", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>83</v>
+      <c r="B42" s="8">
+        <v>12</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="8">
+        <v>450</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 41, CategoryId = 12, SubCategoryId = null, Name = "Red Velvet Cake", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>86</v>
+      <c r="B43" s="8">
+        <v>13</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="8">
+        <v>450</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 42, CategoryId = 13, SubCategoryId = null, Name = "GHEE CAKE", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>218</v>
+      <c r="B44" s="8">
+        <v>14</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="8">
+        <v>450</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 43, CategoryId = 14, SubCategoryId = null, Name = "Sandwitch BREAD", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>95</v>
+      <c r="B45" s="8">
+        <v>14</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="8">
+        <v>450</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 44, CategoryId = 14, SubCategoryId = null, Name = "ATTA BREAD", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>98</v>
+      <c r="B46" s="8">
+        <v>14</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="8">
+        <v>450</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 45, CategoryId = 14, SubCategoryId = null, Name = "PAV BUN", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>100</v>
+      <c r="B47" s="8">
+        <v>14</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="8">
+        <v>450</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 46, CategoryId = 14, SubCategoryId = null, Name = "Kubboos", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>102</v>
+      <c r="B48" s="8">
+        <v>14</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="8">
+        <v>450</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 47, CategoryId = 14, SubCategoryId = null, Name = "Chicken Roll", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>104</v>
+      <c r="B49" s="8">
+        <v>14</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="8">
+        <v>450</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 48, CategoryId = 14, SubCategoryId = null, Name = "Meat Roll", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>118</v>
+      <c r="B50" s="8">
+        <v>14</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="8">
+        <v>450</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 49, CategoryId = 14, SubCategoryId = null, Name = "Veg Roll", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="8">
+        <v>14</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3</v>
+      </c>
+      <c r="D51" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="8">
+        <v>450</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 50, CategoryId = 14, SubCategoryId = 3, Name = "Chicken sandwitch", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="8">
+        <v>14</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3</v>
+      </c>
+      <c r="D52" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="8">
+        <v>450</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 51, CategoryId = 14, SubCategoryId = 3, Name = "Meat sandwitch", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="8">
+        <v>14</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="8">
+        <v>450</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 52, CategoryId = 14, SubCategoryId = 3, Name = "Veg sandwitch", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="8">
+        <v>14</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3</v>
+      </c>
+      <c r="D54" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="8">
+        <v>450</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 53, CategoryId = 14, SubCategoryId = 3, Name = "Chicken Tikka", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>108</v>
+      <c r="B55" s="8">
+        <v>14</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="8">
+        <v>450</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 54, CategoryId = 14, SubCategoryId = null, Name = "Chicken Pizza", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>111</v>
+      <c r="B56" s="8">
+        <v>14</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="8">
+        <v>450</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 55, CategoryId = 14, SubCategoryId = null, Name = "Chicken Burger", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="128" t="s">
+      <c r="B57" s="8">
+        <v>14</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="8">
+        <v>450</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 56, CategoryId = 14, SubCategoryId = null, Name = "Meat Burger", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="128" t="s">
+      <c r="B58" s="8">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="8">
+        <v>450</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 57, CategoryId = 14, SubCategoryId = null, Name = "Veg Burger", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <v>15</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="8">
+        <v>450</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 58, CategoryId = 15, SubCategoryId = null, Name = "TEA RUSK", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
+        <v>16</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="8">
+        <v>450</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 59, CategoryId = 16, SubCategoryId = null, Name = "WHITE RUSK", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="128" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="8">
+        <v>17</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="8">
+        <v>450</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 60, CategoryId = 17, SubCategoryId = null, Name = "Beans Biscuit", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>112</v>
+      <c r="B62" s="8">
+        <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="8">
+        <v>450</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 61, CategoryId = 18, SubCategoryId = null, Name = "Pineapple Cookies", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>113</v>
+      <c r="B63" s="8">
+        <v>19</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="8">
+        <v>450</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 62, CategoryId = 19, SubCategoryId = null, Name = "Orange Cookies", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>114</v>
+      <c r="B64" s="8">
+        <v>20</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="8">
+        <v>450</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 63, CategoryId = 20, SubCategoryId = null, Name = "Strawberry Cookies", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>119</v>
+      <c r="B65" s="8">
+        <v>21</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="8">
+        <v>450</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>new Product { ProductId = 64, CategoryId = 21, SubCategoryId = null, Name = "Pista Cookies", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>121</v>
+      <c r="B66" s="8">
+        <v>22</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="8">
+        <v>450</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H71" si="1">"new Product { ProductId = "&amp;A66&amp;", CategoryId = "&amp;B66&amp;", SubCategoryId = "&amp;C66&amp;", Name = """&amp;D66&amp;""", MRP =  "&amp;F66&amp;", CreatedById = UserId, CreatedOn = CurrentTime },"</f>
+        <v>new Product { ProductId = 65, CategoryId = 22, SubCategoryId = null, Name = "Semia Cookies", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>125</v>
+      <c r="B67" s="8">
+        <v>23</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="8">
+        <v>450</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product { ProductId = 66, CategoryId = 23, SubCategoryId = null, Name = "Coconut Cookies", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>126</v>
+      <c r="B68" s="8">
+        <v>24</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="8">
+        <v>450</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product { ProductId = 67, CategoryId = 24, SubCategoryId = null, Name = "Masala Cookies", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>133</v>
+      <c r="B69" s="8">
+        <v>25</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F69" s="8">
+        <v>450</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product { ProductId = 68, CategoryId = 25, SubCategoryId = null, Name = "Pineapple Muffin", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>137</v>
+      <c r="B70" s="8">
+        <v>25</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="8">
+        <v>450</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product { ProductId = 69, CategoryId = 25, SubCategoryId = null, Name = "Strwberry Muffin", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>139</v>
+      <c r="B71" s="8">
+        <v>26</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F71" s="8">
+        <v>450</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product { ProductId = 70, CategoryId = 26, SubCategoryId = null, Name = "Choc Muffin", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="8">
+        <v>27</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F72" s="8">
+        <v>450</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" t="str">
+        <f>"new Product { ProductId = "&amp;A72&amp;", CategoryId = "&amp;B72&amp;", SubCategoryId = "&amp;C72&amp;", Name = """&amp;D72&amp;""", MRP =  "&amp;F72&amp;", CreatedById = UserId, CreatedOn = CurrentTime }"</f>
+        <v>new Product { ProductId = 71, CategoryId = 27, SubCategoryId = null, Name = "Cherry Cake", MRP =  450, CreatedById = UserId, CreatedOn = CurrentTime }</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEEA5E-3207-447D-9312-139734E3F6D4}">
+  <dimension ref="A1:M72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="A1:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="8">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="L2" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="8">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="8">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="8">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="115" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="8">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>5</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>9</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8">
+        <v>10</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <v>11</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>12</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <v>13</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8">
+        <v>14</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <v>14</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <v>14</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8">
+        <v>14</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8">
+        <v>14</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8">
+        <v>14</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8">
+        <v>14</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3</v>
+      </c>
+      <c r="D51" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8">
+        <v>14</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3</v>
+      </c>
+      <c r="D52" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8">
+        <v>14</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>14</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3</v>
+      </c>
+      <c r="D54" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>14</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>14</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>14</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8">
+        <v>15</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8">
+        <v>16</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8">
+        <v>17</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8">
+        <v>18</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8">
+        <v>19</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8">
+        <v>20</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8">
+        <v>21</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8">
+        <v>22</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>142</v>
       </c>
+      <c r="E66" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8">
+        <v>23</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8">
+        <v>24</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8">
+        <v>25</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8">
+        <v>25</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8">
+        <v>26</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8">
+        <v>27</v>
+      </c>
       <c r="C72" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="E72" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13590,8 +15968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC33473-5EA2-4215-877C-A76652DD2EEC}">
   <dimension ref="A2:R77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C77"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13614,14 +15992,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="117"/>
+      <c r="R2" s="137"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -14999,36 +17377,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D55B50-A414-40E8-B274-E34251BCB63C}">
-  <dimension ref="A2:Y47"/>
+  <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="17"/>
-    <col min="20" max="20" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -15092,49 +17467,49 @@
       <c r="T2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="V2" s="117" t="s">
+      <c r="V2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="W2" s="117"/>
+      <c r="W2" s="137"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6">
-        <v>345</v>
+        <v>1</v>
       </c>
       <c r="C3" s="9">
         <f>B3/90</f>
-        <v>3.8333333333333335</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="D3" s="9">
         <f>C3*3</f>
-        <v>11.5</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E3" s="9">
         <f>(D3*580)/1000</f>
-        <v>6.67</v>
+        <v>1.9333333333333331E-2</v>
       </c>
       <c r="F3" s="9">
         <f>(D3*20)/1000</f>
-        <v>0.23</v>
+        <v>6.6666666666666664E-4</v>
       </c>
       <c r="G3" s="9">
         <f>(D3*50)/1000</f>
-        <v>0.57499999999999996</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="H3" s="9">
         <f>D3*1</f>
-        <v>11.5</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I3" s="9">
         <f>(D3*5)/1000</f>
-        <v>5.7500000000000002E-2</v>
+        <v>1.6666666666666666E-4</v>
       </c>
       <c r="J3" s="9">
         <f>(D3*10)/1000</f>
-        <v>0.115</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -15146,8 +17521,8 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -15499,39 +17874,39 @@
       </c>
       <c r="B10" s="11">
         <f>SUM(B3:B4)</f>
-        <v>346</v>
+        <v>2</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" ref="C10:T10" si="10">SUM(C3:C8)</f>
-        <v>3.9551190476190476</v>
+        <v>0.1328968253968254</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="10"/>
-        <v>11.865357142857141</v>
+        <v>0.39869047619047621</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="10"/>
-        <v>6.881907142857143</v>
+        <v>0.23124047619047616</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="10"/>
-        <v>0.23730714285714288</v>
+        <v>7.9738095238095236E-3</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="10"/>
-        <v>0.59326785714285701</v>
+        <v>1.9934523809523812E-2</v>
       </c>
       <c r="H10" s="12">
-        <f>SUM(H3:H8)+D18</f>
-        <v>131.86535714285714</v>
+        <f>SUM(H3:H8)+E18</f>
+        <v>0.89869047619047615</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="10"/>
-        <v>5.9326785714285721E-2</v>
+        <v>1.9934523809523809E-3</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="10"/>
-        <v>0.11865357142857144</v>
+        <v>3.9869047619047618E-3</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="10"/>
@@ -15582,31 +17957,31 @@
       <c r="C12" s="42"/>
       <c r="D12" s="42">
         <f>D10*'[1]Cost of raw materials'!C7</f>
-        <v>427.15285714285704</v>
+        <v>14.352857142857143</v>
       </c>
       <c r="E12" s="42">
         <f>E10*'[1]Cost of raw materials'!G8</f>
-        <v>1094.2232357142857</v>
+        <v>36.767235714285711</v>
       </c>
       <c r="F12" s="42">
         <f>F10*'[1]Cost of raw materials'!C9</f>
-        <v>2.135764285714286</v>
+        <v>7.1764285714285711E-2</v>
       </c>
       <c r="G12" s="42">
         <f>G10*'[1]Cost of raw materials'!C8</f>
-        <v>23.137446428571423</v>
+        <v>0.77744642857142865</v>
       </c>
       <c r="H12" s="42">
         <f>H10*'[1]Cost of raw materials'!C12</f>
-        <v>659.32678571428573</v>
+        <v>4.4934523809523803</v>
       </c>
       <c r="I12" s="42">
         <f>I10*'[1]Cost of raw materials'!C11</f>
-        <v>18.509957142857147</v>
+        <v>0.62195714285714288</v>
       </c>
       <c r="J12" s="42">
         <f>J10*'[1]Cost of raw materials'!C10</f>
-        <v>37.375875000000001</v>
+        <v>1.2558750000000001</v>
       </c>
       <c r="K12" s="42">
         <f>K10*'[1]Cost of raw materials'!K16</f>
@@ -15656,7 +18031,7 @@
       </c>
       <c r="B14" s="38">
         <f>SUM(D12:T12)</f>
-        <v>2305.2766267857141</v>
+        <v>101.75529345238093</v>
       </c>
     </row>
     <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
@@ -15670,19 +18045,22 @@
       <c r="C17" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="F17" s="104" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="G17" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="H17" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="104" t="s">
+      <c r="I17" s="104" t="s">
         <v>242</v>
       </c>
     </row>
@@ -15691,94 +18069,114 @@
         <v>243</v>
       </c>
       <c r="B18" s="21">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6">
         <f>B18/90</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="D18" s="6">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D18" s="9">
+        <f>C18*3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E18" s="6">
         <f>B18/2</f>
-        <v>120</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>0.5</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B19" s="21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6">
         <f>B19/85</f>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" ref="D19:D22" si="11">C19*3</f>
+        <v>3.5294117647058823E-2</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
         <f>B19*0.012</f>
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>1.2E-2</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B20" s="21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C20" s="6">
         <f>B20/90</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <f>B20*0.012</f>
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>1.2E-2</v>
+      </c>
       <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B21" s="21">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C21" s="6">
         <f>B21/90</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>247</v>
       </c>
       <c r="B22" s="21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C22" s="6">
         <f>B22/90</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -16028,14 +18426,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" ref="G28:H32" si="11">(D28*50)/1000</f>
+        <f t="shared" ref="G28:H32" si="12">(D28*50)/1000</f>
         <v>4.6249999999999999E-2</v>
       </c>
       <c r="H28" s="9">
         <v>0.32500000000000001</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" ref="I28:I31" si="12">(D28*5)/1000</f>
+        <f t="shared" ref="I28:I31" si="13">(D28*5)/1000</f>
         <v>4.6249999999999998E-3</v>
       </c>
       <c r="J28" s="9">
@@ -16107,7 +18505,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6249999999999999E-2</v>
       </c>
       <c r="H29" s="9">
@@ -16176,29 +18574,29 @@
         <v>0</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30" si="13">C30*3</f>
+        <f t="shared" ref="D30" si="14">C30*3</f>
         <v>0</v>
       </c>
       <c r="E30" s="9">
         <v>0.01</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30" si="14">(D30*20)/1000</f>
+        <f t="shared" ref="F30" si="15">(D30*20)/1000</f>
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H30" s="9">
         <v>0.2</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30:J31" si="15">(D30*10)/1000</f>
+        <f t="shared" ref="J30:J31" si="16">(D30*10)/1000</f>
         <v>0</v>
       </c>
       <c r="K30" s="9">
@@ -16242,11 +18640,11 @@
         <v>0</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" ref="V30:W30" si="16">(F30*600)/1000</f>
+        <f t="shared" ref="V30:W30" si="17">(F30*600)/1000</f>
         <v>0</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X30" s="15">
@@ -16283,11 +18681,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K31" s="9">
@@ -16347,31 +18745,31 @@
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" ref="D32" si="17">C32*3</f>
+        <f t="shared" ref="D32" si="18">C32*3</f>
         <v>0</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" ref="E32:E33" si="18">(D32*580)/1000</f>
+        <f t="shared" ref="E32:E33" si="19">(D32*580)/1000</f>
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" ref="F32" si="19">(D32*20)/1000</f>
+        <f t="shared" ref="F32" si="20">(D32*20)/1000</f>
         <v>0</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32" si="20">(D32*5)/1000</f>
+        <f t="shared" ref="I32" si="21">(D32*5)/1000</f>
         <v>0</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" ref="J32" si="21">(D32*10)/1000</f>
+        <f t="shared" ref="J32" si="22">(D32*10)/1000</f>
         <v>0</v>
       </c>
       <c r="K32" s="9">
@@ -16426,7 +18824,7 @@
         <v>0.05</v>
       </c>
       <c r="Y32" s="15">
-        <f t="shared" ref="Y32" si="22">(I31*600)/1000</f>
+        <f t="shared" ref="Y32" si="23">(I31*600)/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -16444,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F33" s="9">
@@ -16454,7 +18852,7 @@
         <v>281</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" ref="H33" si="23">(E33*50)/1000</f>
+        <f t="shared" ref="H33" si="24">(E33*50)/1000</f>
         <v>0</v>
       </c>
       <c r="I33" s="9">
@@ -16518,97 +18916,117 @@
         <v>269</v>
       </c>
       <c r="C35" s="12">
-        <f t="shared" ref="C35:U35" si="24">SUM(C26:C33)</f>
+        <f t="shared" ref="C35:U35" si="25">SUM(C26:C33)</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.4750000000000001</v>
       </c>
       <c r="E35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.03</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0924999999999998</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.9249999999999998E-2</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.125E-2</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.05</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.08</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.15</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.04</v>
       </c>
       <c r="O35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.04</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
       <c r="R35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.12</v>
       </c>
       <c r="S35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.75</v>
       </c>
       <c r="T35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.25</v>
       </c>
       <c r="U35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="V35" s="12">
-        <f t="shared" ref="V35:X35" si="25">SUM(V28:V33)</f>
+        <f t="shared" ref="V35:X35" si="26">SUM(V28:V33)</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="W35" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="X35" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.34500000000000003</v>
       </c>
       <c r="Y35" s="12">
         <f>SUM(Y26:Y33)</f>
         <v>0.95</v>
       </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38"/>
@@ -16632,180 +19050,1119 @@
       <c r="T38"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" s="117">
+        <v>1</v>
+      </c>
+      <c r="D39" s="117">
+        <v>2</v>
+      </c>
+      <c r="E39" s="117">
+        <v>3</v>
+      </c>
+      <c r="F39" s="117">
+        <v>4</v>
+      </c>
+      <c r="G39" s="117">
+        <v>5</v>
+      </c>
+      <c r="H39" s="117">
+        <v>6</v>
+      </c>
+      <c r="I39" s="117">
+        <v>7</v>
+      </c>
+      <c r="J39" s="117">
+        <v>8</v>
+      </c>
+      <c r="K39" s="117">
+        <v>9</v>
+      </c>
+      <c r="L39" s="117">
+        <v>10</v>
+      </c>
+      <c r="M39" s="117">
+        <v>11</v>
+      </c>
+      <c r="N39" s="117">
+        <v>12</v>
+      </c>
+      <c r="O39" s="117">
+        <v>13</v>
+      </c>
+      <c r="P39" s="117">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="117">
+        <v>15</v>
+      </c>
+      <c r="R39" s="117">
+        <v>16</v>
+      </c>
+      <c r="S39" s="117">
+        <v>17</v>
+      </c>
+      <c r="T39" s="117">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
+      <c r="A40" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="117" t="s">
+        <v>319</v>
+      </c>
+      <c r="C40" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" s="117" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="L40" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="M40" s="118" t="s">
+        <v>272</v>
+      </c>
+      <c r="N40" s="117" t="s">
+        <v>273</v>
+      </c>
+      <c r="O40" s="117" t="s">
+        <v>274</v>
+      </c>
+      <c r="P40" s="117" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q40" s="117" t="s">
+        <v>276</v>
+      </c>
+      <c r="R40" s="117" t="s">
+        <v>277</v>
+      </c>
+      <c r="S40" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="T40" s="117" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="120">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="D41" s="120">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="E41" s="121">
+        <v>0.12</v>
+      </c>
+      <c r="F41" s="122">
+        <v>0.125</v>
+      </c>
+      <c r="G41" s="122">
+        <v>0.04</v>
+      </c>
+      <c r="H41" s="117">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I41" s="123">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J41" s="117">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K41" s="117">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L41" s="117">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="117"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="117"/>
+      <c r="T41" s="117"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="122">
+        <f>(C41*580)/1000</f>
+        <v>2.4857142857142859E-2</v>
+      </c>
+      <c r="D42" s="120">
+        <v>2.1750000000000002E-2</v>
+      </c>
+      <c r="E42" s="121">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="F42" s="122">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G42" s="122">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="122">
+        <f>(C41*20)/1000</f>
+        <v>8.5714285714285721E-4</v>
+      </c>
+      <c r="D43" s="120">
+        <v>7.5000000000000012E-4</v>
+      </c>
+      <c r="E43" s="121">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F43" s="122">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G43" s="122">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
+      <c r="A44" s="117"/>
+      <c r="B44" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="122">
+        <f>(C41*50)/1000</f>
+        <v>2.142857142857143E-3</v>
+      </c>
+      <c r="D44" s="120">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="E44" s="121">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F44" s="122">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G44" s="122">
+        <v>2E-3</v>
+      </c>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="117"/>
+      <c r="S44" s="117"/>
+      <c r="T44" s="117"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
+      <c r="A45" s="117"/>
+      <c r="B45" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="122">
+        <f>C41*1</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="D45" s="120">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="E45" s="121">
+        <v>0.12</v>
+      </c>
+      <c r="F45" s="122">
+        <v>0.125</v>
+      </c>
+      <c r="G45" s="122">
+        <v>0.04</v>
+      </c>
+      <c r="H45" s="122">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I45" s="122">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J45" s="122">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K45" s="122">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L45" s="122">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="117"/>
+      <c r="T45" s="117"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="A46" s="117"/>
+      <c r="B46" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="122">
+        <f>(C41*5)/1000</f>
+        <v>2.142857142857143E-4</v>
+      </c>
+      <c r="D46" s="120">
+        <v>1.8750000000000003E-4</v>
+      </c>
+      <c r="E46" s="121">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F46" s="122">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="G46" s="122">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="117"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="122">
+        <f>(C41*10)/1000</f>
+        <v>4.285714285714286E-4</v>
+      </c>
+      <c r="D47" s="120">
+        <v>3.7500000000000006E-4</v>
+      </c>
+      <c r="E47" s="121">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F47" s="122">
+        <v>1.25E-3</v>
+      </c>
+      <c r="G47" s="122">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H47" s="126"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="125"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="117"/>
+      <c r="T47" s="117"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="117"/>
+      <c r="B48" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="122">
+        <v>0.01</v>
+      </c>
+      <c r="D48" s="120">
+        <v>5.6250000000000007E-3</v>
+      </c>
+      <c r="E48" s="121"/>
+      <c r="F48" s="122">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G48" s="122">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="126"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="117"/>
+      <c r="T48" s="117"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="117"/>
+      <c r="B49" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="122">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D49" s="120">
+        <v>6.7500000000000008E-3</v>
+      </c>
+      <c r="E49" s="121"/>
+      <c r="F49" s="122">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G49" s="122">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H49" s="126"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="117"/>
+      <c r="T49" s="117"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="117"/>
+      <c r="B50" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="122">
+        <f>(C41*30)/1000</f>
+        <v>1.2857142857142859E-3</v>
+      </c>
+      <c r="D50" s="120">
+        <v>9.3750000000000007E-4</v>
+      </c>
+      <c r="E50" s="121"/>
+      <c r="F50" s="122">
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="G50" s="122">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H50" s="126"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="117"/>
+      <c r="R50" s="117"/>
+      <c r="S50" s="117"/>
+      <c r="T50" s="117"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="117"/>
+      <c r="B51" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="130"/>
+      <c r="D51" s="120">
+        <v>2.0625000000000005E-3</v>
+      </c>
+      <c r="E51" s="121"/>
+      <c r="F51" s="130">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
+      <c r="M51" s="125"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="125"/>
+      <c r="P51" s="125"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="117"/>
+      <c r="T51" s="117"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="117"/>
+      <c r="B52" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="130"/>
+      <c r="D52" s="131">
+        <v>1.6875000000000002E-3</v>
+      </c>
+      <c r="E52" s="132"/>
+      <c r="F52" s="130">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="125"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="117"/>
+      <c r="T52" s="117"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="117"/>
+      <c r="B53" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="130"/>
+      <c r="D53" s="120">
+        <v>1.0500000000000002E-2</v>
+      </c>
+      <c r="E53" s="120"/>
+      <c r="F53" s="130">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="125"/>
+      <c r="P53" s="125"/>
+      <c r="Q53" s="117"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="117"/>
+      <c r="T53" s="117"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="117"/>
+      <c r="B54" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120">
+        <v>1.6875000000000002E-3</v>
+      </c>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="125"/>
+      <c r="N54" s="125"/>
+      <c r="O54" s="125"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="117"/>
+      <c r="R54" s="117"/>
+      <c r="S54" s="117"/>
+      <c r="T54" s="117"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="117"/>
+      <c r="B55" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120">
+        <v>2.8125000000000003E-3</v>
+      </c>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="125"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
+      <c r="Q55" s="117"/>
+      <c r="R55" s="117"/>
+      <c r="S55" s="117"/>
+      <c r="T55" s="117"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="117"/>
+      <c r="B56" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120">
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="125"/>
+      <c r="O56" s="125"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="117"/>
+      <c r="R56" s="117"/>
+      <c r="S56" s="117"/>
+      <c r="T56" s="117"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="117"/>
+      <c r="B57" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120">
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="127"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
+      <c r="R57" s="125"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="125"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="117"/>
+      <c r="B58" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="125"/>
+      <c r="O58" s="125"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="125"/>
+      <c r="S58" s="125"/>
+      <c r="T58" s="125"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="117"/>
+      <c r="B59" s="133" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="125"/>
+      <c r="O59" s="125"/>
+      <c r="P59" s="125"/>
+      <c r="Q59" s="125"/>
+      <c r="R59" s="125"/>
+      <c r="S59" s="125"/>
+      <c r="T59" s="125"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="117"/>
+      <c r="B60" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="127"/>
+      <c r="N60" s="125"/>
+      <c r="O60" s="125"/>
+      <c r="P60" s="125"/>
+      <c r="Q60" s="125"/>
+      <c r="R60" s="125"/>
+      <c r="S60" s="125"/>
+      <c r="T60" s="125"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="117"/>
+      <c r="B61" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="127"/>
+      <c r="N61" s="125"/>
+      <c r="O61" s="125"/>
+      <c r="P61" s="125"/>
+      <c r="Q61" s="125"/>
+      <c r="R61" s="125"/>
+      <c r="S61" s="125"/>
+      <c r="T61" s="125"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="117"/>
+      <c r="B62" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="126"/>
+      <c r="M62" s="127"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="125"/>
+      <c r="P62" s="125"/>
+      <c r="Q62" s="125"/>
+      <c r="R62" s="125"/>
+      <c r="S62" s="125"/>
+      <c r="T62" s="125"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="117"/>
+      <c r="B63" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
+      <c r="M63" s="127"/>
+      <c r="N63" s="125"/>
+      <c r="O63" s="125"/>
+      <c r="P63" s="125"/>
+      <c r="Q63" s="125"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="125"/>
+      <c r="T63" s="125"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="117"/>
+      <c r="B64" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="127"/>
+      <c r="N64" s="125"/>
+      <c r="O64" s="125"/>
+      <c r="P64" s="125"/>
+      <c r="Q64" s="125"/>
+      <c r="R64" s="125"/>
+      <c r="S64" s="125"/>
+      <c r="T64" s="125"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="117"/>
+      <c r="B65" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
+      <c r="M65" s="127"/>
+      <c r="N65" s="125"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="125"/>
+      <c r="Q65" s="125"/>
+      <c r="R65" s="125"/>
+      <c r="S65" s="125"/>
+      <c r="T65" s="125"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="117"/>
+      <c r="B66" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="127"/>
+      <c r="N66" s="125"/>
+      <c r="O66" s="125"/>
+      <c r="P66" s="125"/>
+      <c r="Q66" s="125"/>
+      <c r="R66" s="125"/>
+      <c r="S66" s="125"/>
+      <c r="T66" s="125"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="117"/>
+      <c r="B67" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
+      <c r="M67" s="127"/>
+      <c r="N67" s="125"/>
+      <c r="O67" s="125"/>
+      <c r="P67" s="125"/>
+      <c r="Q67" s="125"/>
+      <c r="R67" s="125"/>
+      <c r="S67" s="125"/>
+      <c r="T67" s="125"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="117"/>
+      <c r="B68" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="127"/>
+      <c r="N68" s="125"/>
+      <c r="O68" s="125"/>
+      <c r="P68" s="125"/>
+      <c r="Q68" s="125"/>
+      <c r="R68" s="125"/>
+      <c r="S68" s="125"/>
+      <c r="T68" s="125"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="117"/>
+      <c r="B69" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
+      <c r="M69" s="127"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="125"/>
+      <c r="Q69" s="125"/>
+      <c r="R69" s="125"/>
+      <c r="S69" s="125"/>
+      <c r="T69" s="125"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="117"/>
+      <c r="B70" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="127"/>
+      <c r="N70" s="125"/>
+      <c r="O70" s="125"/>
+      <c r="P70" s="125"/>
+      <c r="Q70" s="125"/>
+      <c r="R70" s="125"/>
+      <c r="S70" s="125"/>
+      <c r="T70" s="125"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="117"/>
+      <c r="B71" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
+      <c r="M71" s="127"/>
+      <c r="N71" s="125"/>
+      <c r="O71" s="125"/>
+      <c r="P71" s="125"/>
+      <c r="Q71" s="125"/>
+      <c r="R71" s="125"/>
+      <c r="S71" s="125"/>
+      <c r="T71" s="125"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="117"/>
+      <c r="B72" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="126"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="126"/>
+      <c r="M72" s="127"/>
+      <c r="N72" s="125"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="125"/>
+      <c r="Q72" s="125"/>
+      <c r="R72" s="125"/>
+      <c r="S72" s="125"/>
+      <c r="T72" s="125"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="117"/>
+      <c r="B73" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="126"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="126"/>
+      <c r="M73" s="127"/>
+      <c r="N73" s="125"/>
+      <c r="O73" s="125"/>
+      <c r="P73" s="125"/>
+      <c r="Q73" s="125"/>
+      <c r="R73" s="125"/>
+      <c r="S73" s="125"/>
+      <c r="T73" s="125"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="117"/>
+      <c r="B74" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="126"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="126"/>
+      <c r="G74" s="126"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="126"/>
+      <c r="J74" s="126"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="126"/>
+      <c r="M74" s="127"/>
+      <c r="N74" s="125"/>
+      <c r="O74" s="125"/>
+      <c r="P74" s="125"/>
+      <c r="Q74" s="125"/>
+      <c r="R74" s="125"/>
+      <c r="S74" s="125"/>
+      <c r="T74" s="125"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="117"/>
+      <c r="B75" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="126"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="126"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="126"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="127"/>
+      <c r="N75" s="125"/>
+      <c r="O75" s="125"/>
+      <c r="P75" s="125"/>
+      <c r="Q75" s="125"/>
+      <c r="R75" s="125"/>
+      <c r="S75" s="125"/>
+      <c r="T75" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16824,7 +20181,7 @@
   <dimension ref="A3:Q23"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17736,10 +21093,10 @@
       <c r="P2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="117"/>
+      <c r="S2" s="137"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -17801,8 +21158,8 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="P3" s="8"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -18374,10 +21731,10 @@
       <c r="O2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="117"/>
+      <c r="R2" s="137"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -18434,8 +21791,8 @@
         <v>1.503E-2</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -18661,10 +22018,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K1" s="22"/>
-      <c r="M1" s="121" t="s">
+      <c r="M1" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="141"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -18710,10 +22067,10 @@
         <v>63</v>
       </c>
       <c r="O2" s="17"/>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="137"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -18772,8 +22129,8 @@
         <v>2.5019999999999997E-2</v>
       </c>
       <c r="O3" s="17"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>

--- a/Documents/Thannickal_Bakers_Working.xlsx
+++ b/Documents/Thannickal_Bakers_Working.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Globocon\BMS\Application\BakeryManagementSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D2BBE8-971C-4D15-9DFF-4846DAD076D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8B0451-86A6-4BA9-9AF8-906C0F01DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="1" activeTab="4" xr2:uid="{9EA4B1FA-7DD5-4CCE-97E0-9A7AE5A0A6E4}"/>
   </bookViews>
@@ -53,7 +53,6 @@
     <externalReference r:id="rId36"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1032,9 +1031,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1593,7 +1593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1872,12 +1872,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1897,9 +1891,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1940,6 +1931,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2526,11 +2521,11 @@
         <v>235</v>
       </c>
       <c r="B5" s="92"/>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
       <c r="G5">
         <v>1</v>
       </c>
@@ -3110,10 +3105,10 @@
       <c r="Q2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="137" t="s">
+      <c r="S2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="T2" s="137"/>
+      <c r="T2" s="134"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3182,8 +3177,8 @@
         <f>0.04*B3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3600,10 +3595,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G1" s="22"/>
-      <c r="O1" s="142" t="s">
+      <c r="O1" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="142"/>
+      <c r="P1" s="139"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3654,10 +3649,10 @@
       <c r="P2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="137" t="s">
+      <c r="R2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="137"/>
+      <c r="S2" s="134"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3722,8 +3717,8 @@
         <f>$B3*0.005</f>
         <v>0</v>
       </c>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3837,8 +3832,8 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G1" s="22"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3886,10 +3881,10 @@
       <c r="O2" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="137"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3950,8 +3945,8 @@
         <f>B3*0.13</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4069,10 +4064,10 @@
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="137"/>
+      <c r="G2" s="134"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4089,8 +4084,8 @@
         <f>$B3*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4151,11 +4146,11 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" s="22"/>
-      <c r="K1" s="144" t="s">
+      <c r="K1" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4197,10 +4192,10 @@
       <c r="M2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="137" t="s">
+      <c r="O2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="137"/>
+      <c r="P2" s="134"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4253,8 +4248,8 @@
         <f>$B3*0.005</f>
         <v>0</v>
       </c>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4362,10 +4357,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4390,8 +4385,8 @@
         <f>$B3*0.24</f>
         <v>0.96</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4471,10 +4466,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4499,8 +4494,8 @@
         <f>$B3*0.24</f>
         <v>0</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4580,10 +4575,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="137">
+      <c r="H2" s="134">
         <v>1</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4608,8 +4603,8 @@
         <f>$B3*0.175</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4695,10 +4690,10 @@
       <c r="G2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="J2" s="137"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4727,8 +4722,8 @@
         <f>$B3*0.0555</f>
         <v>0</v>
       </c>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4843,10 +4838,10 @@
       <c r="M2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="137" t="s">
+      <c r="O2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="137"/>
+      <c r="P2" s="134"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4896,8 +4891,8 @@
         <f t="shared" ref="M3:M14" si="3">D3*1</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
       <c r="S3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -5699,23 +5694,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U2" s="137" t="s">
+      <c r="U2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="V2" s="137"/>
+      <c r="V2" s="134"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -5766,8 +5761,8 @@
       <c r="S3" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
@@ -6833,12 +6828,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N1" s="141" t="s">
+      <c r="N1" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6892,10 +6887,10 @@
       <c r="Q2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="137" t="s">
+      <c r="S2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="T2" s="137"/>
+      <c r="T2" s="134"/>
       <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -6965,8 +6960,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7135,10 +7130,10 @@
       <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="137" t="s">
+      <c r="Q2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="137"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7199,8 +7194,8 @@
         <f>$B3*0.0053</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7327,10 +7322,10 @@
       <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7355,8 +7350,8 @@
         <f>$B3*0.0022</f>
         <v>0</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7428,11 +7423,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K1" s="144" t="s">
+      <c r="K1" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7474,10 +7469,10 @@
       <c r="M2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="137" t="s">
+      <c r="Q2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="137"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7530,8 +7525,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7638,11 +7633,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K1" s="144" t="s">
+      <c r="K1" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7684,10 +7679,10 @@
       <c r="M2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="137"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7740,8 +7735,8 @@
         <f>$B3*0.00375</f>
         <v>0</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7849,11 +7844,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="144" t="s">
+      <c r="L1" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7898,10 +7893,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="137"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7958,8 +7953,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8072,11 +8067,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="144" t="s">
+      <c r="L1" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8121,10 +8116,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="137"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8181,8 +8176,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8295,11 +8290,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="144" t="s">
+      <c r="L1" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8344,10 +8339,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="137"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8404,8 +8399,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8528,10 +8523,10 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8556,8 +8551,8 @@
         <f>$B3*0.0076</f>
         <v>0</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8687,10 +8682,10 @@
       <c r="R2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="137" t="s">
+      <c r="T2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="U2" s="137"/>
+      <c r="U2" s="134"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8763,8 +8758,8 @@
         <f>$B3*0.08</f>
         <v>0</v>
       </c>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8901,33 +8896,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="140"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="137"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U2" s="137" t="s">
+      <c r="U2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="V2" s="137"/>
+      <c r="V2" s="134"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -8978,8 +8973,8 @@
       <c r="S3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
@@ -10171,10 +10166,10 @@
       <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="137"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10196,8 +10191,8 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -10341,10 +10336,10 @@
       <c r="D2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="137"/>
+      <c r="G2" s="134"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10361,8 +10356,8 @@
         <f>$B3*0.35</f>
         <v>0</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -10456,8 +10451,8 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L1" s="22"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -10502,10 +10497,10 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="137" t="s">
+      <c r="Q2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="137"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10561,8 +10556,8 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
@@ -15992,14 +15987,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q2" s="137" t="s">
+      <c r="Q2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="137"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -17379,8 +17374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D55B50-A414-40E8-B274-E34251BCB63C}">
   <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17467,10 +17462,10 @@
       <c r="T2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="V2" s="137" t="s">
+      <c r="V2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="W2" s="137"/>
+      <c r="W2" s="134"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -17521,8 +17516,8 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -19176,34 +19171,34 @@
       <c r="B41" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="120">
+      <c r="C41" s="143">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="D41" s="120">
+      <c r="D41" s="143">
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="E41" s="121">
+      <c r="E41" s="143">
         <v>0.12</v>
       </c>
-      <c r="F41" s="122">
+      <c r="F41" s="143">
         <v>0.125</v>
       </c>
-      <c r="G41" s="122">
+      <c r="G41" s="143">
         <v>0.04</v>
       </c>
-      <c r="H41" s="117">
+      <c r="H41" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I41" s="123">
+      <c r="I41" s="142">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J41" s="117">
+      <c r="J41" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K41" s="117">
+      <c r="K41" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L41" s="117">
+      <c r="L41" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="M41" s="117"/>
@@ -19217,30 +19212,45 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="117"/>
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="122">
+      <c r="C42" s="143">
         <f>(C41*580)/1000</f>
         <v>2.4857142857142859E-2</v>
       </c>
-      <c r="D42" s="120">
+      <c r="D42" s="143">
         <v>2.1750000000000002E-2</v>
       </c>
-      <c r="E42" s="121">
+      <c r="E42" s="143">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="F42" s="122">
+      <c r="F42" s="143">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G42" s="122">
+      <c r="G42" s="143">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
+      <c r="H42" s="142">
+        <f>(H41*580)/1000</f>
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="I42" s="142">
+        <f t="shared" ref="I42:L42" si="27">(I41*580)/1000</f>
+        <v>2.0300000000000002E-2</v>
+      </c>
+      <c r="J42" s="142">
+        <f t="shared" si="27"/>
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="K42" s="142">
+        <f t="shared" si="27"/>
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="L42" s="142">
+        <f t="shared" si="27"/>
+        <v>1.9720000000000001E-2</v>
+      </c>
       <c r="M42" s="117"/>
       <c r="N42" s="117"/>
       <c r="O42" s="117"/>
@@ -19255,27 +19265,42 @@
       <c r="B43" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="122">
+      <c r="C43" s="143">
         <f>(C41*20)/1000</f>
         <v>8.5714285714285721E-4</v>
       </c>
-      <c r="D43" s="120">
+      <c r="D43" s="143">
         <v>7.5000000000000012E-4</v>
       </c>
-      <c r="E43" s="121">
+      <c r="E43" s="143">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F43" s="143">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G43" s="122">
+      <c r="G43" s="143">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
+      <c r="H43" s="142">
+        <f>(H41*20)/1000</f>
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="I43" s="142">
+        <f>(I41*20)/1000</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="J43" s="142">
+        <f>(J41*20)/1000</f>
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="K43" s="142">
+        <f>(K41*20)/1000</f>
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="L43" s="142">
+        <f>(L41*20)/1000</f>
+        <v>6.8000000000000005E-4</v>
+      </c>
       <c r="M43" s="117"/>
       <c r="N43" s="117"/>
       <c r="O43" s="117"/>
@@ -19290,27 +19315,42 @@
       <c r="B44" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="122">
+      <c r="C44" s="143">
         <f>(C41*50)/1000</f>
         <v>2.142857142857143E-3</v>
       </c>
-      <c r="D44" s="120">
+      <c r="D44" s="143">
         <v>1.8750000000000001E-3</v>
       </c>
-      <c r="E44" s="121">
+      <c r="E44" s="143">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="122">
+      <c r="F44" s="143">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="G44" s="122">
+      <c r="G44" s="143">
         <v>2E-3</v>
       </c>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="117"/>
+      <c r="H44" s="142">
+        <f>(H41*50)/1000</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="I44" s="142">
+        <f t="shared" ref="I44:L44" si="28">(I41*50)/1000</f>
+        <v>1.7500000000000003E-3</v>
+      </c>
+      <c r="J44" s="142">
+        <f t="shared" si="28"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="K44" s="142">
+        <f t="shared" si="28"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="L44" s="142">
+        <f t="shared" si="28"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
       <c r="M44" s="117"/>
       <c r="N44" s="117"/>
       <c r="O44" s="117"/>
@@ -19322,38 +19362,38 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="117"/>
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="122">
+      <c r="C45" s="143">
         <f>C41*1</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="D45" s="120">
+      <c r="D45" s="143">
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="E45" s="121">
+      <c r="E45" s="143">
         <v>0.12</v>
       </c>
-      <c r="F45" s="122">
+      <c r="F45" s="143">
         <v>0.125</v>
       </c>
-      <c r="G45" s="122">
+      <c r="G45" s="143">
         <v>0.04</v>
       </c>
-      <c r="H45" s="122">
+      <c r="H45" s="142">
         <v>0.53400000000000003</v>
       </c>
-      <c r="I45" s="122">
+      <c r="I45" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J45" s="122">
+      <c r="J45" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K45" s="122">
+      <c r="K45" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L45" s="122">
+      <c r="L45" s="142">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="M45" s="117"/>
@@ -19367,32 +19407,47 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
-      <c r="B46" s="124" t="s">
+      <c r="B46" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="122">
+      <c r="C46" s="143">
         <f>(C41*5)/1000</f>
         <v>2.142857142857143E-4</v>
       </c>
-      <c r="D46" s="120">
+      <c r="D46" s="143">
         <v>1.8750000000000003E-4</v>
       </c>
-      <c r="E46" s="121">
+      <c r="E46" s="143">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="143">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="G46" s="122">
+      <c r="G46" s="143">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
+      <c r="H46" s="142">
+        <f>(H41*5)/1000</f>
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I46" s="142">
+        <f t="shared" ref="I46:L46" si="29">(I41*5)/1000</f>
+        <v>1.7500000000000003E-4</v>
+      </c>
+      <c r="J46" s="142">
+        <f t="shared" si="29"/>
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="K46" s="142">
+        <f t="shared" si="29"/>
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="L46" s="142">
+        <f t="shared" si="29"/>
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="M46" s="123"/>
+      <c r="N46" s="123"/>
       <c r="O46" s="117"/>
       <c r="P46" s="117"/>
       <c r="Q46" s="117"/>
@@ -19402,34 +19457,49 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="117"/>
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="122">
+      <c r="C47" s="143">
         <f>(C41*10)/1000</f>
         <v>4.285714285714286E-4</v>
       </c>
-      <c r="D47" s="120">
+      <c r="D47" s="143">
         <v>3.7500000000000006E-4</v>
       </c>
-      <c r="E47" s="121">
+      <c r="E47" s="143">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F47" s="122">
+      <c r="F47" s="143">
         <v>1.25E-3</v>
       </c>
-      <c r="G47" s="122">
+      <c r="G47" s="143">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H47" s="126"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="125"/>
-      <c r="P47" s="125"/>
+      <c r="H47" s="142">
+        <f>(H41*10)/1000</f>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="I47" s="142">
+        <f t="shared" ref="I47:L47" si="30">(I41*10)/1000</f>
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="J47" s="142">
+        <f t="shared" si="30"/>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="K47" s="142">
+        <f t="shared" si="30"/>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="L47" s="142">
+        <f t="shared" si="30"/>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="M47" s="123"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="123"/>
       <c r="Q47" s="117"/>
       <c r="R47" s="117"/>
       <c r="S47" s="117"/>
@@ -19437,31 +19507,31 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="117"/>
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="122">
+      <c r="C48" s="143">
         <v>0.01</v>
       </c>
-      <c r="D48" s="120">
+      <c r="D48" s="143">
         <v>5.6250000000000007E-3</v>
       </c>
       <c r="E48" s="121"/>
-      <c r="F48" s="122">
+      <c r="F48" s="143">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G48" s="122">
+      <c r="G48" s="143">
         <v>0.01</v>
       </c>
-      <c r="H48" s="126"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="125"/>
-      <c r="P48" s="125"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="123"/>
       <c r="Q48" s="117"/>
       <c r="R48" s="117"/>
       <c r="S48" s="117"/>
@@ -19469,31 +19539,31 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="117"/>
-      <c r="B49" s="124" t="s">
+      <c r="B49" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="122">
+      <c r="C49" s="143">
         <v>1.6E-2</v>
       </c>
-      <c r="D49" s="120">
+      <c r="D49" s="143">
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="E49" s="121"/>
-      <c r="F49" s="122">
+      <c r="F49" s="143">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G49" s="122">
+      <c r="G49" s="143">
         <v>1.6E-2</v>
       </c>
-      <c r="H49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="125"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="123"/>
+      <c r="N49" s="123"/>
+      <c r="O49" s="123"/>
+      <c r="P49" s="123"/>
       <c r="Q49" s="117"/>
       <c r="R49" s="117"/>
       <c r="S49" s="117"/>
@@ -19501,32 +19571,32 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="117"/>
-      <c r="B50" s="128" t="s">
+      <c r="B50" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="122">
+      <c r="C50" s="143">
         <f>(C41*30)/1000</f>
         <v>1.2857142857142859E-3</v>
       </c>
-      <c r="D50" s="120">
+      <c r="D50" s="143">
         <v>9.3750000000000007E-4</v>
       </c>
       <c r="E50" s="121"/>
-      <c r="F50" s="122">
+      <c r="F50" s="143">
         <v>1.8749999999999999E-3</v>
       </c>
-      <c r="G50" s="122">
+      <c r="G50" s="143">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="125"/>
-      <c r="O50" s="125"/>
-      <c r="P50" s="125"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="123"/>
+      <c r="N50" s="123"/>
+      <c r="O50" s="123"/>
+      <c r="P50" s="123"/>
       <c r="Q50" s="117"/>
       <c r="R50" s="117"/>
       <c r="S50" s="117"/>
@@ -19534,27 +19604,27 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="117"/>
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="130"/>
-      <c r="D51" s="120">
+      <c r="C51" s="128"/>
+      <c r="D51" s="143">
         <v>2.0625000000000005E-3</v>
       </c>
       <c r="E51" s="121"/>
-      <c r="F51" s="130">
+      <c r="F51" s="143">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="125"/>
-      <c r="P51" s="125"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="123"/>
+      <c r="N51" s="123"/>
+      <c r="O51" s="123"/>
+      <c r="P51" s="123"/>
       <c r="Q51" s="117"/>
       <c r="R51" s="117"/>
       <c r="S51" s="117"/>
@@ -19562,27 +19632,27 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="117"/>
-      <c r="B52" s="128" t="s">
+      <c r="B52" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="131">
+      <c r="C52" s="128"/>
+      <c r="D52" s="143">
         <v>1.6875000000000002E-3</v>
       </c>
-      <c r="E52" s="132"/>
-      <c r="F52" s="130">
+      <c r="E52" s="129"/>
+      <c r="F52" s="143">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+      <c r="O52" s="123"/>
+      <c r="P52" s="123"/>
       <c r="Q52" s="117"/>
       <c r="R52" s="117"/>
       <c r="S52" s="117"/>
@@ -19590,27 +19660,27 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="117"/>
-      <c r="B53" s="128" t="s">
+      <c r="B53" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="130"/>
-      <c r="D53" s="120">
+      <c r="C53" s="128"/>
+      <c r="D53" s="143">
         <v>1.0500000000000002E-2</v>
       </c>
       <c r="E53" s="120"/>
-      <c r="F53" s="130">
+      <c r="F53" s="143">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="125"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="123"/>
+      <c r="M53" s="123"/>
+      <c r="N53" s="123"/>
+      <c r="O53" s="123"/>
+      <c r="P53" s="123"/>
       <c r="Q53" s="117"/>
       <c r="R53" s="117"/>
       <c r="S53" s="117"/>
@@ -19618,27 +19688,27 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="117"/>
-      <c r="B54" s="129" t="s">
+      <c r="B54" s="127" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="120"/>
-      <c r="D54" s="120">
+      <c r="D54" s="143">
         <v>1.6875000000000002E-3</v>
       </c>
       <c r="E54" s="120"/>
-      <c r="F54" s="120">
+      <c r="F54" s="143">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
+      <c r="P54" s="123"/>
       <c r="Q54" s="117"/>
       <c r="R54" s="117"/>
       <c r="S54" s="117"/>
@@ -19646,27 +19716,27 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="117"/>
-      <c r="B55" s="129" t="s">
+      <c r="B55" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="120"/>
-      <c r="D55" s="120">
+      <c r="D55" s="143">
         <v>2.8125000000000003E-3</v>
       </c>
       <c r="E55" s="120"/>
-      <c r="F55" s="120">
+      <c r="F55" s="143">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
       <c r="Q55" s="117"/>
       <c r="R55" s="117"/>
       <c r="S55" s="117"/>
@@ -19674,27 +19744,27 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="117"/>
-      <c r="B56" s="129" t="s">
+      <c r="B56" s="127" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="120"/>
-      <c r="D56" s="120">
+      <c r="D56" s="143">
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="E56" s="120"/>
-      <c r="F56" s="120">
+      <c r="F56" s="143">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="125"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="125"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
+      <c r="M56" s="123"/>
+      <c r="N56" s="123"/>
+      <c r="O56" s="123"/>
+      <c r="P56" s="123"/>
       <c r="Q56" s="117"/>
       <c r="R56" s="117"/>
       <c r="S56" s="117"/>
@@ -19702,467 +19772,467 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="117"/>
-      <c r="B57" s="128" t="s">
+      <c r="B57" s="126" t="s">
         <v>146</v>
       </c>
       <c r="C57" s="120"/>
-      <c r="D57" s="120">
+      <c r="D57" s="143">
         <v>2.2500000000000003E-2</v>
       </c>
       <c r="E57" s="120"/>
-      <c r="F57" s="120">
+      <c r="F57" s="143">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
-      <c r="M57" s="127"/>
-      <c r="N57" s="125"/>
-      <c r="O57" s="125"/>
-      <c r="P57" s="125"/>
-      <c r="Q57" s="125"/>
-      <c r="R57" s="125"/>
-      <c r="S57" s="125"/>
-      <c r="T57" s="125"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="123"/>
+      <c r="O57" s="123"/>
+      <c r="P57" s="123"/>
+      <c r="Q57" s="123"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="123"/>
+      <c r="T57" s="123"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="117"/>
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126">
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="142">
         <v>1.2E-2</v>
       </c>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="127"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="125"/>
-      <c r="T58" s="125"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="117"/>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="130" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126">
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="142">
         <v>1.2E-2</v>
       </c>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="127"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="125"/>
-      <c r="T59" s="125"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="125"/>
+      <c r="N59" s="123"/>
+      <c r="O59" s="123"/>
+      <c r="P59" s="123"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
+      <c r="T59" s="123"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="117"/>
-      <c r="B60" s="124" t="s">
+      <c r="B60" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="127"/>
-      <c r="N60" s="125"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="125"/>
-      <c r="Q60" s="125"/>
-      <c r="R60" s="125"/>
-      <c r="S60" s="125"/>
-      <c r="T60" s="125"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="125"/>
+      <c r="N60" s="123"/>
+      <c r="O60" s="123"/>
+      <c r="P60" s="123"/>
+      <c r="Q60" s="123"/>
+      <c r="R60" s="123"/>
+      <c r="S60" s="123"/>
+      <c r="T60" s="123"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="117"/>
-      <c r="B61" s="124" t="s">
+      <c r="B61" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="127"/>
-      <c r="N61" s="125"/>
-      <c r="O61" s="125"/>
-      <c r="P61" s="125"/>
-      <c r="Q61" s="125"/>
-      <c r="R61" s="125"/>
-      <c r="S61" s="125"/>
-      <c r="T61" s="125"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="125"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="123"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="117"/>
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-      <c r="M62" s="127"/>
-      <c r="N62" s="125"/>
-      <c r="O62" s="125"/>
-      <c r="P62" s="125"/>
-      <c r="Q62" s="125"/>
-      <c r="R62" s="125"/>
-      <c r="S62" s="125"/>
-      <c r="T62" s="125"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="125"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
+      <c r="T62" s="123"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="117"/>
-      <c r="B63" s="124" t="s">
+      <c r="B63" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
-      <c r="M63" s="127"/>
-      <c r="N63" s="125"/>
-      <c r="O63" s="125"/>
-      <c r="P63" s="125"/>
-      <c r="Q63" s="125"/>
-      <c r="R63" s="125"/>
-      <c r="S63" s="125"/>
-      <c r="T63" s="125"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="125"/>
+      <c r="N63" s="123"/>
+      <c r="O63" s="123"/>
+      <c r="P63" s="123"/>
+      <c r="Q63" s="123"/>
+      <c r="R63" s="123"/>
+      <c r="S63" s="123"/>
+      <c r="T63" s="123"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="117"/>
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="126"/>
-      <c r="M64" s="127"/>
-      <c r="N64" s="125"/>
-      <c r="O64" s="125"/>
-      <c r="P64" s="125"/>
-      <c r="Q64" s="125"/>
-      <c r="R64" s="125"/>
-      <c r="S64" s="125"/>
-      <c r="T64" s="125"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="124"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="125"/>
+      <c r="N64" s="123"/>
+      <c r="O64" s="123"/>
+      <c r="P64" s="123"/>
+      <c r="Q64" s="123"/>
+      <c r="R64" s="123"/>
+      <c r="S64" s="123"/>
+      <c r="T64" s="123"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="117"/>
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
-      <c r="M65" s="127"/>
-      <c r="N65" s="125"/>
-      <c r="O65" s="125"/>
-      <c r="P65" s="125"/>
-      <c r="Q65" s="125"/>
-      <c r="R65" s="125"/>
-      <c r="S65" s="125"/>
-      <c r="T65" s="125"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="124"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="125"/>
+      <c r="N65" s="123"/>
+      <c r="O65" s="123"/>
+      <c r="P65" s="123"/>
+      <c r="Q65" s="123"/>
+      <c r="R65" s="123"/>
+      <c r="S65" s="123"/>
+      <c r="T65" s="123"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="117"/>
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="126"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
-      <c r="M66" s="127"/>
-      <c r="N66" s="125"/>
-      <c r="O66" s="125"/>
-      <c r="P66" s="125"/>
-      <c r="Q66" s="125"/>
-      <c r="R66" s="125"/>
-      <c r="S66" s="125"/>
-      <c r="T66" s="125"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="125"/>
+      <c r="N66" s="123"/>
+      <c r="O66" s="123"/>
+      <c r="P66" s="123"/>
+      <c r="Q66" s="123"/>
+      <c r="R66" s="123"/>
+      <c r="S66" s="123"/>
+      <c r="T66" s="123"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="117"/>
-      <c r="B67" s="124" t="s">
+      <c r="B67" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="126"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
-      <c r="M67" s="127"/>
-      <c r="N67" s="125"/>
-      <c r="O67" s="125"/>
-      <c r="P67" s="125"/>
-      <c r="Q67" s="125"/>
-      <c r="R67" s="125"/>
-      <c r="S67" s="125"/>
-      <c r="T67" s="125"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="125"/>
+      <c r="N67" s="123"/>
+      <c r="O67" s="123"/>
+      <c r="P67" s="123"/>
+      <c r="Q67" s="123"/>
+      <c r="R67" s="123"/>
+      <c r="S67" s="123"/>
+      <c r="T67" s="123"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="117"/>
-      <c r="B68" s="124" t="s">
+      <c r="B68" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="127"/>
-      <c r="N68" s="125"/>
-      <c r="O68" s="125"/>
-      <c r="P68" s="125"/>
-      <c r="Q68" s="125"/>
-      <c r="R68" s="125"/>
-      <c r="S68" s="125"/>
-      <c r="T68" s="125"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="124"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="125"/>
+      <c r="N68" s="123"/>
+      <c r="O68" s="123"/>
+      <c r="P68" s="123"/>
+      <c r="Q68" s="123"/>
+      <c r="R68" s="123"/>
+      <c r="S68" s="123"/>
+      <c r="T68" s="123"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="117"/>
-      <c r="B69" s="124" t="s">
+      <c r="B69" s="122" t="s">
         <v>269</v>
       </c>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
-      <c r="M69" s="127"/>
-      <c r="N69" s="125"/>
-      <c r="O69" s="125"/>
-      <c r="P69" s="125"/>
-      <c r="Q69" s="125"/>
-      <c r="R69" s="125"/>
-      <c r="S69" s="125"/>
-      <c r="T69" s="125"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="125"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="123"/>
+      <c r="P69" s="123"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="123"/>
+      <c r="T69" s="123"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="117"/>
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
-      <c r="M70" s="127"/>
-      <c r="N70" s="125"/>
-      <c r="O70" s="125"/>
-      <c r="P70" s="125"/>
-      <c r="Q70" s="125"/>
-      <c r="R70" s="125"/>
-      <c r="S70" s="125"/>
-      <c r="T70" s="125"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="125"/>
+      <c r="N70" s="123"/>
+      <c r="O70" s="123"/>
+      <c r="P70" s="123"/>
+      <c r="Q70" s="123"/>
+      <c r="R70" s="123"/>
+      <c r="S70" s="123"/>
+      <c r="T70" s="123"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="117"/>
-      <c r="B71" s="124" t="s">
+      <c r="B71" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
-      <c r="M71" s="127"/>
-      <c r="N71" s="125"/>
-      <c r="O71" s="125"/>
-      <c r="P71" s="125"/>
-      <c r="Q71" s="125"/>
-      <c r="R71" s="125"/>
-      <c r="S71" s="125"/>
-      <c r="T71" s="125"/>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="125"/>
+      <c r="N71" s="123"/>
+      <c r="O71" s="123"/>
+      <c r="P71" s="123"/>
+      <c r="Q71" s="123"/>
+      <c r="R71" s="123"/>
+      <c r="S71" s="123"/>
+      <c r="T71" s="123"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="117"/>
-      <c r="B72" s="124" t="s">
+      <c r="B72" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
-      <c r="M72" s="127"/>
-      <c r="N72" s="125"/>
-      <c r="O72" s="125"/>
-      <c r="P72" s="125"/>
-      <c r="Q72" s="125"/>
-      <c r="R72" s="125"/>
-      <c r="S72" s="125"/>
-      <c r="T72" s="125"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="124"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="125"/>
+      <c r="N72" s="123"/>
+      <c r="O72" s="123"/>
+      <c r="P72" s="123"/>
+      <c r="Q72" s="123"/>
+      <c r="R72" s="123"/>
+      <c r="S72" s="123"/>
+      <c r="T72" s="123"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="117"/>
-      <c r="B73" s="124" t="s">
+      <c r="B73" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="126"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="126"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="127"/>
-      <c r="N73" s="125"/>
-      <c r="O73" s="125"/>
-      <c r="P73" s="125"/>
-      <c r="Q73" s="125"/>
-      <c r="R73" s="125"/>
-      <c r="S73" s="125"/>
-      <c r="T73" s="125"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="125"/>
+      <c r="N73" s="123"/>
+      <c r="O73" s="123"/>
+      <c r="P73" s="123"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="123"/>
+      <c r="S73" s="123"/>
+      <c r="T73" s="123"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="117"/>
-      <c r="B74" s="124" t="s">
+      <c r="B74" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="C74" s="126"/>
-      <c r="D74" s="126"/>
-      <c r="E74" s="126"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="126"/>
-      <c r="L74" s="126"/>
-      <c r="M74" s="127"/>
-      <c r="N74" s="125"/>
-      <c r="O74" s="125"/>
-      <c r="P74" s="125"/>
-      <c r="Q74" s="125"/>
-      <c r="R74" s="125"/>
-      <c r="S74" s="125"/>
-      <c r="T74" s="125"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="125"/>
+      <c r="N74" s="123"/>
+      <c r="O74" s="123"/>
+      <c r="P74" s="123"/>
+      <c r="Q74" s="123"/>
+      <c r="R74" s="123"/>
+      <c r="S74" s="123"/>
+      <c r="T74" s="123"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="117"/>
-      <c r="B75" s="124" t="s">
+      <c r="B75" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="126"/>
-      <c r="D75" s="126"/>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="126"/>
-      <c r="K75" s="126"/>
-      <c r="L75" s="126"/>
-      <c r="M75" s="127"/>
-      <c r="N75" s="125"/>
-      <c r="O75" s="125"/>
-      <c r="P75" s="125"/>
-      <c r="Q75" s="125"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="125"/>
-      <c r="T75" s="125"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="125"/>
+      <c r="N75" s="123"/>
+      <c r="O75" s="123"/>
+      <c r="P75" s="123"/>
+      <c r="Q75" s="123"/>
+      <c r="R75" s="123"/>
+      <c r="S75" s="123"/>
+      <c r="T75" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21093,10 +21163,10 @@
       <c r="P2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="137" t="s">
+      <c r="R2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="137"/>
+      <c r="S2" s="134"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -21158,8 +21228,8 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="P3" s="8"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -21731,10 +21801,10 @@
       <c r="O2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="137" t="s">
+      <c r="Q2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="137"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -21791,8 +21861,8 @@
         <v>1.503E-2</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -22018,10 +22088,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K1" s="22"/>
-      <c r="M1" s="141" t="s">
+      <c r="M1" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="141"/>
+      <c r="N1" s="138"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -22067,10 +22137,10 @@
         <v>63</v>
       </c>
       <c r="O2" s="17"/>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="137"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22129,8 +22199,8 @@
         <v>2.5019999999999997E-2</v>
       </c>
       <c r="O3" s="17"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>

--- a/Documents/Thannickal_Bakers_Working.xlsx
+++ b/Documents/Thannickal_Bakers_Working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Globocon\BMS\Application\BakeryManagementSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8B0451-86A6-4BA9-9AF8-906C0F01DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9770755-6836-4417-BB0E-D34CE9E6A122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="1" activeTab="4" xr2:uid="{9EA4B1FA-7DD5-4CCE-97E0-9A7AE5A0A6E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="30" activeTab="35" xr2:uid="{9EA4B1FA-7DD5-4CCE-97E0-9A7AE5A0A6E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="31" r:id="rId1"/>
@@ -48,9 +48,10 @@
     <sheet name="RawMaterials" sheetId="40" r:id="rId33"/>
     <sheet name="Products" sheetId="41" r:id="rId34"/>
     <sheet name="Products_Rawmaterial" sheetId="43" r:id="rId35"/>
+    <sheet name="Report1" sheetId="44" r:id="rId36"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="329">
   <si>
     <t>Item</t>
   </si>
@@ -1025,6 +1026,30 @@
   </si>
   <si>
     <t>RM MapID</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Team Wise Items Prepration List</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>[OrderDate]</t>
+  </si>
+  <si>
+    <t>Ingrident Name</t>
+  </si>
+  <si>
+    <t>Ingrident Req Qty</t>
+  </si>
+  <si>
+    <t>[TeamName]</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1061,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1166,24 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1234,7 +1277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1588,12 +1631,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1935,6 +2002,19 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15959,6 +16039,98 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F45509-B26B-44D6-A57B-9AB7E42E87E5}">
+  <dimension ref="B1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="145" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC33473-5EA2-4215-877C-A76652DD2EEC}">
   <dimension ref="A2:R77"/>
@@ -17374,8 +17546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D55B50-A414-40E8-B274-E34251BCB63C}">
   <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView topLeftCell="A37" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18254,7 +18426,9 @@
       <c r="A26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="21">
+        <v>1</v>
+      </c>
       <c r="C26" s="9">
         <v>0.5</v>
       </c>
@@ -18330,7 +18504,9 @@
       <c r="A27" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="21">
+        <v>1</v>
+      </c>
       <c r="C27" s="9">
         <v>0.1</v>
       </c>
@@ -20250,8 +20426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B44F2-5692-3F4F-AB9E-16CFC18BE7AA}">
   <dimension ref="A3:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A10" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21091,7 +21267,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Thannickal_Bakers_Working.xlsx
+++ b/Documents/Thannickal_Bakers_Working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Globocon\BMS\Application\BakeryManagementSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9770755-6836-4417-BB0E-D34CE9E6A122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547DF214-3D68-410F-B51A-143FAD6667F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="30" activeTab="35" xr2:uid="{9EA4B1FA-7DD5-4CCE-97E0-9A7AE5A0A6E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="6" activeTab="21" xr2:uid="{9EA4B1FA-7DD5-4CCE-97E0-9A7AE5A0A6E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="31" r:id="rId1"/>
@@ -49,9 +49,11 @@
     <sheet name="Products" sheetId="41" r:id="rId34"/>
     <sheet name="Products_Rawmaterial" sheetId="43" r:id="rId35"/>
     <sheet name="Report1" sheetId="44" r:id="rId36"/>
+    <sheet name="Mappings" sheetId="45" r:id="rId37"/>
+    <sheet name="Sheet1" sheetId="46" r:id="rId38"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId37"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="349">
   <si>
     <t>Item</t>
   </si>
@@ -1050,16 +1052,78 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>RawMaterialId</t>
+  </si>
+  <si>
+    <t>QuantityRequired</t>
+  </si>
+  <si>
+    <t>Ingrident</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>Estela</t>
+  </si>
+  <si>
+    <t>TEA RUSK Tray</t>
+  </si>
+  <si>
+    <t>TEA RUSK 200 gm</t>
+  </si>
+  <si>
+    <t>WHITE RUSK Tray</t>
+  </si>
+  <si>
+    <t>WHITE RUSK 200 gm</t>
+  </si>
+  <si>
+    <t>Elachi</t>
+  </si>
+  <si>
+    <t>Pineapple Muffin 1 pkt (6 pcs)</t>
+  </si>
+  <si>
+    <t>Strwberry Muffin 1 pkt (6 pcs)</t>
+  </si>
+  <si>
+    <t>Mango Muffin 1 pkt (6 pcs)</t>
+  </si>
+  <si>
+    <t>Orange Muffin 1 pkt (6 pcs)</t>
+  </si>
+  <si>
+    <t>Ellau</t>
+  </si>
+  <si>
+    <t>Tutty</t>
+  </si>
+  <si>
+    <t>Milk powder</t>
+  </si>
+  <si>
+    <t>Vanila powder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1185,7 +1249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,6 +1338,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1660,7 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1966,6 +2036,40 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1998,14 +2102,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2601,11 +2697,11 @@
         <v>235</v>
       </c>
       <c r="B5" s="92"/>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
       <c r="G5">
         <v>1</v>
       </c>
@@ -3110,7 +3206,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,10 +3281,10 @@
       <c r="Q2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="134" t="s">
+      <c r="S2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="T2" s="134"/>
+      <c r="T2" s="148"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3257,8 +3353,8 @@
         <f>0.04*B3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3652,7 +3748,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,10 +3771,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G1" s="22"/>
-      <c r="O1" s="139" t="s">
+      <c r="O1" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="139"/>
+      <c r="P1" s="153"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3729,10 +3825,10 @@
       <c r="P2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="134" t="s">
+      <c r="R2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="134"/>
+      <c r="S2" s="148"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3797,8 +3893,8 @@
         <f>$B3*0.005</f>
         <v>0</v>
       </c>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3890,12 +3986,12 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -3912,8 +4008,8 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G1" s="22"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3961,72 +4057,72 @@
       <c r="O2" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="27">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="C3" s="9">
         <f>$B3*1</f>
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="9">
         <f>$B3*1</f>
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="9">
         <f>$B3*0.78</f>
-        <v>1.9500000000000002</v>
+        <v>0.93599999999999994</v>
       </c>
       <c r="F3" s="9">
         <f>$B3*0.13</f>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="G3" s="9">
         <f>$B3*0.13</f>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="H3" s="9">
-        <f>$B3*25</f>
-        <v>62.5</v>
+        <f>$B3*26.7</f>
+        <v>32.04</v>
       </c>
       <c r="I3" s="9">
         <f>$B3*1.04</f>
-        <v>2.6</v>
+        <v>1.248</v>
       </c>
       <c r="J3" s="9">
         <f>$B3*0.025</f>
-        <v>6.25E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K3" s="9">
         <f>$B3*0.13</f>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="L3" s="9">
         <f>$B3*0.025</f>
-        <v>6.25E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M3" s="9">
         <f>$B3*0.13</f>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="N3" s="9">
         <f>$B3*0.05</f>
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="O3">
         <f>B3*0.13</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
+        <v>0.156</v>
+      </c>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4041,59 +4137,59 @@
       </c>
       <c r="B5" s="12">
         <f>SUM(B3:B3)</f>
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="C5" s="12">
         <f>SUM(C3:C3)</f>
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="D5" s="12">
         <f>SUM(D3:D3)</f>
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="12">
         <f>SUM(E3:E3)</f>
-        <v>1.9500000000000002</v>
+        <v>0.93599999999999994</v>
       </c>
       <c r="F5" s="12">
         <f>SUM(F3:F3)</f>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:O5" si="0">SUM(G3:G3)</f>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>32.04</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>1.248</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
     </row>
   </sheetData>
@@ -4114,16 +4210,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB30A52-F456-4850-A140-766FB408ED31}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4142,30 +4240,33 @@
         <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="134" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="134"/>
+      <c r="G2" s="148"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9">
         <f>$B3*1.5</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="9">
         <f>$B3*0.01</f>
-        <v>0.06</v>
-      </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4177,15 +4278,32 @@
       </c>
       <c r="B5" s="12">
         <f>SUM(B3:B3)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12">
         <f>SUM(C3:C3)</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" ref="D5" si="0">SUM(D3:D3)</f>
-        <v>0.06</v>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="27">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -4226,11 +4344,11 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F1" s="22"/>
-      <c r="K1" s="141" t="s">
+      <c r="K1" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4272,10 +4390,10 @@
       <c r="M2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="134" t="s">
+      <c r="O2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="134"/>
+      <c r="P2" s="148"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4328,8 +4446,8 @@
         <f>$B3*0.005</f>
         <v>0</v>
       </c>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4408,7 +4526,7 @@
   <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H31"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,10 +4555,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4465,8 +4583,8 @@
         <f>$B3*0.24</f>
         <v>0.96</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4546,10 +4664,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4574,8 +4692,8 @@
         <f>$B3*0.24</f>
         <v>0</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4655,10 +4773,10 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="134">
+      <c r="H2" s="148">
         <v>1</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4683,8 +4801,8 @@
         <f>$B3*0.175</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4735,7 +4853,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4770,10 +4888,10 @@
       <c r="G2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="J2" s="134"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4802,8 +4920,8 @@
         <f>$B3*0.0555</f>
         <v>0</v>
       </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -4857,7 +4975,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M12" sqref="A2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,7 +4989,7 @@
     <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4895,7 +5013,7 @@
         <v>105</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -4918,61 +5036,61 @@
       <c r="M2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="134" t="s">
+      <c r="O2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="134"/>
+      <c r="P2" s="148"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="21">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
         <f>550/1000</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <f>(B3*C3)/2</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F8" si="0">(D3*100)/1000</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="G3" s="108">
+        <f>(D3*15)/1000</f>
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="H3" s="12">
         <f>(D3*100)/1000</f>
-        <v>0.33</v>
-      </c>
-      <c r="G3" s="9">
-        <f>(D3*15)/1000</f>
-        <v>4.9500000000000009E-2</v>
-      </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H14" si="0">(D3*150)/1000</f>
-        <v>0.49500000000000005</v>
-      </c>
-      <c r="I3" s="9">
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="I3" s="108">
         <f>(D3*5)/1000</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="J3" s="9">
+        <v>1.3749999999999999E-3</v>
+      </c>
+      <c r="J3" s="108">
         <f>(D3*10)/1000</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K3" s="9">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="K3" s="12">
         <f t="shared" ref="K3:K14" si="1">(D3*20)/1000</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="L3" s="20">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="L3" s="137">
         <f t="shared" ref="L3:L14" si="2">(D3*10)/1000</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="M3" s="31">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="M3" s="138">
         <f t="shared" ref="M3:M14" si="3">D3*1</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
       <c r="S3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4980,50 +5098,50 @@
         <v>22</v>
       </c>
       <c r="B4" s="21">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
         <v>0.45</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="12">
         <f>((B4*C4)/2)*0.698413</f>
-        <v>1.1000004749999999</v>
-      </c>
-      <c r="E4" s="9">
+        <v>0.15714292499999999</v>
+      </c>
+      <c r="E4" s="12">
         <f>D4*0.455</f>
-        <v>0.50050021612499995</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F17" si="4">(D4*90)/1000</f>
-        <v>9.9000042749999989E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G17" si="5">(D4*15)/1000</f>
-        <v>1.6500007124999997E-2</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16500007124999999</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I17" si="6">(D4*5)/1000</f>
-        <v>5.5000023749999993E-3</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J17" si="7">(D4*10)/1000</f>
-        <v>1.1000004749999999E-2</v>
-      </c>
-      <c r="K4" s="9">
+        <v>7.1500030874999995E-2</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5714292499999997E-2</v>
+      </c>
+      <c r="G4" s="108">
+        <f t="shared" ref="G4:G17" si="4">(D4*15)/1000</f>
+        <v>2.3571438749999999E-3</v>
+      </c>
+      <c r="H4" s="12">
+        <f>(D4*100)/1000</f>
+        <v>1.5714292499999997E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I17" si="5">(D4*5)/1000</f>
+        <v>7.8571462499999996E-4</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J17" si="6">(D4*10)/1000</f>
+        <v>1.5714292499999999E-3</v>
+      </c>
+      <c r="K4" s="12">
         <f t="shared" si="1"/>
-        <v>2.2000009499999997E-2</v>
-      </c>
-      <c r="L4" s="20">
+        <v>3.1428584999999998E-3</v>
+      </c>
+      <c r="L4" s="137">
         <f t="shared" si="2"/>
-        <v>1.1000004749999999E-2</v>
-      </c>
-      <c r="M4" s="31">
+        <v>1.5714292499999999E-3</v>
+      </c>
+      <c r="M4" s="138">
         <f t="shared" si="3"/>
-        <v>1.1000004749999999</v>
+        <v>0.15714292499999999</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -5031,48 +5149,48 @@
         <v>23</v>
       </c>
       <c r="B5" s="21">
-        <v>24</v>
-      </c>
-      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
         <f>40/1000</f>
         <v>0.04</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="D5:D17" si="8">(B5*C5)/2</f>
-        <v>0.48</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D17" si="7">(B5*C5)/2</f>
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="108">
         <f t="shared" si="4"/>
-        <v>4.3199999999999995E-2</v>
-      </c>
-      <c r="G5" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H5" s="12">
+        <f>(D5*100)/1000</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I5" s="12">
         <f t="shared" si="5"/>
-        <v>7.1999999999999989E-3</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="I5" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J5" s="12">
         <f t="shared" si="6"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="7"/>
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="K5" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K5" s="12">
         <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="L5" s="20">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L5" s="137">
         <f t="shared" si="2"/>
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="M5" s="31">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M5" s="138">
         <f t="shared" si="3"/>
-        <v>0.48</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -5080,48 +5198,48 @@
         <v>106</v>
       </c>
       <c r="B6" s="21">
-        <v>140</v>
-      </c>
-      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="9">(B6*C6)/2</f>
-        <v>3.5</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <f t="shared" si="4"/>
-        <v>0.315</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" ref="G6" si="10">(D6*15)/1000</f>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" ref="I6" si="11">(D6*5)/1000</f>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" ref="J6" si="12">(D6*10)/1000</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="D6" s="12">
+        <f t="shared" ref="D6" si="8">(B6*C6)/2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G6" s="108">
+        <f t="shared" ref="G6" si="9">(D6*15)/1000</f>
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="H6" s="12">
+        <f>(D6*100)/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" ref="I6" si="10">(D6*5)/1000</f>
+        <v>1.25E-4</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6" si="11">(D6*10)/1000</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L6" s="20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L6" s="137">
         <f t="shared" si="2"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="M6" s="31">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="M6" s="138">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -5129,48 +5247,48 @@
         <v>107</v>
       </c>
       <c r="B7" s="21">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" ref="C7:C14" si="13">80/1000</f>
-        <v>0.08</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" ref="D7" si="14">(B7*C7)/2</f>
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <f t="shared" si="4"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" ref="G7" si="15">(D7*15)/1000</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" ref="I7" si="16">(D7*5)/1000</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" ref="J7" si="17">(D7*10)/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" ref="D7" si="12">(B7*C7)/2</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000005E-3</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" ref="G7" si="13">(D7*15)/1000</f>
+        <v>5.2500000000000008E-4</v>
+      </c>
+      <c r="H7" s="12">
+        <f>(D7*100)/1000</f>
+        <v>3.5000000000000005E-3</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" ref="I7" si="14">(D7*5)/1000</f>
+        <v>1.7500000000000003E-4</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" ref="J7" si="15">(D7*10)/1000</f>
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="1"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="L7" s="20">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="L7" s="137">
         <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M7" s="31">
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="M7" s="138">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -5178,244 +5296,245 @@
         <v>108</v>
       </c>
       <c r="B8" s="21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" si="13"/>
-        <v>0.08</v>
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ref="D8" si="18">(B8*C8)/2</f>
-        <v>0.8</v>
+        <f t="shared" ref="D8" si="16">(B8*C8)/2</f>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <f t="shared" si="4"/>
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5000000000000005E-3</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ref="G8" si="19">(D8*15)/1000</f>
-        <v>1.2E-2</v>
+        <f t="shared" ref="G8" si="17">(D8*15)/1000</f>
+        <v>5.2500000000000008E-4</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <f t="shared" ref="H8:H13" si="18">(D8*150)/1000</f>
+        <v>5.2500000000000012E-3</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ref="I8" si="20">(D8*5)/1000</f>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" ref="I8" si="19">(D8*5)/1000</f>
+        <v>1.7500000000000003E-4</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" ref="J8" si="21">(D8*10)/1000</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" ref="J8" si="20">(D8*10)/1000</f>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="1"/>
-        <v>1.6E-2</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="L8" s="20">
         <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="M8" s="31">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="115" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C9:C13" si="21">80/1000</f>
         <v>0.08</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="135">
         <f t="shared" ref="D9" si="22">(B9*C9)/2</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="F9:F17" si="23">(D9*90)/1000</f>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G9" si="23">(D9*15)/1000</f>
-        <v>0</v>
+        <f t="shared" ref="G9" si="24">(D9*15)/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9" si="24">(D9*5)/1000</f>
-        <v>0</v>
+        <f t="shared" ref="I9" si="25">(D9*5)/1000</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" ref="J9" si="25">(D9*10)/1000</f>
-        <v>0</v>
+        <f t="shared" ref="J9" si="26">(D9*10)/1000</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M9" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="115" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="21">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.08</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ref="D10" si="26">(B10*C10)/2</f>
-        <v>1.2</v>
+        <f t="shared" ref="D10" si="27">(B10*C10)/2</f>
+        <v>0.04</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <f t="shared" si="4"/>
-        <v>0.108</v>
+        <f t="shared" si="23"/>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ref="G10" si="27">(D10*15)/1000</f>
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" ref="G10" si="28">(D10*15)/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
+        <f t="shared" si="18"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" ref="I10" si="28">(D10*5)/1000</f>
-        <v>6.0000000000000001E-3</v>
+        <f t="shared" ref="I10" si="29">(D10*5)/1000</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" ref="J10" si="29">(D10*10)/1000</f>
-        <v>1.2E-2</v>
+        <f t="shared" ref="J10" si="30">(D10*10)/1000</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" si="2"/>
-        <v>1.2E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M10" s="31">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="115" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.08</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ref="D11" si="30">(B11*C11)/2</f>
-        <v>0.4</v>
+        <f t="shared" ref="D11" si="31">(B11*C11)/2</f>
+        <v>0.04</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <f t="shared" si="4"/>
-        <v>3.5999999999999997E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" ref="G11" si="31">(D11*15)/1000</f>
+        <f t="shared" ref="G11" si="32">(D11*15)/1000</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="18"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
       <c r="I11" s="9">
-        <f t="shared" ref="I11" si="32">(D11*5)/1000</f>
-        <v>2E-3</v>
+        <f t="shared" ref="I11" si="33">(D11*5)/1000</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" ref="J11" si="33">(D11*10)/1000</f>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" ref="J11" si="34">(D11*10)/1000</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L11" s="20">
         <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="O11" s="139"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="115" t="s">
         <v>117</v>
       </c>
       <c r="B12" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.08</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ref="D12" si="34">(B12*C12)/2</f>
-        <v>0.24</v>
+        <f t="shared" ref="D12" si="35">(B12*C12)/2</f>
+        <v>0.04</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <f t="shared" si="4"/>
-        <v>2.1599999999999998E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ref="G12" si="35">(D12*15)/1000</f>
-        <v>3.5999999999999995E-3</v>
+        <f t="shared" ref="G12" si="36">(D12*15)/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <f t="shared" si="18"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ref="I12" si="36">(D12*5)/1000</f>
-        <v>1.1999999999999999E-3</v>
+        <f t="shared" ref="I12" si="37">(D12*5)/1000</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" ref="J12" si="37">(D12*10)/1000</f>
-        <v>2.3999999999999998E-3</v>
+        <f t="shared" ref="J12" si="38">(D12*10)/1000</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="1"/>
-        <v>4.7999999999999996E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" si="2"/>
-        <v>2.3999999999999998E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -5423,48 +5542,48 @@
         <v>109</v>
       </c>
       <c r="B13" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.08</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ref="D13" si="38">(B13*C13)/2</f>
-        <v>0.24</v>
+        <f t="shared" ref="D13" si="39">(B13*C13)/2</f>
+        <v>0.04</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9">
-        <f t="shared" si="4"/>
-        <v>2.1599999999999998E-2</v>
+        <f t="shared" si="23"/>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" ref="G13" si="39">(D13*15)/1000</f>
-        <v>3.5999999999999995E-3</v>
+        <f t="shared" ref="G13" si="40">(D13*15)/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <f t="shared" si="18"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="I13" si="40">(D13*5)/1000</f>
-        <v>1.1999999999999999E-3</v>
+        <f t="shared" ref="I13" si="41">(D13*5)/1000</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" ref="J13" si="41">(D13*10)/1000</f>
-        <v>2.3999999999999998E-3</v>
+        <f t="shared" ref="J13" si="42">(D13*10)/1000</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="1"/>
-        <v>4.7999999999999996E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" si="2"/>
-        <v>2.3999999999999998E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5472,48 +5591,48 @@
         <v>110</v>
       </c>
       <c r="B14" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="13"/>
-        <v>0.08</v>
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ref="D14" si="42">(B14*C14)/2</f>
-        <v>0.08</v>
+        <f t="shared" ref="D14" si="43">(B14*C14)/2</f>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9">
-        <f t="shared" si="4"/>
-        <v>7.1999999999999998E-3</v>
+        <f>(D14*100)/1000</f>
+        <v>3.5000000000000005E-3</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14" si="43">(D14*15)/1000</f>
-        <v>1.1999999999999999E-3</v>
+        <f t="shared" ref="G14" si="44">(D14*15)/1000</f>
+        <v>5.2500000000000008E-4</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2E-2</v>
+        <f>(D14*100)/1000</f>
+        <v>3.5000000000000005E-3</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ref="I14" si="44">(D14*5)/1000</f>
-        <v>4.0000000000000002E-4</v>
+        <f t="shared" ref="I14" si="45">(D14*5)/1000</f>
+        <v>1.7500000000000003E-4</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" ref="J14" si="45">(D14*10)/1000</f>
-        <v>8.0000000000000004E-4</v>
+        <f t="shared" ref="J14" si="46">(D14*10)/1000</f>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="1"/>
-        <v>1.6000000000000001E-3</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" si="2"/>
-        <v>8.0000000000000004E-4</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="3"/>
-        <v>0.08</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5521,47 +5640,47 @@
         <v>112</v>
       </c>
       <c r="B15" s="21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C15" s="9">
         <v>0.1</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" ref="D15:D16" si="46">(B15*C15)/2</f>
-        <v>1</v>
+        <f t="shared" ref="D15:D16" si="47">(B15*C15)/2</f>
+        <v>0.05</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9">
-        <f t="shared" si="4"/>
-        <v>0.09</v>
+        <f t="shared" si="23"/>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ref="G15:G16" si="47">(D15*15)/1000</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" ref="G15:G16" si="48">(D15*15)/1000</f>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ref="H15:H16" si="48">(D15*150)/1000</f>
-        <v>0.15</v>
+        <f t="shared" ref="H15:H16" si="49">(D15*150)/1000</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" ref="I15:I16" si="49">(D15*5)/1000</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" ref="I15:I16" si="50">(D15*5)/1000</f>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" ref="J15:J16" si="50">(D15*10)/1000</f>
-        <v>0.01</v>
+        <f t="shared" ref="J15:J16" si="51">(D15*10)/1000</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" ref="K15:K16" si="51">(D15*20)/1000</f>
-        <v>0.02</v>
+        <f t="shared" ref="K15:K16" si="52">(D15*20)/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="L15" s="20">
-        <f t="shared" ref="L15:L16" si="52">(D15*10)/1000</f>
-        <v>0.01</v>
+        <f t="shared" ref="L15:L16" si="53">(D15*10)/1000</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" ref="M15:M17" si="53">D15*1</f>
-        <v>1</v>
+        <f t="shared" ref="M15:M17" si="54">D15*1</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5569,48 +5688,48 @@
         <v>113</v>
       </c>
       <c r="B16" s="21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C16" s="9">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>0.05</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9">
-        <f t="shared" si="4"/>
-        <v>0.09</v>
+        <f t="shared" si="23"/>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="47"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="48"/>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="48"/>
-        <v>0.15</v>
+        <f t="shared" si="49"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="50"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="50"/>
-        <v>0.01</v>
+        <f t="shared" si="51"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="51"/>
-        <v>0.02</v>
+        <f t="shared" si="52"/>
+        <v>1E-3</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="52"/>
-        <v>0.01</v>
+        <f t="shared" si="53"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" si="54"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5618,48 +5737,48 @@
         <v>114</v>
       </c>
       <c r="B17" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C17" s="9">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.05</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9">
+        <f t="shared" si="23"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="4"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="H17" s="9">
         <f>(D17*150)/1000</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I17" s="9">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" si="6"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K17" s="9">
         <f>(D17*20)/1000</f>
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="L17" s="20">
         <f>(D17*10)/1000</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="53"/>
-        <v>0.5</v>
+        <f t="shared" si="54"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5680,51 +5799,51 @@
       </c>
       <c r="B19" s="32">
         <f>SUM(B3:B17)</f>
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="C19" s="32">
-        <f t="shared" ref="C19:M19" si="54">SUM(C3:C17)</f>
-        <v>2.0300000000000007</v>
+        <f t="shared" ref="C19:M19" si="55">SUM(C3:C17)</f>
+        <v>2.0000000000000009</v>
       </c>
       <c r="D19" s="32">
-        <f t="shared" si="54"/>
-        <v>14.640000475000003</v>
+        <f t="shared" si="55"/>
+        <v>0.9321429250000004</v>
       </c>
       <c r="E19" s="32">
-        <f t="shared" si="54"/>
-        <v>0.50050021612499995</v>
+        <f t="shared" si="55"/>
+        <v>7.1500030874999995E-2</v>
       </c>
       <c r="F19" s="32">
-        <f t="shared" si="54"/>
-        <v>1.3506000427500005</v>
+        <f t="shared" si="55"/>
+        <v>8.9714292500000042E-2</v>
       </c>
       <c r="G19" s="32">
-        <f t="shared" si="54"/>
-        <v>0.21960000712500005</v>
+        <f t="shared" si="55"/>
+        <v>1.3982143875000002E-2</v>
       </c>
       <c r="H19" s="32">
-        <f t="shared" si="54"/>
-        <v>2.1960000712500003</v>
+        <f t="shared" si="55"/>
+        <v>0.11246429250000003</v>
       </c>
       <c r="I19" s="32">
-        <f t="shared" si="54"/>
-        <v>7.3200002375000003E-2</v>
+        <f t="shared" si="55"/>
+        <v>4.6607146250000012E-3</v>
       </c>
       <c r="J19" s="32">
-        <f t="shared" si="54"/>
-        <v>0.14640000475000001</v>
+        <f t="shared" si="55"/>
+        <v>9.3214292500000025E-3</v>
       </c>
       <c r="K19" s="32">
-        <f t="shared" si="54"/>
-        <v>0.29280000950000001</v>
+        <f t="shared" si="55"/>
+        <v>1.8642858500000005E-2</v>
       </c>
       <c r="L19" s="32">
-        <f t="shared" si="54"/>
-        <v>0.14640000475000001</v>
+        <f t="shared" si="55"/>
+        <v>9.3214292500000025E-3</v>
       </c>
       <c r="M19" s="32">
-        <f t="shared" si="54"/>
-        <v>14.640000475000003</v>
+        <f t="shared" si="55"/>
+        <v>0.9321429250000004</v>
       </c>
     </row>
   </sheetData>
@@ -5774,23 +5893,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="147" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U2" s="134" t="s">
+      <c r="U2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="V2" s="134"/>
+      <c r="V2" s="148"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -5841,8 +5960,8 @@
       <c r="S3" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
@@ -5856,7 +5975,7 @@
       </c>
       <c r="D4" s="58">
         <f>C4-Daily_Consumption!C4</f>
-        <v>243.13030904880949</v>
+        <v>272.19566659880951</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="34" t="s">
@@ -5896,7 +6015,7 @@
       </c>
       <c r="D5" s="58">
         <f>C5-Daily_Consumption!C5</f>
-        <v>56.771935404940479</v>
+        <v>59.719746183690475</v>
       </c>
       <c r="F5" s="57">
         <v>22</v>
@@ -5935,7 +6054,7 @@
       </c>
       <c r="S5" s="72">
         <f>R5-Daily_Consumption!R5</f>
-        <v>19.889959999999999</v>
+        <v>19.89546</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -5950,7 +6069,7 @@
       </c>
       <c r="D6" s="58">
         <f>C6-Daily_Consumption!C6</f>
-        <v>99.326994992875001</v>
+        <v>99.938475356124997</v>
       </c>
       <c r="F6" s="57">
         <v>23</v>
@@ -5963,7 +6082,7 @@
       </c>
       <c r="I6" s="69">
         <f>H6-Daily_Consumption!H6</f>
-        <v>5.3595499999999996</v>
+        <v>2.6914749999999987</v>
       </c>
       <c r="K6" s="57"/>
       <c r="L6" s="34" t="s">
@@ -5982,7 +6101,7 @@
       </c>
       <c r="S6" s="72">
         <f>R6-Daily_Consumption!R6</f>
-        <v>19.974979999999999</v>
+        <v>19.96518</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -5997,7 +6116,7 @@
       </c>
       <c r="D7" s="58">
         <f>C7-Daily_Consumption!C7</f>
-        <v>0.39733109048809523</v>
+        <v>0.73328466598809527</v>
       </c>
       <c r="F7" s="57">
         <v>24</v>
@@ -6023,7 +6142,7 @@
       </c>
       <c r="N7" s="69">
         <f>M7-Daily_Consumption!M7</f>
-        <v>3.9999999999999996</v>
+        <v>5.3519999999999994</v>
       </c>
       <c r="P7" s="57">
         <v>60</v>
@@ -6036,7 +6155,7 @@
       </c>
       <c r="S7" s="72">
         <f>R7-Daily_Consumption!R7</f>
-        <v>19.8</v>
+        <v>19.790199999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -6051,7 +6170,7 @@
       </c>
       <c r="D8" s="58">
         <f>C8-Daily_Consumption!C8</f>
-        <v>1.6386495452440475</v>
+        <v>1.7707763329940476</v>
       </c>
       <c r="F8" s="57">
         <v>25</v>
@@ -6064,7 +6183,7 @@
       </c>
       <c r="I8" s="69">
         <f>H8-Daily_Consumption!H8</f>
-        <v>13.7</v>
+        <v>16.7</v>
       </c>
       <c r="K8" s="57">
         <v>46</v>
@@ -6105,7 +6224,7 @@
       </c>
       <c r="D9" s="58">
         <f>C9-Daily_Consumption!C9</f>
-        <v>390.84130904880953</v>
+        <v>315.00816659880957</v>
       </c>
       <c r="F9" s="57">
         <v>26</v>
@@ -6159,7 +6278,7 @@
       </c>
       <c r="D10" s="58">
         <f>C10-Daily_Consumption!C10</f>
-        <v>1.8129175000000002</v>
+        <v>1.8146050000000002</v>
       </c>
       <c r="F10" s="57">
         <v>27</v>
@@ -6267,7 +6386,7 @@
       </c>
       <c r="D12" s="58">
         <f>C12-Daily_Consumption!C12</f>
-        <v>5.7792925000000004</v>
+        <v>5.9839799999999999</v>
       </c>
       <c r="F12" s="57">
         <v>29</v>
@@ -6280,7 +6399,7 @@
       </c>
       <c r="I12" s="69">
         <f>H12-Daily_Consumption!H12</f>
-        <v>0.15</v>
+        <v>0.13019999999999998</v>
       </c>
       <c r="K12" s="57">
         <v>50</v>
@@ -6321,7 +6440,7 @@
       </c>
       <c r="D13" s="58">
         <f>C13-Daily_Consumption!C13</f>
-        <v>0.72037499999999999</v>
+        <v>0.88937500000000003</v>
       </c>
       <c r="F13" s="57">
         <v>30</v>
@@ -6345,9 +6464,9 @@
       <c r="M13" s="96">
         <v>2.4</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="69" t="e">
         <f>M13-Daily_Consumption!M13</f>
-        <v>2.1614749999999998</v>
+        <v>#REF!</v>
       </c>
       <c r="P13" s="57">
         <v>66</v>
@@ -6360,7 +6479,7 @@
       </c>
       <c r="S13" s="72">
         <f>R13-Daily_Consumption!R13</f>
-        <v>20</v>
+        <v>19.990200000000002</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -6388,7 +6507,7 @@
       </c>
       <c r="I14" s="69">
         <f>H14-Daily_Consumption!H14</f>
-        <v>0.56499999999999995</v>
+        <v>0.5250999999999999</v>
       </c>
       <c r="K14" s="57">
         <v>52</v>
@@ -6429,7 +6548,7 @@
       </c>
       <c r="D15" s="58">
         <f>C15-Daily_Consumption!C15</f>
-        <v>1.7438749999999998</v>
+        <v>1.8693624999999998</v>
       </c>
       <c r="F15" s="57">
         <v>32</v>
@@ -6442,7 +6561,7 @@
       </c>
       <c r="I15" s="69">
         <f>H15-Daily_Consumption!H15</f>
-        <v>100</v>
+        <v>99.968199999999996</v>
       </c>
       <c r="K15" s="57">
         <v>53</v>
@@ -6483,7 +6602,7 @@
       </c>
       <c r="D16" s="58">
         <f>C16-Daily_Consumption!C16</f>
-        <v>0.6331</v>
+        <v>0.74133000000000004</v>
       </c>
       <c r="F16" s="57">
         <v>33</v>
@@ -6496,7 +6615,7 @@
       </c>
       <c r="I16" s="69">
         <f>H16-Daily_Consumption!H16</f>
-        <v>0.18</v>
+        <v>0.245</v>
       </c>
       <c r="K16" s="57">
         <v>54</v>
@@ -6537,7 +6656,7 @@
       </c>
       <c r="D17" s="58">
         <f>C17-Daily_Consumption!C17</f>
-        <v>0.909968</v>
+        <v>0.87006799999999995</v>
       </c>
       <c r="F17" s="57">
         <v>34</v>
@@ -6573,7 +6692,7 @@
       </c>
       <c r="D18" s="58">
         <f>C18-Daily_Consumption!C18</f>
-        <v>1.0576499904999999</v>
+        <v>1.7529571415</v>
       </c>
       <c r="F18" s="57">
         <v>35</v>
@@ -6618,7 +6737,7 @@
       </c>
       <c r="D19" s="58">
         <f>C19-Daily_Consumption!C19</f>
-        <v>1.3613499952499994</v>
+        <v>2.78300357075</v>
       </c>
       <c r="F19" s="57">
         <v>36</v>
@@ -6631,7 +6750,7 @@
       </c>
       <c r="I19" s="69">
         <f>H19-Daily_Consumption!H19</f>
-        <v>4.0750000000000002</v>
+        <v>4.2440000000000007</v>
       </c>
       <c r="K19" s="57">
         <v>56</v>
@@ -6708,7 +6827,7 @@
       </c>
       <c r="D21" s="58">
         <f>C21-Daily_Consumption!C21</f>
-        <v>0.94624999999999915</v>
+        <v>5.44625</v>
       </c>
       <c r="F21" s="57">
         <v>38</v>
@@ -6721,7 +6840,7 @@
       </c>
       <c r="I21" s="69">
         <f>H21-Daily_Consumption!H21</f>
-        <v>0.38250000000000001</v>
+        <v>0.41500000000000004</v>
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="8"/>
@@ -6744,7 +6863,7 @@
       </c>
       <c r="D22" s="58">
         <f>C22-Daily_Consumption!C22</f>
-        <v>0.15807178571428571</v>
+        <v>0.11887178571428569</v>
       </c>
       <c r="F22" s="57">
         <v>39</v>
@@ -6780,7 +6899,7 @@
       </c>
       <c r="D23" s="58">
         <f>C23-Daily_Consumption!C23</f>
-        <v>0.85949978387500015</v>
+        <v>1.2884999691250001</v>
       </c>
       <c r="F23" s="57">
         <v>40</v>
@@ -6882,40 +7001,42 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E5892B-8D31-4F9F-ADCA-C11EE2770A30}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N1" s="138" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M1" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6926,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>120</v>
@@ -6944,194 +7065,256 @@
         <v>65</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="134" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="T2" s="134"/>
-      <c r="U2" s="51"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S2" s="148"/>
+      <c r="T2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="B3" s="27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9">
         <f>$B3*0.8572</f>
-        <v>0</v>
+        <v>6.0004</v>
       </c>
       <c r="D3" s="9">
         <f>$B3*0.643</f>
-        <v>0</v>
+        <v>4.5010000000000003</v>
       </c>
       <c r="E3" s="9">
         <f>$B3*0.0715</f>
-        <v>0</v>
+        <v>0.50049999999999994</v>
       </c>
       <c r="F3" s="9">
         <f>$B3*0.029</f>
-        <v>0</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="G3" s="9">
+        <f t="shared" ref="G3:J4" si="0">$B3*0.0057</f>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <f>$B3*17.143</f>
+        <v>120.001</v>
+      </c>
+      <c r="L3" s="9">
         <f>$B3*0.0057</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <f>$B3*0.007</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <f>$B3*0.0145</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <f>$B3*0.0057</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <f>$B3*0.0715</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f>$B3*15.71</f>
-        <v>0</v>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="M3" s="9">
-        <f>$B3*0.007</f>
-        <v>0</v>
+        <f>$B3*0.0035</f>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="N3" s="9">
-        <f>$B3*0.0035</f>
-        <v>0</v>
+        <f>$B3*0.0014</f>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="O3" s="9">
-        <f>$B3*0.0014</f>
-        <v>0</v>
+        <f t="shared" ref="O3:P4" si="1">$B3*0.0014</f>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="P3" s="9">
-        <f t="shared" ref="P3:Q3" si="0">$B3*0.0014</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>$B3*0.029</f>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <f>$B4*0.8572</f>
+        <v>7.543359999999999E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <f>$B4*0.643</f>
+        <v>5.6583999999999995E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <f>$B4*0.0715</f>
+        <v>6.291999999999999E-3</v>
+      </c>
+      <c r="F4" s="9">
+        <f>$B4*0.029</f>
+        <v>2.552E-3</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0159999999999994E-4</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0159999999999994E-4</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0159999999999994E-4</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0159999999999994E-4</v>
+      </c>
+      <c r="K4" s="140">
+        <f>$B4*17.143</f>
+        <v>1.5085839999999999</v>
+      </c>
+      <c r="L4" s="9">
+        <f>$B4*0.0057</f>
+        <v>5.0159999999999994E-4</v>
+      </c>
+      <c r="M4" s="9">
+        <f>$B4*0.0035</f>
+        <v>3.0800000000000001E-4</v>
+      </c>
+      <c r="N4" s="9">
+        <f>$B4*0.0014</f>
+        <v>1.2319999999999999E-4</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2319999999999999E-4</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2319999999999999E-4</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>$B4*0.029</f>
+        <v>2.552E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="12">
         <f>SUM(B3:B3)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12">
-        <f t="shared" ref="C5:Q5" si="1">SUM(C3:C3)</f>
-        <v>0</v>
+        <f t="shared" ref="C5:P5" si="2">SUM(C3:C3)</f>
+        <v>6.0004</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.5010000000000003</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.50049999999999994</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.20300000000000001</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>120.001</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="N5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>SUM(Q3:Q4)</f>
+        <v>0.20555200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f>7/80</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="Q8" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R2:S3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="S2:T3" location="Home!A1" display="Home" xr:uid="{AC5EBD40-559B-41C3-B0AF-BB9571B1194D}"/>
+    <hyperlink ref="R2:S3" location="Home!A1" display="Home" xr:uid="{AC5EBD40-559B-41C3-B0AF-BB9571B1194D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7140,28 +7323,29 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFB5FAA-5E84-47C1-B267-0515A4478466}">
-  <dimension ref="A2:R5"/>
+  <dimension ref="A2:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -7175,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>31</v>
@@ -7199,98 +7383,143 @@
         <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="134" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="134"/>
+      <c r="R2" s="148"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="B3" s="27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9">
-        <f>$B3*0.3</f>
-        <v>0</v>
+        <f>$B3*0.19995</f>
+        <v>1.1997</v>
       </c>
       <c r="D3" s="9">
         <f>$B3*0.1</f>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E3" s="9">
         <f>$B3*0.02</f>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F3" s="9">
-        <f>$B3*0.02</f>
-        <v>0</v>
+        <f>$B3*0.0166</f>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="G3" s="9">
-        <f>$B3*0.02</f>
-        <v>0</v>
+        <f>$B3*0.0166</f>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="H3" s="9">
         <f>$B3*0.0053</f>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="I3" s="9">
-        <f>$B3*0.01</f>
-        <v>0</v>
+        <f>$B3*0.0053</f>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="J3" s="9">
-        <f>$B3*0.125</f>
-        <v>0</v>
+        <f>$B3*0.0834</f>
+        <v>0.50039999999999996</v>
       </c>
       <c r="K3" s="9">
         <f>$B3*0.0053</f>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="L3" s="9">
         <f>$B3*0.05</f>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="M3" s="9">
         <f>$B3*0.0053</f>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="N3" s="9">
         <f>$B3*0.0033</f>
-        <v>0</v>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="O3" s="9">
         <f>$B3*0.0053</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C4" s="9">
+        <f>$B4*0.19995</f>
+        <v>2.9192699999999995E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <f>$B4*0.1</f>
+        <v>1.46E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <f>$B4*0.02</f>
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="F4" s="9">
+        <f>$B4*0.0166</f>
+        <v>2.4235999999999997E-3</v>
+      </c>
+      <c r="G4" s="9">
+        <f>$B4*0.0166</f>
+        <v>2.4235999999999997E-3</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$B4*0.0053</f>
+        <v>7.7379999999999994E-4</v>
+      </c>
+      <c r="I4" s="9">
+        <f>$B4*0.0053</f>
+        <v>7.7379999999999994E-4</v>
+      </c>
+      <c r="J4" s="9">
+        <f>$B4*0.0834</f>
+        <v>1.2176399999999999E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <f>$B4*0.0053</f>
+        <v>7.7379999999999994E-4</v>
+      </c>
+      <c r="L4" s="9">
+        <f>$B4*0.05</f>
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="M4" s="9">
+        <f>$B4*0.0053</f>
+        <v>7.7379999999999994E-4</v>
+      </c>
+      <c r="N4" s="9">
+        <f>$B4*0.0033</f>
+        <v>4.8179999999999995E-4</v>
+      </c>
+      <c r="O4" s="9">
+        <f>$B4*0.0053</f>
+        <v>7.7379999999999994E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -7298,60 +7527,67 @@
       </c>
       <c r="B5" s="12">
         <f>SUM(B3:B3)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" ref="C5:O5" si="0">SUM(C3:C3)</f>
-        <v>0</v>
+        <v>1.1997</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.50039999999999996</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f>6/41</f>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="N8" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7369,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5415CBB6-58AB-4FE8-BA73-33AB30D0D739}">
   <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7402,10 +7638,10 @@
       <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7430,8 +7666,8 @@
         <f>$B3*0.0022</f>
         <v>0</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7503,11 +7739,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K1" s="141" t="s">
+      <c r="K1" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7549,10 +7785,10 @@
       <c r="M2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="134"/>
+      <c r="R2" s="148"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7605,8 +7841,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7713,11 +7949,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K1" s="141" t="s">
+      <c r="K1" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7759,10 +7995,10 @@
       <c r="M2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -7815,8 +8051,8 @@
         <f>$B3*0.00375</f>
         <v>0</v>
       </c>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -7924,11 +8160,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="141" t="s">
+      <c r="L1" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7973,10 +8209,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8033,8 +8269,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8147,11 +8383,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="141" t="s">
+      <c r="L1" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8196,10 +8432,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8256,8 +8492,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8370,11 +8606,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="141" t="s">
+      <c r="L1" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8419,10 +8655,10 @@
       <c r="N2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8479,8 +8715,8 @@
         <f>$B3*0.0025</f>
         <v>0</v>
       </c>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8603,10 +8839,10 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8631,8 +8867,8 @@
         <f>$B3*0.0076</f>
         <v>0</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8762,10 +8998,10 @@
       <c r="R2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="134" t="s">
+      <c r="T2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="U2" s="134"/>
+      <c r="U2" s="148"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -8838,8 +9074,8 @@
         <f>$B3*0.08</f>
         <v>0</v>
       </c>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8976,33 +9212,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="137"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="151"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U2" s="134" t="s">
+      <c r="U2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="V2" s="134"/>
+      <c r="V2" s="148"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -9053,8 +9289,8 @@
       <c r="S3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
@@ -9065,11 +9301,11 @@
       </c>
       <c r="C4" s="49">
         <f>Puffs_Sweetna!D10+Bread_Bun!D8+Fruit_ButterBread_Donut!D7+Plum_Cake!B5+Tea_Cake!B5+Pineapple_Cake!B5+Carrot_Dates_Cake!C5+Spunge_Cake!B5+Ghee_Cake!B5+Sandwitch_Pizza!D19+Tea_Rusk!B5+White_Rusk!B5+Beans_Biscuit!B5+Pineapple_Cookies!B5+Orange_Cookies!B5+Strawberry_Cookies!B5+Pista_Cookies!B5+Semia_Cookies!B5+Masala_Cookies!B5+'Cherry Cake'!C5</f>
-        <v>52.769690951190476</v>
+        <v>23.704333401190475</v>
       </c>
       <c r="D4" s="74">
         <f>C4*'Cost of raw materials'!C7</f>
-        <v>1899.7088742428571</v>
+        <v>853.35600244285706</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="34" t="s">
@@ -9106,11 +9342,11 @@
       </c>
       <c r="C5" s="49">
         <f>Puffs_Sweetna!G10+Bread_Bun!G8+Fruit_ButterBread_Donut!G7+Plum_Cake!C5+Plum_Cake!J14+Tea_Cake!C5+Pineapple_Cake!C5+Carrot_Dates_Cake!D5+Spunge_Cake!C5+Ghee_Cake!C5+Sandwitch_Pizza!H19+Tea_Rusk!C5+White_Rusk!C5+Coconut_Cookies!C5</f>
-        <v>18.928064595059524</v>
+        <v>15.980253816309524</v>
       </c>
       <c r="D5" s="74">
         <f>C5*'Cost of raw materials'!C8</f>
-        <v>738.19451920732149</v>
+        <v>623.22989883607147</v>
       </c>
       <c r="F5" s="57">
         <v>22</v>
@@ -9146,12 +9382,12 @@
         <v>20</v>
       </c>
       <c r="R5" s="49">
-        <f>Tea_Cake!M5+Plum_Cake!B9+Pineapple_Cake!O5+Spunge_Cake!K5+Cream!D5+Tea_Rusk!N5+Pineapple_Cookies!K5+Orange_Cookies!K5+Strawberry_Cookies!L5+Pista_Cookies!L5+Semia_Cookies!L5</f>
-        <v>0.11004</v>
+        <f>Tea_Cake!M5+Plum_Cake!B9+Pineapple_Cake!O5+Spunge_Cake!K5+Cream!D5+Tea_Rusk!M5+Pineapple_Cookies!K5+Orange_Cookies!K5+Strawberry_Cookies!L5+Pista_Cookies!L5+Semia_Cookies!L5</f>
+        <v>0.10453999999999999</v>
       </c>
       <c r="S5" s="79">
         <f>R5*'Cost of raw materials'!O8</f>
-        <v>46.216799999999999</v>
+        <v>43.906799999999997</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -9163,11 +9399,11 @@
       </c>
       <c r="C6" s="49">
         <f>Bread_Bun!F8+Fruit_ButterBread_Donut!F7+Sandwitch_Pizza!G19</f>
-        <v>0.673005007125</v>
+        <v>6.1524643875000007E-2</v>
       </c>
       <c r="D6" s="74">
         <f>C6*'Cost of raw materials'!C9</f>
-        <v>6.057045064125</v>
+        <v>0.55372179487500006</v>
       </c>
       <c r="F6" s="57">
         <v>23</v>
@@ -9177,11 +9413,11 @@
       </c>
       <c r="H6" s="49">
         <f>Bread_Bun!E8+Fruit_ButterBread_Donut!E7+Tea_Rusk!D5+White_Rusk!D5</f>
-        <v>2.7304500000000003</v>
+        <v>5.3985250000000011</v>
       </c>
       <c r="I6" s="77">
         <f>H6*'Cost of raw materials'!G9</f>
-        <v>404.10660000000001</v>
+        <v>798.98170000000016</v>
       </c>
       <c r="K6" s="57"/>
       <c r="L6" s="34" t="s">
@@ -9196,12 +9432,12 @@
         <v>63</v>
       </c>
       <c r="R6" s="49">
-        <f>Tea_Cake!N5+Plum_Cake!I9+Spunge_Cake!L5+Tea_Rusk!O5+Pineapple_Cookies!M5+Orange_Cookies!M5+Strawberry_Cookies!N5+Pista_Cookies!N5+Semia_Cookies!N5</f>
-        <v>2.5019999999999997E-2</v>
+        <f>Tea_Cake!N5+Plum_Cake!I9+Spunge_Cake!L5+Tea_Rusk!N5+Pineapple_Cookies!M5+Orange_Cookies!M5+Strawberry_Cookies!N5+Pista_Cookies!N5+Semia_Cookies!N5</f>
+        <v>3.4819999999999997E-2</v>
       </c>
       <c r="S6" s="79">
         <f>R6*'Cost of raw materials'!O9</f>
-        <v>12.009599999999999</v>
+        <v>16.7136</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -9213,11 +9449,11 @@
       </c>
       <c r="C7" s="49">
         <f>Puffs_Sweetna!J10+Bread_Bun!I8+Tea_Cake!I5+Pineapple_Cake!I5+Spunge_Cake!E5+Sandwitch_Pizza!J19+Tea_Rusk!I5+White_Rusk!I5</f>
-        <v>0.48266890951190478</v>
+        <v>0.14671533401190476</v>
       </c>
       <c r="D7" s="74">
         <f>C7*'Cost of raw materials'!C10</f>
-        <v>152.04070649625001</v>
+        <v>46.215330213750001</v>
       </c>
       <c r="F7" s="57">
         <v>24</v>
@@ -9241,11 +9477,11 @@
       </c>
       <c r="M7" s="49">
         <f>Carrot_Dates_Cake!I5</f>
-        <v>2.6</v>
+        <v>1.248</v>
       </c>
       <c r="N7" s="77">
         <f>M7*'Cost of raw materials'!K10</f>
-        <v>273</v>
+        <v>131.04</v>
       </c>
       <c r="P7" s="57">
         <v>60</v>
@@ -9254,12 +9490,12 @@
         <v>61</v>
       </c>
       <c r="R7" s="49">
-        <f>Plum_Cake!E9+Pineapple_Cake!P5+Spunge_Cake!M5+Tea_Rusk!P5+Pineapple_Cookies!L5+Orange_Cookies!L5+Strawberry_Cookies!M5+Pista_Cookies!M5+Semia_Cookies!M5+Muffins!E6</f>
-        <v>0.2</v>
+        <f>Plum_Cake!E9+Pineapple_Cake!P5+Spunge_Cake!M5+Tea_Rusk!O5+Pineapple_Cookies!L5+Orange_Cookies!L5+Strawberry_Cookies!M5+Pista_Cookies!M5+Semia_Cookies!M5+Muffins!E6</f>
+        <v>0.20980000000000001</v>
       </c>
       <c r="S7" s="79">
         <f>R7*'Cost of raw materials'!O10</f>
-        <v>86.2</v>
+        <v>90.4238</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -9271,11 +9507,11 @@
       </c>
       <c r="C8" s="49">
         <f>Puffs_Sweetna!I10+Bread_Bun!H8+Plum_Cake!K5+Tea_Cake!H5+Pineapple_Cake!H5+Spunge_Cake!F5+Sandwitch_Pizza!I19+Tea_Rusk!H5+White_Rusk!H5+Pineapple_Cookies!H5+Orange_Cookies!H5+Strawberry_Cookies!H5+Pista_Cookies!H5+Semia_Cookies!I5+Masala_Cookies!H5</f>
-        <v>0.26135045475595242</v>
+        <v>0.12922366700595239</v>
       </c>
       <c r="D8" s="74">
         <f>C8*'Cost of raw materials'!C11</f>
-        <v>81.541341883857157</v>
+        <v>40.317784105857143</v>
       </c>
       <c r="F8" s="57">
         <v>25</v>
@@ -9285,11 +9521,11 @@
       </c>
       <c r="H8" s="49">
         <f>Cream!B5</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" s="77">
         <f>H8*'Cost of raw materials'!G11</f>
-        <v>1020</v>
+        <v>510</v>
       </c>
       <c r="K8" s="57">
         <v>46</v>
@@ -9328,12 +9564,12 @@
         <v>56</v>
       </c>
       <c r="C9" s="50">
-        <f>Puffs_Sweetna!H10+Plum_Cake!O5+Tea_Cake!J5+Pineapple_Cake!J5+Carrot_Dates_Cake!H5+Spunge_Cake!G5+Black_Forest!E5+White_Forest!E5+Red_Velvet!E5+Ghee_Cake!F5+Sandwitch_Pizza!M19+Tea_Rusk!L5+Beans_Biscuit!D5+Pineapple_Cookies!E5+Orange_Cookies!E5+Strawberry_Cookies!E5+Pista_Cookies!E5+Semia_Cookies!F5+Coconut_Cookies!E5+Masala_Cookies!E5+Muffins!C6+Chocolate_Muffin!C5+'Cherry Cake'!F5</f>
-        <v>308.15869095119047</v>
+        <f>Puffs_Sweetna!H10+Plum_Cake!O5+Tea_Cake!J5+Pineapple_Cake!J5+Carrot_Dates_Cake!H5+Spunge_Cake!G5+Black_Forest!E5+White_Forest!E5+Red_Velvet!E5+Ghee_Cake!F5+Sandwitch_Pizza!M19+Tea_Rusk!K5+Beans_Biscuit!D5+Pineapple_Cookies!E5+Orange_Cookies!E5+Strawberry_Cookies!E5+Pista_Cookies!E5+Semia_Cookies!F5+Coconut_Cookies!E5+Masala_Cookies!E5+Muffins!C6+Chocolate_Muffin!C5+'Cherry Cake'!F5</f>
+        <v>383.99183340119043</v>
       </c>
       <c r="D9" s="74">
         <f>C9*'Cost of raw materials'!C12</f>
-        <v>1540.7934547559523</v>
+        <v>1919.9591670059522</v>
       </c>
       <c r="F9" s="57">
         <v>26</v>
@@ -9387,11 +9623,11 @@
       </c>
       <c r="C10" s="49">
         <f>Puffs_Sweetna!O10+Bread_Bun!J8+Fruit_ButterBread_Donut!H7+Plum_Cake!E5+Tea_Cake!F5+Pineapple_Cake!F5+Carrot_Dates_Cake!F5+Ghee_Cake!D5+Tea_Rusk!F5+White_Rusk!F5+Pineapple_Cookies!F5+Orange_Cookies!F5+Strawberry_Cookies!F5+Pista_Cookies!F5+Semia_Cookies!G5+'Cherry Cake'!G5</f>
-        <v>0.97708249999999985</v>
+        <v>0.9753949999999999</v>
       </c>
       <c r="D10" s="74">
         <f>C10*'Cost of raw materials'!C13</f>
-        <v>537.39537499999994</v>
+        <v>536.46724999999992</v>
       </c>
       <c r="F10" s="57">
         <v>27</v>
@@ -9502,11 +9738,11 @@
       </c>
       <c r="C12" s="49">
         <f>Puffs_Sweetna!R10+Bread_Bun!M8+Fruit_ButterBread_Donut!J7+Plum_Cake!F5+Tea_Cake!G5+Pineapple_Cake!G5+Carrot_Dates_Cake!G5+Ghee_Cake!E5++White_Rusk!G5+Pineapple_Cookies!G5+Orange_Cookies!G5+Strawberry_Cookies!G5+Pista_Cookies!G5+Semia_Cookies!H5+'Cherry Cake'!H5</f>
-        <v>0.98070749999999984</v>
+        <v>0.77602000000000004</v>
       </c>
       <c r="D12" s="74">
         <f>C12*'Cost of raw materials'!C15</f>
-        <v>251.06111999999996</v>
+        <v>198.66112000000001</v>
       </c>
       <c r="F12" s="57">
         <v>29</v>
@@ -9516,11 +9752,11 @@
       </c>
       <c r="H12" s="49">
         <f>Plum_Cake!I5+White_Rusk!N5</f>
-        <v>0</v>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="I12" s="77">
         <f>H12*'Cost of raw materials'!G15</f>
-        <v>0</v>
+        <v>9.8999999999999986</v>
       </c>
       <c r="K12" s="57">
         <v>50</v>
@@ -9559,11 +9795,11 @@
       </c>
       <c r="C13" s="49">
         <f>Puffs_Sweetna!S10+Semia_Cookies!K5+Carrot_Dates_Cake!O5</f>
-        <v>0.329625</v>
+        <v>0.16062499999999999</v>
       </c>
       <c r="D13" s="74">
         <f>C13*'Cost of raw materials'!C16</f>
-        <v>164.8125</v>
+        <v>80.3125</v>
       </c>
       <c r="F13" s="57">
         <v>30</v>
@@ -9585,13 +9821,13 @@
       <c r="L13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="49">
-        <f>Puffs_Sweetna!K10+Fruit_ButterBread_Donut!M7+Tea_Rusk!K5+White_Rusk!L5+Coconut_Cookies!D5+Plum_Cake!C14+'Cherry Cake'!J5</f>
-        <v>0.23852499999999999</v>
-      </c>
-      <c r="N13" s="77">
+      <c r="M13" s="49" t="e">
+        <f>Puffs_Sweetna!K10+Fruit_ButterBread_Donut!M7+Tea_Rusk!#REF!+White_Rusk!L5+Coconut_Cookies!D5+Plum_Cake!C14+'Cherry Cake'!J5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="77" t="e">
         <f>M13*'Cost of raw materials'!K16</f>
-        <v>13.357399999999998</v>
+        <v>#REF!</v>
       </c>
       <c r="P13" s="57">
         <v>66</v>
@@ -9600,12 +9836,12 @@
         <v>32</v>
       </c>
       <c r="R13" s="49">
-        <f>Tea_Rusk!Q5</f>
-        <v>0</v>
+        <f>Tea_Rusk!P5</f>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="S13" s="79">
         <f>R13*'Cost of raw materials'!O16</f>
-        <v>0</v>
+        <v>2.1560000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -9631,11 +9867,11 @@
       </c>
       <c r="H14" s="49">
         <f>Tea_Rusk!J5+Plum_Cake!L14</f>
-        <v>0</v>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="I14" s="77">
         <f>H14*'Cost of raw materials'!G17</f>
-        <v>0</v>
+        <v>7.1820000000000013</v>
       </c>
       <c r="K14" s="57">
         <v>52</v>
@@ -9673,12 +9909,12 @@
         <v>32</v>
       </c>
       <c r="C15" s="49">
-        <f>Bread_Bun!K8+Fruit_ButterBread_Donut!I7+Pineapple_Cake!E5+Tea_Rusk!Q5</f>
-        <v>0.146125</v>
+        <f>Bread_Bun!K8+Fruit_ButterBread_Donut!I7+Pineapple_Cake!E5+Tea_Rusk!P5</f>
+        <v>2.0637500000000003E-2</v>
       </c>
       <c r="D15" s="74">
         <f>C15*'Cost of raw materials'!C18</f>
-        <v>67.948125000000005</v>
+        <v>9.5964375000000022</v>
       </c>
       <c r="F15" s="57">
         <v>32</v>
@@ -9688,11 +9924,11 @@
       </c>
       <c r="H15" s="49">
         <f>Plum_Cake!L5+White_Rusk!K5</f>
-        <v>0</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="I15" s="77">
         <f>H15*'Cost of raw materials'!G18</f>
-        <v>0</v>
+        <v>6.0420000000000007</v>
       </c>
       <c r="K15" s="57">
         <v>53</v>
@@ -9732,11 +9968,11 @@
       </c>
       <c r="C16" s="49">
         <f>Bread_Bun!L8</f>
-        <v>0.1169</v>
+        <v>8.6700000000000006E-3</v>
       </c>
       <c r="D16" s="74">
         <f>C16*'Cost of raw materials'!C19</f>
-        <v>22.211000000000002</v>
+        <v>1.6473000000000002</v>
       </c>
       <c r="F16" s="57">
         <v>33</v>
@@ -9746,11 +9982,11 @@
       </c>
       <c r="H16" s="49">
         <f>Carrot_Dates_Cake!N5</f>
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="I16" s="77">
         <f>H16*'Cost of raw materials'!G19</f>
-        <v>6.25</v>
+        <v>3</v>
       </c>
       <c r="K16" s="57">
         <v>54</v>
@@ -9788,12 +10024,12 @@
         <v>159</v>
       </c>
       <c r="C17" s="49">
-        <f>Tea_Cake!L5+Pineapple_Cake!L5+Spunge_Cake!J5+Tea_Rusk!M5</f>
-        <v>4.0031999999999998E-2</v>
+        <f>Tea_Cake!L5+Pineapple_Cake!L5+Spunge_Cake!J5+Tea_Rusk!L5</f>
+        <v>7.9932000000000003E-2</v>
       </c>
       <c r="D17" s="74">
         <f>C17*'Cost of raw materials'!C20</f>
-        <v>3.40272</v>
+        <v>6.7942200000000001</v>
       </c>
       <c r="F17" s="57">
         <v>34</v>
@@ -9840,11 +10076,11 @@
       </c>
       <c r="C18" s="49">
         <f>Bread_Bun!N8+Fruit_ButterBread_Donut!K7+Sandwitch_Pizza!K19+White_Rusk!E5</f>
-        <v>0.90235000950000011</v>
+        <v>0.20704285850000001</v>
       </c>
       <c r="D18" s="74">
         <f>C18*'Cost of raw materials'!C21</f>
-        <v>130.84075137750003</v>
+        <v>30.021214482500003</v>
       </c>
       <c r="F18" s="57">
         <v>35</v>
@@ -9898,11 +10134,11 @@
       </c>
       <c r="C19" s="49">
         <f>Bread_Bun!O8+Carrot_Dates_Cake!E5+Spunge_Cake!D5+Sandwitch_Pizza!L19+Black_Forest!C5+White_Forest!C5+Red_Velvet!C5+Muffins!D6+Chocolate_Muffin!D5</f>
-        <v>3.1886500047500004</v>
+        <v>1.76699642925</v>
       </c>
       <c r="D19" s="74">
         <f>C19*'Cost of raw materials'!C22</f>
-        <v>494.24075073625005</v>
+        <v>273.88444653375001</v>
       </c>
       <c r="F19" s="57">
         <v>36</v>
@@ -9912,11 +10148,11 @@
       </c>
       <c r="H19" s="49">
         <f>Carrot_Dates_Cake!M5</f>
-        <v>0.32500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="I19" s="77">
         <f>H19*'Cost of raw materials'!G22</f>
-        <v>24.375</v>
+        <v>11.7</v>
       </c>
       <c r="K19" s="57">
         <v>56</v>
@@ -9993,11 +10229,11 @@
       </c>
       <c r="C21" s="49">
         <f>Puffs_Sweetna!L10+Cream!C5+Pista_Cookies!C5+Semia_Cookies!D5+Masala_Cookies!C5+'Cherry Cake'!D5</f>
-        <v>9.0537500000000009</v>
+        <v>4.55375</v>
       </c>
       <c r="D21" s="74">
         <f>C21*'Cost of raw materials'!C24</f>
-        <v>633.76250000000005</v>
+        <v>318.76249999999999</v>
       </c>
       <c r="F21" s="57">
         <v>38</v>
@@ -10007,11 +10243,11 @@
       </c>
       <c r="H21" s="49">
         <f>Plum_Cake!Q5+Carrot_Dates_Cake!L5+'Cherry Cake'!L5</f>
-        <v>6.25E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I21" s="77">
         <f>H21*'Cost of raw materials'!G24</f>
-        <v>6.875</v>
+        <v>3.3</v>
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="8"/>
@@ -10031,11 +10267,11 @@
       </c>
       <c r="C22" s="49">
         <f>Puffs_Sweetna!M10+Fruit_ButterBread_Donut!N7+Carrot_Dates_Cake!J5+Tea_Rusk!G5+White_Rusk!O5+Coconut_Cookies!F5+'Cherry Cake'!M5</f>
-        <v>8.1928214285714285E-2</v>
+        <v>0.1211282142857143</v>
       </c>
       <c r="D22" s="74">
         <f>C22*'Cost of raw materials'!C25</f>
-        <v>108.14524285714286</v>
+        <v>159.88924285714288</v>
       </c>
       <c r="F22" s="57">
         <v>39</v>
@@ -10069,11 +10305,11 @@
       </c>
       <c r="C23" s="49">
         <f>Sandwitch_Pizza!E19</f>
-        <v>0.50050021612499995</v>
+        <v>7.1500030874999995E-2</v>
       </c>
       <c r="D23" s="74">
         <f>C23*'Cost of raw materials'!C26</f>
-        <v>30.030012967499996</v>
+        <v>4.2900018524999997</v>
       </c>
       <c r="F23" s="57">
         <v>40</v>
@@ -10165,28 +10401,28 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D26" s="99">
         <f>SUM(D4:D24)</f>
-        <v>6956.4792270887565</v>
+        <v>5198.251325125254</v>
       </c>
       <c r="I26" s="100">
         <f>SUM(I5:I25)</f>
-        <v>2223.1355957142855</v>
-      </c>
-      <c r="N26" s="100">
+        <v>2111.6346957142855</v>
+      </c>
+      <c r="N26" s="100" t="e">
         <f>SUM(N4:N25)</f>
-        <v>1186.9111499999999</v>
+        <v>#REF!</v>
       </c>
       <c r="S26" s="101">
         <f>SUM(S5:S25)</f>
-        <v>547.59640000000002</v>
+        <v>556.37019999999995</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="103">
+      <c r="C27" s="103" t="e">
         <f>D26+I26+N26+S26</f>
-        <v>10914.122372803042</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -10204,30 +10440,33 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77402BD7-80D7-4BA2-AD66-AE329E5D5465}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A8" sqref="A8:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -10246,12 +10485,14 @@
       <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="J2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="134"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="148"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>254</v>
       </c>
@@ -10271,10 +10512,13 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>255</v>
       </c>
@@ -10294,17 +10538,21 @@
         <f>B4*0.2</f>
         <v>0.2</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -10328,55 +10576,131 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="139"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>1.4E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="J2:K3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2:I3" location="Home!A1" display="Home" xr:uid="{29FE4D4A-3244-4B5F-9CB0-57A9DF79BCFD}"/>
+    <hyperlink ref="J2:K3" location="Home!A1" display="Home" xr:uid="{29FE4D4A-3244-4B5F-9CB0-57A9DF79BCFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10416,10 +10740,10 @@
       <c r="D2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="134"/>
+      <c r="G2" s="148"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10436,8 +10760,8 @@
         <f>$B3*0.35</f>
         <v>0</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -10531,8 +10855,8 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L1" s="22"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -10577,10 +10901,10 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="134"/>
+      <c r="R2" s="148"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10636,8 +10960,8 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
@@ -16043,8 +16367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F45509-B26B-44D6-A57B-9AB7E42E87E5}">
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16055,16 +16379,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="156" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
@@ -16086,10 +16410,10 @@
       <c r="B6" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="134" t="s">
         <v>325</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="134" t="s">
         <v>326</v>
       </c>
     </row>
@@ -16131,11 +16455,1928 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01B719C-4B95-4B47-AB77-87B7C260C8EA}">
+  <dimension ref="A1:F99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="117">
+        <v>1</v>
+      </c>
+      <c r="B2" s="117">
+        <v>1</v>
+      </c>
+      <c r="C2" s="117">
+        <v>1</v>
+      </c>
+      <c r="D2" s="132">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"new ProductRawMaterial { Id = "&amp;A2&amp;", ProductId = "&amp;B2&amp;", RawMaterialId = "&amp;C2&amp;", QuantityRequired = "&amp;ROUND(D2,6)&amp;"f },"</f>
+        <v>new ProductRawMaterial { Id = 1, ProductId = 1, RawMaterialId = 1, QuantityRequired = 0.042857f },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="117">
+        <v>2</v>
+      </c>
+      <c r="B3" s="117">
+        <v>2</v>
+      </c>
+      <c r="C3" s="117">
+        <v>1</v>
+      </c>
+      <c r="D3" s="132">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">"new ProductRawMaterial { Id = "&amp;A3&amp;", ProductId = "&amp;B3&amp;", RawMaterialId = "&amp;C3&amp;", QuantityRequired = "&amp;ROUND(D3,6)&amp;"f },"</f>
+        <v>new ProductRawMaterial { Id = 2, ProductId = 2, RawMaterialId = 1, QuantityRequired = 0.0375f },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="117">
+        <v>3</v>
+      </c>
+      <c r="B4" s="117">
+        <v>3</v>
+      </c>
+      <c r="C4" s="117">
+        <v>1</v>
+      </c>
+      <c r="D4" s="132">
+        <v>0.12</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 3, ProductId = 3, RawMaterialId = 1, QuantityRequired = 0.12f },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="117">
+        <v>4</v>
+      </c>
+      <c r="B5" s="117">
+        <v>4</v>
+      </c>
+      <c r="C5" s="117">
+        <v>1</v>
+      </c>
+      <c r="D5" s="132">
+        <v>0.125</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 4, ProductId = 4, RawMaterialId = 1, QuantityRequired = 0.125f },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="117">
+        <v>5</v>
+      </c>
+      <c r="B6" s="117">
+        <v>5</v>
+      </c>
+      <c r="C6" s="117">
+        <v>1</v>
+      </c>
+      <c r="D6" s="132">
+        <v>0.04</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 5, ProductId = 5, RawMaterialId = 1, QuantityRequired = 0.04f },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="117">
+        <v>6</v>
+      </c>
+      <c r="B7" s="117">
+        <v>6</v>
+      </c>
+      <c r="C7" s="117">
+        <v>1</v>
+      </c>
+      <c r="D7" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 6, ProductId = 6, RawMaterialId = 1, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="117">
+        <v>7</v>
+      </c>
+      <c r="B8" s="117">
+        <v>7</v>
+      </c>
+      <c r="C8" s="117">
+        <v>1</v>
+      </c>
+      <c r="D8" s="131">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 7, ProductId = 7, RawMaterialId = 1, QuantityRequired = 0.035f },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="117">
+        <v>8</v>
+      </c>
+      <c r="B9" s="117">
+        <v>8</v>
+      </c>
+      <c r="C9" s="117">
+        <v>1</v>
+      </c>
+      <c r="D9" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 8, ProductId = 8, RawMaterialId = 1, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="117">
+        <v>9</v>
+      </c>
+      <c r="B10" s="117">
+        <v>9</v>
+      </c>
+      <c r="C10" s="117">
+        <v>1</v>
+      </c>
+      <c r="D10" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 9, ProductId = 9, RawMaterialId = 1, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="117">
+        <v>10</v>
+      </c>
+      <c r="B11" s="117">
+        <v>10</v>
+      </c>
+      <c r="C11" s="117">
+        <v>1</v>
+      </c>
+      <c r="D11" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 10, ProductId = 10, RawMaterialId = 1, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="117">
+        <v>11</v>
+      </c>
+      <c r="B12" s="117">
+        <v>1</v>
+      </c>
+      <c r="C12" s="117">
+        <v>22</v>
+      </c>
+      <c r="D12" s="132">
+        <v>2.4857142857142859E-2</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 11, ProductId = 1, RawMaterialId = 22, QuantityRequired = 0.024857f },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="117">
+        <v>12</v>
+      </c>
+      <c r="B13" s="117">
+        <v>2</v>
+      </c>
+      <c r="C13" s="117">
+        <v>22</v>
+      </c>
+      <c r="D13" s="132">
+        <v>2.1750000000000002E-2</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 12, ProductId = 2, RawMaterialId = 22, QuantityRequired = 0.02175f },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="117">
+        <v>13</v>
+      </c>
+      <c r="B14" s="117">
+        <v>3</v>
+      </c>
+      <c r="C14" s="117">
+        <v>22</v>
+      </c>
+      <c r="D14" s="132">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 13, ProductId = 3, RawMaterialId = 22, QuantityRequired = 0.0696f },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="117">
+        <v>14</v>
+      </c>
+      <c r="B15" s="117">
+        <v>4</v>
+      </c>
+      <c r="C15" s="117">
+        <v>22</v>
+      </c>
+      <c r="D15" s="132">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 14, ProductId = 4, RawMaterialId = 22, QuantityRequired = 0.0725f },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="117">
+        <v>15</v>
+      </c>
+      <c r="B16" s="117">
+        <v>5</v>
+      </c>
+      <c r="C16" s="117">
+        <v>22</v>
+      </c>
+      <c r="D16" s="132">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 15, ProductId = 5, RawMaterialId = 22, QuantityRequired = 0.0232f },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="117">
+        <v>16</v>
+      </c>
+      <c r="B17" s="117">
+        <v>6</v>
+      </c>
+      <c r="C17" s="117">
+        <v>22</v>
+      </c>
+      <c r="D17" s="131">
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 16, ProductId = 6, RawMaterialId = 22, QuantityRequired = 0.01972f },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="117">
+        <v>17</v>
+      </c>
+      <c r="B18" s="117">
+        <v>7</v>
+      </c>
+      <c r="C18" s="117">
+        <v>22</v>
+      </c>
+      <c r="D18" s="131">
+        <v>2.0300000000000002E-2</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 17, ProductId = 7, RawMaterialId = 22, QuantityRequired = 0.0203f },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="117">
+        <v>18</v>
+      </c>
+      <c r="B19" s="117">
+        <v>8</v>
+      </c>
+      <c r="C19" s="117">
+        <v>22</v>
+      </c>
+      <c r="D19" s="131">
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 18, ProductId = 8, RawMaterialId = 22, QuantityRequired = 0.01972f },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="117">
+        <v>19</v>
+      </c>
+      <c r="B20" s="117">
+        <v>9</v>
+      </c>
+      <c r="C20" s="117">
+        <v>22</v>
+      </c>
+      <c r="D20" s="131">
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 19, ProductId = 9, RawMaterialId = 22, QuantityRequired = 0.01972f },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="117">
+        <v>20</v>
+      </c>
+      <c r="B21" s="117">
+        <v>10</v>
+      </c>
+      <c r="C21" s="117">
+        <v>22</v>
+      </c>
+      <c r="D21" s="131">
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 20, ProductId = 10, RawMaterialId = 22, QuantityRequired = 0.01972f },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="117">
+        <v>21</v>
+      </c>
+      <c r="B22" s="117">
+        <v>1</v>
+      </c>
+      <c r="C22" s="117">
+        <v>3</v>
+      </c>
+      <c r="D22" s="132">
+        <v>8.5714285714285721E-4</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 21, ProductId = 1, RawMaterialId = 3, QuantityRequired = 0.000857f },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="117">
+        <v>22</v>
+      </c>
+      <c r="B23" s="117">
+        <v>2</v>
+      </c>
+      <c r="C23" s="117">
+        <v>3</v>
+      </c>
+      <c r="D23" s="132">
+        <v>7.5000000000000012E-4</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 22, ProductId = 2, RawMaterialId = 3, QuantityRequired = 0.00075f },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="117">
+        <v>23</v>
+      </c>
+      <c r="B24" s="117">
+        <v>3</v>
+      </c>
+      <c r="C24" s="117">
+        <v>3</v>
+      </c>
+      <c r="D24" s="132">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 23, ProductId = 3, RawMaterialId = 3, QuantityRequired = 0.0024f },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="117">
+        <v>24</v>
+      </c>
+      <c r="B25" s="117">
+        <v>4</v>
+      </c>
+      <c r="C25" s="117">
+        <v>3</v>
+      </c>
+      <c r="D25" s="132">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 24, ProductId = 4, RawMaterialId = 3, QuantityRequired = 0.0025f },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="117">
+        <v>25</v>
+      </c>
+      <c r="B26" s="117">
+        <v>5</v>
+      </c>
+      <c r="C26" s="117">
+        <v>3</v>
+      </c>
+      <c r="D26" s="132">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 25, ProductId = 5, RawMaterialId = 3, QuantityRequired = 0.0008f },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="117">
+        <v>26</v>
+      </c>
+      <c r="B27" s="117">
+        <v>6</v>
+      </c>
+      <c r="C27" s="117">
+        <v>3</v>
+      </c>
+      <c r="D27" s="131">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 26, ProductId = 6, RawMaterialId = 3, QuantityRequired = 0.00068f },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="117">
+        <v>27</v>
+      </c>
+      <c r="B28" s="117">
+        <v>7</v>
+      </c>
+      <c r="C28" s="117">
+        <v>3</v>
+      </c>
+      <c r="D28" s="131">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 27, ProductId = 7, RawMaterialId = 3, QuantityRequired = 0.0007f },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="117">
+        <v>28</v>
+      </c>
+      <c r="B29" s="117">
+        <v>8</v>
+      </c>
+      <c r="C29" s="117">
+        <v>3</v>
+      </c>
+      <c r="D29" s="131">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 28, ProductId = 8, RawMaterialId = 3, QuantityRequired = 0.00068f },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="117">
+        <v>29</v>
+      </c>
+      <c r="B30" s="117">
+        <v>9</v>
+      </c>
+      <c r="C30" s="117">
+        <v>3</v>
+      </c>
+      <c r="D30" s="131">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 29, ProductId = 9, RawMaterialId = 3, QuantityRequired = 0.00068f },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="117">
+        <v>30</v>
+      </c>
+      <c r="B31" s="117">
+        <v>10</v>
+      </c>
+      <c r="C31" s="117">
+        <v>3</v>
+      </c>
+      <c r="D31" s="131">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 30, ProductId = 10, RawMaterialId = 3, QuantityRequired = 0.00068f },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="117">
+        <v>31</v>
+      </c>
+      <c r="B32" s="117">
+        <v>1</v>
+      </c>
+      <c r="C32" s="117">
+        <v>2</v>
+      </c>
+      <c r="D32" s="132">
+        <v>2.142857142857143E-3</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 31, ProductId = 1, RawMaterialId = 2, QuantityRequired = 0.002143f },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="117">
+        <v>32</v>
+      </c>
+      <c r="B33" s="117">
+        <v>2</v>
+      </c>
+      <c r="C33" s="117">
+        <v>2</v>
+      </c>
+      <c r="D33" s="132">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 32, ProductId = 2, RawMaterialId = 2, QuantityRequired = 0.001875f },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="117">
+        <v>33</v>
+      </c>
+      <c r="B34" s="117">
+        <v>3</v>
+      </c>
+      <c r="C34" s="117">
+        <v>2</v>
+      </c>
+      <c r="D34" s="132">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 33, ProductId = 3, RawMaterialId = 2, QuantityRequired = 0.006f },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="117">
+        <v>34</v>
+      </c>
+      <c r="B35" s="117">
+        <v>4</v>
+      </c>
+      <c r="C35" s="117">
+        <v>2</v>
+      </c>
+      <c r="D35" s="132">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 34, ProductId = 4, RawMaterialId = 2, QuantityRequired = 0.00625f },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="117">
+        <v>35</v>
+      </c>
+      <c r="B36" s="117">
+        <v>5</v>
+      </c>
+      <c r="C36" s="117">
+        <v>2</v>
+      </c>
+      <c r="D36" s="132">
+        <v>2E-3</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 35, ProductId = 5, RawMaterialId = 2, QuantityRequired = 0.002f },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="117">
+        <v>36</v>
+      </c>
+      <c r="B37" s="117">
+        <v>6</v>
+      </c>
+      <c r="C37" s="117">
+        <v>2</v>
+      </c>
+      <c r="D37" s="131">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 36, ProductId = 6, RawMaterialId = 2, QuantityRequired = 0.0017f },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="117">
+        <v>37</v>
+      </c>
+      <c r="B38" s="117">
+        <v>7</v>
+      </c>
+      <c r="C38" s="117">
+        <v>2</v>
+      </c>
+      <c r="D38" s="131">
+        <v>1.7500000000000003E-3</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 37, ProductId = 7, RawMaterialId = 2, QuantityRequired = 0.00175f },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="117">
+        <v>38</v>
+      </c>
+      <c r="B39" s="117">
+        <v>8</v>
+      </c>
+      <c r="C39" s="117">
+        <v>2</v>
+      </c>
+      <c r="D39" s="131">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 38, ProductId = 8, RawMaterialId = 2, QuantityRequired = 0.0017f },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="117">
+        <v>39</v>
+      </c>
+      <c r="B40" s="117">
+        <v>9</v>
+      </c>
+      <c r="C40" s="117">
+        <v>2</v>
+      </c>
+      <c r="D40" s="131">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 39, ProductId = 9, RawMaterialId = 2, QuantityRequired = 0.0017f },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="117">
+        <v>40</v>
+      </c>
+      <c r="B41" s="117">
+        <v>10</v>
+      </c>
+      <c r="C41" s="117">
+        <v>2</v>
+      </c>
+      <c r="D41" s="131">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 40, ProductId = 10, RawMaterialId = 2, QuantityRequired = 0.0017f },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="117">
+        <v>41</v>
+      </c>
+      <c r="B42" s="117">
+        <v>1</v>
+      </c>
+      <c r="C42" s="117">
+        <v>6</v>
+      </c>
+      <c r="D42" s="132">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 41, ProductId = 1, RawMaterialId = 6, QuantityRequired = 0.042857f },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="117">
+        <v>42</v>
+      </c>
+      <c r="B43" s="117">
+        <v>2</v>
+      </c>
+      <c r="C43" s="117">
+        <v>6</v>
+      </c>
+      <c r="D43" s="132">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 42, ProductId = 2, RawMaterialId = 6, QuantityRequired = 0.0375f },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="117">
+        <v>43</v>
+      </c>
+      <c r="B44" s="117">
+        <v>3</v>
+      </c>
+      <c r="C44" s="117">
+        <v>6</v>
+      </c>
+      <c r="D44" s="132">
+        <v>0.12</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 43, ProductId = 3, RawMaterialId = 6, QuantityRequired = 0.12f },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="117">
+        <v>44</v>
+      </c>
+      <c r="B45" s="117">
+        <v>4</v>
+      </c>
+      <c r="C45" s="117">
+        <v>6</v>
+      </c>
+      <c r="D45" s="132">
+        <v>0.125</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 44, ProductId = 4, RawMaterialId = 6, QuantityRequired = 0.125f },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="117">
+        <v>45</v>
+      </c>
+      <c r="B46" s="117">
+        <v>5</v>
+      </c>
+      <c r="C46" s="117">
+        <v>6</v>
+      </c>
+      <c r="D46" s="132">
+        <v>0.04</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 45, ProductId = 5, RawMaterialId = 6, QuantityRequired = 0.04f },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="117">
+        <v>46</v>
+      </c>
+      <c r="B47" s="117">
+        <v>6</v>
+      </c>
+      <c r="C47" s="117">
+        <v>6</v>
+      </c>
+      <c r="D47" s="131">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 46, ProductId = 6, RawMaterialId = 6, QuantityRequired = 0.534f },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="117">
+        <v>47</v>
+      </c>
+      <c r="B48" s="117">
+        <v>7</v>
+      </c>
+      <c r="C48" s="117">
+        <v>6</v>
+      </c>
+      <c r="D48" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 47, ProductId = 7, RawMaterialId = 6, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="117">
+        <v>48</v>
+      </c>
+      <c r="B49" s="117">
+        <v>8</v>
+      </c>
+      <c r="C49" s="117">
+        <v>6</v>
+      </c>
+      <c r="D49" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 48, ProductId = 8, RawMaterialId = 6, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="117">
+        <v>49</v>
+      </c>
+      <c r="B50" s="117">
+        <v>9</v>
+      </c>
+      <c r="C50" s="117">
+        <v>6</v>
+      </c>
+      <c r="D50" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 49, ProductId = 9, RawMaterialId = 6, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="117">
+        <v>50</v>
+      </c>
+      <c r="B51" s="117">
+        <v>10</v>
+      </c>
+      <c r="C51" s="117">
+        <v>6</v>
+      </c>
+      <c r="D51" s="131">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 50, ProductId = 10, RawMaterialId = 6, QuantityRequired = 0.034f },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="117">
+        <v>51</v>
+      </c>
+      <c r="B52" s="117">
+        <v>1</v>
+      </c>
+      <c r="C52" s="117">
+        <v>5</v>
+      </c>
+      <c r="D52" s="132">
+        <v>2.142857142857143E-4</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 51, ProductId = 1, RawMaterialId = 5, QuantityRequired = 0.000214f },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="117">
+        <v>52</v>
+      </c>
+      <c r="B53" s="117">
+        <v>2</v>
+      </c>
+      <c r="C53" s="117">
+        <v>5</v>
+      </c>
+      <c r="D53" s="132">
+        <v>1.8750000000000003E-4</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 52, ProductId = 2, RawMaterialId = 5, QuantityRequired = 0.000188f },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="117">
+        <v>53</v>
+      </c>
+      <c r="B54" s="117">
+        <v>3</v>
+      </c>
+      <c r="C54" s="117">
+        <v>5</v>
+      </c>
+      <c r="D54" s="132">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 53, ProductId = 3, RawMaterialId = 5, QuantityRequired = 0.0006f },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="117">
+        <v>54</v>
+      </c>
+      <c r="B55" s="117">
+        <v>4</v>
+      </c>
+      <c r="C55" s="117">
+        <v>5</v>
+      </c>
+      <c r="D55" s="132">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 54, ProductId = 4, RawMaterialId = 5, QuantityRequired = 0.000625f },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="117">
+        <v>55</v>
+      </c>
+      <c r="B56" s="117">
+        <v>5</v>
+      </c>
+      <c r="C56" s="117">
+        <v>5</v>
+      </c>
+      <c r="D56" s="132">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 55, ProductId = 5, RawMaterialId = 5, QuantityRequired = 0.0002f },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="117">
+        <v>56</v>
+      </c>
+      <c r="B57" s="117">
+        <v>6</v>
+      </c>
+      <c r="C57" s="117">
+        <v>5</v>
+      </c>
+      <c r="D57" s="131">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 56, ProductId = 6, RawMaterialId = 5, QuantityRequired = 0.00017f },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="117">
+        <v>57</v>
+      </c>
+      <c r="B58" s="117">
+        <v>7</v>
+      </c>
+      <c r="C58" s="117">
+        <v>5</v>
+      </c>
+      <c r="D58" s="131">
+        <v>1.7500000000000003E-4</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 57, ProductId = 7, RawMaterialId = 5, QuantityRequired = 0.000175f },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="117">
+        <v>58</v>
+      </c>
+      <c r="B59" s="117">
+        <v>8</v>
+      </c>
+      <c r="C59" s="117">
+        <v>5</v>
+      </c>
+      <c r="D59" s="131">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 58, ProductId = 8, RawMaterialId = 5, QuantityRequired = 0.00017f },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="117">
+        <v>59</v>
+      </c>
+      <c r="B60" s="117">
+        <v>9</v>
+      </c>
+      <c r="C60" s="117">
+        <v>5</v>
+      </c>
+      <c r="D60" s="131">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 59, ProductId = 9, RawMaterialId = 5, QuantityRequired = 0.00017f },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="117">
+        <v>60</v>
+      </c>
+      <c r="B61" s="117">
+        <v>10</v>
+      </c>
+      <c r="C61" s="117">
+        <v>5</v>
+      </c>
+      <c r="D61" s="131">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 60, ProductId = 10, RawMaterialId = 5, QuantityRequired = 0.00017f },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="117">
+        <v>61</v>
+      </c>
+      <c r="B62" s="117">
+        <v>1</v>
+      </c>
+      <c r="C62" s="117">
+        <v>4</v>
+      </c>
+      <c r="D62" s="132">
+        <v>4.285714285714286E-4</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 61, ProductId = 1, RawMaterialId = 4, QuantityRequired = 0.000429f },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="117">
+        <v>62</v>
+      </c>
+      <c r="B63" s="117">
+        <v>2</v>
+      </c>
+      <c r="C63" s="117">
+        <v>4</v>
+      </c>
+      <c r="D63" s="132">
+        <v>3.7500000000000006E-4</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 62, ProductId = 2, RawMaterialId = 4, QuantityRequired = 0.000375f },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="117">
+        <v>63</v>
+      </c>
+      <c r="B64" s="117">
+        <v>3</v>
+      </c>
+      <c r="C64" s="117">
+        <v>4</v>
+      </c>
+      <c r="D64" s="132">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 63, ProductId = 3, RawMaterialId = 4, QuantityRequired = 0.0012f },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="117">
+        <v>64</v>
+      </c>
+      <c r="B65" s="117">
+        <v>4</v>
+      </c>
+      <c r="C65" s="117">
+        <v>4</v>
+      </c>
+      <c r="D65" s="132">
+        <v>1.25E-3</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 64, ProductId = 4, RawMaterialId = 4, QuantityRequired = 0.00125f },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="117">
+        <v>65</v>
+      </c>
+      <c r="B66" s="117">
+        <v>5</v>
+      </c>
+      <c r="C66" s="117">
+        <v>4</v>
+      </c>
+      <c r="D66" s="132">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>new ProductRawMaterial { Id = 65, ProductId = 5, RawMaterialId = 4, QuantityRequired = 0.0004f },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="117">
+        <v>66</v>
+      </c>
+      <c r="B67" s="117">
+        <v>6</v>
+      </c>
+      <c r="C67" s="117">
+        <v>4</v>
+      </c>
+      <c r="D67" s="131">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F98" si="1">"new ProductRawMaterial { Id = "&amp;A67&amp;", ProductId = "&amp;B67&amp;", RawMaterialId = "&amp;C67&amp;", QuantityRequired = "&amp;ROUND(D67,6)&amp;"f },"</f>
+        <v>new ProductRawMaterial { Id = 66, ProductId = 6, RawMaterialId = 4, QuantityRequired = 0.00034f },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="117">
+        <v>67</v>
+      </c>
+      <c r="B68" s="117">
+        <v>7</v>
+      </c>
+      <c r="C68" s="117">
+        <v>4</v>
+      </c>
+      <c r="D68" s="131">
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 67, ProductId = 7, RawMaterialId = 4, QuantityRequired = 0.00035f },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="117">
+        <v>68</v>
+      </c>
+      <c r="B69" s="117">
+        <v>8</v>
+      </c>
+      <c r="C69" s="117">
+        <v>4</v>
+      </c>
+      <c r="D69" s="131">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 68, ProductId = 8, RawMaterialId = 4, QuantityRequired = 0.00034f },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="117">
+        <v>69</v>
+      </c>
+      <c r="B70" s="117">
+        <v>9</v>
+      </c>
+      <c r="C70" s="117">
+        <v>4</v>
+      </c>
+      <c r="D70" s="131">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 69, ProductId = 9, RawMaterialId = 4, QuantityRequired = 0.00034f },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="117">
+        <v>70</v>
+      </c>
+      <c r="B71" s="117">
+        <v>10</v>
+      </c>
+      <c r="C71" s="117">
+        <v>4</v>
+      </c>
+      <c r="D71" s="131">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 70, ProductId = 10, RawMaterialId = 4, QuantityRequired = 0.00034f },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="117">
+        <v>71</v>
+      </c>
+      <c r="B72" s="117">
+        <v>1</v>
+      </c>
+      <c r="C72" s="117">
+        <v>51</v>
+      </c>
+      <c r="D72" s="132">
+        <v>0.01</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 71, ProductId = 1, RawMaterialId = 51, QuantityRequired = 0.01f },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="117">
+        <v>72</v>
+      </c>
+      <c r="B73" s="117">
+        <v>2</v>
+      </c>
+      <c r="C73" s="117">
+        <v>51</v>
+      </c>
+      <c r="D73" s="132">
+        <v>5.6250000000000007E-3</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 72, ProductId = 2, RawMaterialId = 51, QuantityRequired = 0.005625f },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="117">
+        <v>73</v>
+      </c>
+      <c r="B74" s="117">
+        <v>4</v>
+      </c>
+      <c r="C74" s="117">
+        <v>51</v>
+      </c>
+      <c r="D74" s="132">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 73, ProductId = 4, RawMaterialId = 51, QuantityRequired = 0.0125f },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="117">
+        <v>74</v>
+      </c>
+      <c r="B75" s="117">
+        <v>5</v>
+      </c>
+      <c r="C75" s="117">
+        <v>51</v>
+      </c>
+      <c r="D75" s="132">
+        <v>0.01</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 74, ProductId = 5, RawMaterialId = 51, QuantityRequired = 0.01f },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="117">
+        <v>75</v>
+      </c>
+      <c r="B76" s="117">
+        <v>1</v>
+      </c>
+      <c r="C76" s="117">
+        <v>18</v>
+      </c>
+      <c r="D76" s="132">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 75, ProductId = 1, RawMaterialId = 18, QuantityRequired = 0.016f },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="117">
+        <v>76</v>
+      </c>
+      <c r="B77" s="117">
+        <v>2</v>
+      </c>
+      <c r="C77" s="117">
+        <v>18</v>
+      </c>
+      <c r="D77" s="132">
+        <v>6.7500000000000008E-3</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 76, ProductId = 2, RawMaterialId = 18, QuantityRequired = 0.00675f },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="117">
+        <v>77</v>
+      </c>
+      <c r="B78" s="117">
+        <v>4</v>
+      </c>
+      <c r="C78" s="117">
+        <v>18</v>
+      </c>
+      <c r="D78" s="132">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 77, ProductId = 4, RawMaterialId = 18, QuantityRequired = 0.015f },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="117">
+        <v>78</v>
+      </c>
+      <c r="B79" s="117">
+        <v>5</v>
+      </c>
+      <c r="C79" s="117">
+        <v>18</v>
+      </c>
+      <c r="D79" s="132">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 78, ProductId = 5, RawMaterialId = 18, QuantityRequired = 0.016f },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="117">
+        <v>79</v>
+      </c>
+      <c r="B80" s="117">
+        <v>1</v>
+      </c>
+      <c r="C80" s="117">
+        <v>19</v>
+      </c>
+      <c r="D80" s="132">
+        <v>1.2857142857142859E-3</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 79, ProductId = 1, RawMaterialId = 19, QuantityRequired = 0.001286f },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="117">
+        <v>80</v>
+      </c>
+      <c r="B81" s="117">
+        <v>2</v>
+      </c>
+      <c r="C81" s="117">
+        <v>19</v>
+      </c>
+      <c r="D81" s="132">
+        <v>9.3750000000000007E-4</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 80, ProductId = 2, RawMaterialId = 19, QuantityRequired = 0.000938f },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="117">
+        <v>81</v>
+      </c>
+      <c r="B82" s="117">
+        <v>4</v>
+      </c>
+      <c r="C82" s="117">
+        <v>19</v>
+      </c>
+      <c r="D82" s="132">
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 81, ProductId = 4, RawMaterialId = 19, QuantityRequired = 0.001875f },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="117">
+        <v>82</v>
+      </c>
+      <c r="B83" s="117">
+        <v>5</v>
+      </c>
+      <c r="C83" s="117">
+        <v>19</v>
+      </c>
+      <c r="D83" s="132">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 82, ProductId = 5, RawMaterialId = 19, QuantityRequired = 0.0003f },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="117">
+        <v>83</v>
+      </c>
+      <c r="B84" s="117">
+        <v>2</v>
+      </c>
+      <c r="C84" s="117">
+        <v>52</v>
+      </c>
+      <c r="D84" s="132">
+        <v>2.0625000000000005E-3</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 83, ProductId = 2, RawMaterialId = 52, QuantityRequired = 0.002063f },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="117">
+        <v>84</v>
+      </c>
+      <c r="B85" s="117">
+        <v>4</v>
+      </c>
+      <c r="C85" s="117">
+        <v>52</v>
+      </c>
+      <c r="D85" s="132">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 84, ProductId = 4, RawMaterialId = 52, QuantityRequired = 0.005f },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="117">
+        <v>85</v>
+      </c>
+      <c r="B86" s="117">
+        <v>2</v>
+      </c>
+      <c r="C86" s="117">
+        <v>7</v>
+      </c>
+      <c r="D86" s="132">
+        <v>1.6875000000000002E-3</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 85, ProductId = 2, RawMaterialId = 7, QuantityRequired = 0.001688f },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="117">
+        <v>86</v>
+      </c>
+      <c r="B87" s="117">
+        <v>4</v>
+      </c>
+      <c r="C87" s="117">
+        <v>7</v>
+      </c>
+      <c r="D87" s="132">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 86, ProductId = 4, RawMaterialId = 7, QuantityRequired = 0.00375f },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="117">
+        <v>87</v>
+      </c>
+      <c r="B88" s="117">
+        <v>2</v>
+      </c>
+      <c r="C88" s="117">
+        <v>21</v>
+      </c>
+      <c r="D88" s="132">
+        <v>1.0500000000000002E-2</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 87, ProductId = 2, RawMaterialId = 21, QuantityRequired = 0.0105f },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="117">
+        <v>88</v>
+      </c>
+      <c r="B89" s="117">
+        <v>4</v>
+      </c>
+      <c r="C89" s="117">
+        <v>21</v>
+      </c>
+      <c r="D89" s="132">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 88, ProductId = 4, RawMaterialId = 21, QuantityRequired = 0.025f },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="117">
+        <v>89</v>
+      </c>
+      <c r="B90" s="117">
+        <v>2</v>
+      </c>
+      <c r="C90" s="117">
+        <v>8</v>
+      </c>
+      <c r="D90" s="132">
+        <v>1.6875000000000002E-3</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 89, ProductId = 2, RawMaterialId = 8, QuantityRequired = 0.001688f },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="117">
+        <v>90</v>
+      </c>
+      <c r="B91" s="117">
+        <v>4</v>
+      </c>
+      <c r="C91" s="117">
+        <v>8</v>
+      </c>
+      <c r="D91" s="132">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 90, ProductId = 4, RawMaterialId = 8, QuantityRequired = 0.00375f },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="117">
+        <v>91</v>
+      </c>
+      <c r="B92" s="117">
+        <v>2</v>
+      </c>
+      <c r="C92" s="117">
+        <v>9</v>
+      </c>
+      <c r="D92" s="132">
+        <v>2.8125000000000003E-3</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 91, ProductId = 2, RawMaterialId = 9, QuantityRequired = 0.002813f },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="117">
+        <v>92</v>
+      </c>
+      <c r="B93" s="117">
+        <v>4</v>
+      </c>
+      <c r="C93" s="117">
+        <v>9</v>
+      </c>
+      <c r="D93" s="132">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 92, ProductId = 4, RawMaterialId = 9, QuantityRequired = 0.00625f },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="117">
+        <v>93</v>
+      </c>
+      <c r="B94" s="117">
+        <v>2</v>
+      </c>
+      <c r="C94" s="117">
+        <v>10</v>
+      </c>
+      <c r="D94" s="132">
+        <v>1.5000000000000002E-3</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 93, ProductId = 2, RawMaterialId = 10, QuantityRequired = 0.0015f },</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="117">
+        <v>94</v>
+      </c>
+      <c r="B95" s="117">
+        <v>4</v>
+      </c>
+      <c r="C95" s="117">
+        <v>10</v>
+      </c>
+      <c r="D95" s="132">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 94, ProductId = 4, RawMaterialId = 10, QuantityRequired = 0.003125f },</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="117">
+        <v>95</v>
+      </c>
+      <c r="B96" s="117">
+        <v>2</v>
+      </c>
+      <c r="C96" s="117">
+        <v>11</v>
+      </c>
+      <c r="D96" s="132">
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 95, ProductId = 2, RawMaterialId = 11, QuantityRequired = 0.0225f },</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="117">
+        <v>96</v>
+      </c>
+      <c r="B97" s="117">
+        <v>4</v>
+      </c>
+      <c r="C97" s="117">
+        <v>11</v>
+      </c>
+      <c r="D97" s="132">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 96, ProductId = 4, RawMaterialId = 11, QuantityRequired = 0.075f },</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="117">
+        <v>97</v>
+      </c>
+      <c r="B98" s="117">
+        <v>7</v>
+      </c>
+      <c r="C98" s="117">
+        <v>72</v>
+      </c>
+      <c r="D98" s="131">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>new ProductRawMaterial { Id = 97, ProductId = 7, RawMaterialId = 72, QuantityRequired = 0.012f },</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="117">
+        <v>98</v>
+      </c>
+      <c r="B99" s="117">
+        <v>8</v>
+      </c>
+      <c r="C99" s="117">
+        <v>73</v>
+      </c>
+      <c r="D99" s="131">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F99" t="str">
+        <f>"new ProductRawMaterial { Id = "&amp;A99&amp;", ProductId = "&amp;B99&amp;", RawMaterialId = "&amp;C99&amp;", QuantityRequired = "&amp;ROUND(D99,6)&amp;"f }"</f>
+        <v>new ProductRawMaterial { Id = 98, ProductId = 8, RawMaterialId = 73, QuantityRequired = 0.012f }</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53839C3D-E3A2-447A-9C10-15B93E157720}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC33473-5EA2-4215-877C-A76652DD2EEC}">
   <dimension ref="A2:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -16159,14 +18400,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="134"/>
+      <c r="R2" s="148"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -17546,8 +19787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D55B50-A414-40E8-B274-E34251BCB63C}">
   <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A22" zoomScale="133" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17634,10 +19875,10 @@
       <c r="T2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="V2" s="134" t="s">
+      <c r="V2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="W2" s="134"/>
+      <c r="W2" s="148"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -17688,8 +19929,8 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -19347,34 +21588,34 @@
       <c r="B41" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="143">
+      <c r="C41" s="132">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="D41" s="143">
+      <c r="D41" s="132">
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="E41" s="143">
+      <c r="E41" s="132">
         <v>0.12</v>
       </c>
-      <c r="F41" s="143">
+      <c r="F41" s="132">
         <v>0.125</v>
       </c>
-      <c r="G41" s="143">
+      <c r="G41" s="132">
         <v>0.04</v>
       </c>
-      <c r="H41" s="142">
+      <c r="H41" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I41" s="142">
+      <c r="I41" s="131">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J41" s="142">
+      <c r="J41" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K41" s="142">
+      <c r="K41" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L41" s="142">
+      <c r="L41" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="M41" s="117"/>
@@ -19391,39 +21632,39 @@
       <c r="B42" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="143">
+      <c r="C42" s="132">
         <f>(C41*580)/1000</f>
         <v>2.4857142857142859E-2</v>
       </c>
-      <c r="D42" s="143">
+      <c r="D42" s="132">
         <v>2.1750000000000002E-2</v>
       </c>
-      <c r="E42" s="143">
+      <c r="E42" s="132">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="F42" s="143">
+      <c r="F42" s="132">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G42" s="143">
+      <c r="G42" s="132">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="H42" s="142">
+      <c r="H42" s="131">
         <f>(H41*580)/1000</f>
         <v>1.9720000000000001E-2</v>
       </c>
-      <c r="I42" s="142">
+      <c r="I42" s="131">
         <f t="shared" ref="I42:L42" si="27">(I41*580)/1000</f>
         <v>2.0300000000000002E-2</v>
       </c>
-      <c r="J42" s="142">
+      <c r="J42" s="131">
         <f t="shared" si="27"/>
         <v>1.9720000000000001E-2</v>
       </c>
-      <c r="K42" s="142">
+      <c r="K42" s="131">
         <f t="shared" si="27"/>
         <v>1.9720000000000001E-2</v>
       </c>
-      <c r="L42" s="142">
+      <c r="L42" s="131">
         <f t="shared" si="27"/>
         <v>1.9720000000000001E-2</v>
       </c>
@@ -19441,39 +21682,39 @@
       <c r="B43" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="143">
+      <c r="C43" s="132">
         <f>(C41*20)/1000</f>
         <v>8.5714285714285721E-4</v>
       </c>
-      <c r="D43" s="143">
+      <c r="D43" s="132">
         <v>7.5000000000000012E-4</v>
       </c>
-      <c r="E43" s="143">
+      <c r="E43" s="132">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="F43" s="143">
+      <c r="F43" s="132">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G43" s="143">
+      <c r="G43" s="132">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H43" s="142">
+      <c r="H43" s="131">
         <f>(H41*20)/1000</f>
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="I43" s="142">
+      <c r="I43" s="131">
         <f>(I41*20)/1000</f>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J43" s="142">
+      <c r="J43" s="131">
         <f>(J41*20)/1000</f>
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="K43" s="142">
+      <c r="K43" s="131">
         <f>(K41*20)/1000</f>
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="L43" s="142">
+      <c r="L43" s="131">
         <f>(L41*20)/1000</f>
         <v>6.8000000000000005E-4</v>
       </c>
@@ -19491,39 +21732,39 @@
       <c r="B44" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="143">
+      <c r="C44" s="132">
         <f>(C41*50)/1000</f>
         <v>2.142857142857143E-3</v>
       </c>
-      <c r="D44" s="143">
+      <c r="D44" s="132">
         <v>1.8750000000000001E-3</v>
       </c>
-      <c r="E44" s="143">
+      <c r="E44" s="132">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="143">
+      <c r="F44" s="132">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="G44" s="143">
+      <c r="G44" s="132">
         <v>2E-3</v>
       </c>
-      <c r="H44" s="142">
+      <c r="H44" s="131">
         <f>(H41*50)/1000</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="I44" s="142">
+      <c r="I44" s="131">
         <f t="shared" ref="I44:L44" si="28">(I41*50)/1000</f>
         <v>1.7500000000000003E-3</v>
       </c>
-      <c r="J44" s="142">
+      <c r="J44" s="131">
         <f t="shared" si="28"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="K44" s="142">
+      <c r="K44" s="131">
         <f t="shared" si="28"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="L44" s="142">
+      <c r="L44" s="131">
         <f t="shared" si="28"/>
         <v>1.7000000000000001E-3</v>
       </c>
@@ -19541,35 +21782,35 @@
       <c r="B45" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="143">
+      <c r="C45" s="132">
         <f>C41*1</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="D45" s="143">
+      <c r="D45" s="132">
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="E45" s="143">
+      <c r="E45" s="132">
         <v>0.12</v>
       </c>
-      <c r="F45" s="143">
+      <c r="F45" s="132">
         <v>0.125</v>
       </c>
-      <c r="G45" s="143">
+      <c r="G45" s="132">
         <v>0.04</v>
       </c>
-      <c r="H45" s="142">
+      <c r="H45" s="131">
         <v>0.53400000000000003</v>
       </c>
-      <c r="I45" s="142">
+      <c r="I45" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J45" s="142">
+      <c r="J45" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K45" s="142">
+      <c r="K45" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L45" s="142">
+      <c r="L45" s="131">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="M45" s="117"/>
@@ -19586,39 +21827,39 @@
       <c r="B46" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="143">
+      <c r="C46" s="132">
         <f>(C41*5)/1000</f>
         <v>2.142857142857143E-4</v>
       </c>
-      <c r="D46" s="143">
+      <c r="D46" s="132">
         <v>1.8750000000000003E-4</v>
       </c>
-      <c r="E46" s="143">
+      <c r="E46" s="132">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F46" s="143">
+      <c r="F46" s="132">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="G46" s="143">
+      <c r="G46" s="132">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H46" s="142">
+      <c r="H46" s="131">
         <f>(H41*5)/1000</f>
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="I46" s="142">
+      <c r="I46" s="131">
         <f t="shared" ref="I46:L46" si="29">(I41*5)/1000</f>
         <v>1.7500000000000003E-4</v>
       </c>
-      <c r="J46" s="142">
+      <c r="J46" s="131">
         <f t="shared" si="29"/>
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="K46" s="142">
+      <c r="K46" s="131">
         <f t="shared" si="29"/>
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="L46" s="142">
+      <c r="L46" s="131">
         <f t="shared" si="29"/>
         <v>1.7000000000000001E-4</v>
       </c>
@@ -19636,39 +21877,39 @@
       <c r="B47" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="143">
+      <c r="C47" s="132">
         <f>(C41*10)/1000</f>
         <v>4.285714285714286E-4</v>
       </c>
-      <c r="D47" s="143">
+      <c r="D47" s="132">
         <v>3.7500000000000006E-4</v>
       </c>
-      <c r="E47" s="143">
+      <c r="E47" s="132">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F47" s="143">
+      <c r="F47" s="132">
         <v>1.25E-3</v>
       </c>
-      <c r="G47" s="143">
+      <c r="G47" s="132">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H47" s="142">
+      <c r="H47" s="131">
         <f>(H41*10)/1000</f>
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="I47" s="142">
+      <c r="I47" s="131">
         <f t="shared" ref="I47:L47" si="30">(I41*10)/1000</f>
         <v>3.5000000000000005E-4</v>
       </c>
-      <c r="J47" s="142">
+      <c r="J47" s="131">
         <f t="shared" si="30"/>
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="K47" s="142">
+      <c r="K47" s="131">
         <f t="shared" si="30"/>
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="L47" s="142">
+      <c r="L47" s="131">
         <f t="shared" si="30"/>
         <v>3.4000000000000002E-4</v>
       </c>
@@ -19686,17 +21927,17 @@
       <c r="B48" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="143">
+      <c r="C48" s="132">
         <v>0.01</v>
       </c>
-      <c r="D48" s="143">
+      <c r="D48" s="132">
         <v>5.6250000000000007E-3</v>
       </c>
       <c r="E48" s="121"/>
-      <c r="F48" s="143">
+      <c r="F48" s="132">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G48" s="143">
+      <c r="G48" s="132">
         <v>0.01</v>
       </c>
       <c r="H48" s="124"/>
@@ -19718,17 +21959,17 @@
       <c r="B49" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="143">
+      <c r="C49" s="132">
         <v>1.6E-2</v>
       </c>
-      <c r="D49" s="143">
+      <c r="D49" s="132">
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="E49" s="121"/>
-      <c r="F49" s="143">
+      <c r="F49" s="132">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G49" s="143">
+      <c r="G49" s="132">
         <v>1.6E-2</v>
       </c>
       <c r="H49" s="124"/>
@@ -19750,18 +21991,18 @@
       <c r="B50" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="143">
+      <c r="C50" s="132">
         <f>(C41*30)/1000</f>
         <v>1.2857142857142859E-3</v>
       </c>
-      <c r="D50" s="143">
+      <c r="D50" s="132">
         <v>9.3750000000000007E-4</v>
       </c>
       <c r="E50" s="121"/>
-      <c r="F50" s="143">
+      <c r="F50" s="132">
         <v>1.8749999999999999E-3</v>
       </c>
-      <c r="G50" s="143">
+      <c r="G50" s="132">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H50" s="124"/>
@@ -19784,11 +22025,11 @@
         <v>17</v>
       </c>
       <c r="C51" s="128"/>
-      <c r="D51" s="143">
+      <c r="D51" s="132">
         <v>2.0625000000000005E-3</v>
       </c>
       <c r="E51" s="121"/>
-      <c r="F51" s="143">
+      <c r="F51" s="132">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G51" s="124"/>
@@ -19812,11 +22053,11 @@
         <v>18</v>
       </c>
       <c r="C52" s="128"/>
-      <c r="D52" s="143">
+      <c r="D52" s="132">
         <v>1.6875000000000002E-3</v>
       </c>
       <c r="E52" s="129"/>
-      <c r="F52" s="143">
+      <c r="F52" s="132">
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="G52" s="124"/>
@@ -19840,11 +22081,11 @@
         <v>21</v>
       </c>
       <c r="C53" s="128"/>
-      <c r="D53" s="143">
+      <c r="D53" s="132">
         <v>1.0500000000000002E-2</v>
       </c>
       <c r="E53" s="120"/>
-      <c r="F53" s="143">
+      <c r="F53" s="132">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G53" s="124"/>
@@ -19868,11 +22109,11 @@
         <v>34</v>
       </c>
       <c r="C54" s="120"/>
-      <c r="D54" s="143">
+      <c r="D54" s="132">
         <v>1.6875000000000002E-3</v>
       </c>
       <c r="E54" s="120"/>
-      <c r="F54" s="143">
+      <c r="F54" s="132">
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="G54" s="124"/>
@@ -19896,11 +22137,11 @@
         <v>36</v>
       </c>
       <c r="C55" s="120"/>
-      <c r="D55" s="143">
+      <c r="D55" s="132">
         <v>2.8125000000000003E-3</v>
       </c>
       <c r="E55" s="120"/>
-      <c r="F55" s="143">
+      <c r="F55" s="132">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="G55" s="124"/>
@@ -19924,11 +22165,11 @@
         <v>37</v>
       </c>
       <c r="C56" s="120"/>
-      <c r="D56" s="143">
+      <c r="D56" s="132">
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="E56" s="120"/>
-      <c r="F56" s="143">
+      <c r="F56" s="132">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="G56" s="124"/>
@@ -19952,11 +22193,11 @@
         <v>146</v>
       </c>
       <c r="C57" s="120"/>
-      <c r="D57" s="143">
+      <c r="D57" s="132">
         <v>2.2500000000000003E-2</v>
       </c>
       <c r="E57" s="120"/>
-      <c r="F57" s="143">
+      <c r="F57" s="132">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G57" s="124"/>
@@ -19985,7 +22226,7 @@
       <c r="F58" s="124"/>
       <c r="G58" s="124"/>
       <c r="H58" s="124"/>
-      <c r="I58" s="142">
+      <c r="I58" s="131">
         <v>1.2E-2</v>
       </c>
       <c r="J58" s="124"/>
@@ -20012,7 +22253,7 @@
       <c r="G59" s="124"/>
       <c r="H59" s="124"/>
       <c r="I59" s="124"/>
-      <c r="J59" s="142">
+      <c r="J59" s="131">
         <v>1.2E-2</v>
       </c>
       <c r="K59" s="124"/>
@@ -20426,7 +22667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B44F2-5692-3F4F-AB9E-16CFC18BE7AA}">
   <dimension ref="A3:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="125" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -21267,7 +23508,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21280,10 +23521,10 @@
     <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21339,17 +23580,17 @@
       <c r="P2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="134" t="s">
+      <c r="R2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="134"/>
+      <c r="S2" s="148"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="21">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C3" s="9">
         <f>450/1000</f>
@@ -21357,113 +23598,113 @@
       </c>
       <c r="D3" s="9">
         <f>(B3*C3)/2</f>
-        <v>16.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E3" s="9">
-        <f>(D3*90)/1000</f>
-        <v>1.458</v>
+        <f>(D3*100)/1000</f>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F3" s="9">
         <f>(D3*15)/1000</f>
-        <v>0.24299999999999999</v>
+        <v>3.375E-3</v>
       </c>
       <c r="G3" s="9">
         <f>(D3*250)/1000</f>
-        <v>4.05</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="H3" s="9">
         <f>(D3*5)/1000</f>
-        <v>8.1000000000000003E-2</v>
+        <v>1.1249999999999999E-3</v>
       </c>
       <c r="I3" s="9">
         <f>(D3*10)/1000</f>
-        <v>0.16200000000000001</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="J3" s="9">
         <f>(D3*5)/1000</f>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="K3" s="9">
+        <v>1.1249999999999999E-3</v>
+      </c>
+      <c r="K3" s="135">
         <f>(D3*5)/1000</f>
-        <v>8.1000000000000003E-2</v>
+        <v>1.1249999999999999E-3</v>
       </c>
       <c r="L3" s="9">
         <f>(D3*4)/1000</f>
-        <v>6.4799999999999996E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M3" s="9">
         <f>(D3*5)/1000</f>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="N3" s="9">
+        <v>1.1249999999999999E-3</v>
+      </c>
+      <c r="N3" s="135">
         <f>(D3*20)/1000</f>
-        <v>0.32400000000000001</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="O3" s="20">
         <f>(D3*10)/1000</f>
-        <v>0.16200000000000001</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="P3" s="8"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="21">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9">
         <v>5.5E-2</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D6" si="0">(B4*C4)/2</f>
-        <v>3.85</v>
-      </c>
-      <c r="E4" s="9">
+        <v>2.75E-2</v>
+      </c>
+      <c r="E4" s="107">
         <f t="shared" ref="E4:E6" si="1">(D4*90)/1000</f>
-        <v>0.34649999999999997</v>
-      </c>
-      <c r="F4" s="9">
+        <v>2.4750000000000002E-3</v>
+      </c>
+      <c r="F4" s="135">
         <f t="shared" ref="F4:F6" si="2">(D4*15)/1000</f>
-        <v>5.7750000000000003E-2</v>
+        <v>4.125E-4</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G6" si="3">(D4*250)/1000</f>
-        <v>0.96250000000000002</v>
+        <v>6.875E-3</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H6" si="4">(D4*5)/1000</f>
-        <v>1.925E-2</v>
+        <v>1.3750000000000001E-4</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I6" si="5">(D4*10)/1000</f>
-        <v>3.85E-2</v>
+        <v>2.7500000000000002E-4</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" ref="J4:J6" si="6">(D4*5)/1000</f>
-        <v>1.925E-2</v>
+        <v>1.3750000000000001E-4</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K6" si="7">(D4*5)/1000</f>
-        <v>1.925E-2</v>
+        <v>1.3750000000000001E-4</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" ref="L4:L6" si="8">(D4*4)/1000</f>
-        <v>1.54E-2</v>
+        <v>1.1E-4</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ref="M4:M6" si="9">(D4*5)/1000</f>
-        <v>1.925E-2</v>
+        <v>1.3750000000000001E-4</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:N6" si="10">(D4*20)/1000</f>
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="O4" s="20">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="O4" s="136">
         <f t="shared" ref="O4:O6" si="11">(D4*10)/1000</f>
-        <v>3.85E-2</v>
+        <v>2.7500000000000002E-4</v>
       </c>
       <c r="P4" s="8"/>
     </row>
@@ -21472,7 +23713,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="21">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9">
         <f>330/1000</f>
@@ -21480,55 +23721,55 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>7.4250000000000007</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="1"/>
-        <v>0.66825000000000012</v>
+        <v>1.4850000000000002E-2</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="2"/>
-        <v>0.11137500000000002</v>
+        <v>2.4750000000000002E-3</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="3"/>
-        <v>1.8562500000000002</v>
+        <v>4.1250000000000002E-2</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="4"/>
-        <v>3.7124999999999998E-2</v>
+        <v>8.250000000000001E-4</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="5"/>
-        <v>7.4249999999999997E-2</v>
+        <v>1.6500000000000002E-3</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="6"/>
-        <v>3.7124999999999998E-2</v>
+        <v>8.250000000000001E-4</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="7"/>
-        <v>3.7124999999999998E-2</v>
+        <v>8.250000000000001E-4</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="8"/>
-        <v>2.9700000000000004E-2</v>
+        <v>6.6E-4</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="9"/>
-        <v>3.7124999999999998E-2</v>
+        <v>8.250000000000001E-4</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="10"/>
-        <v>0.14849999999999999</v>
+        <v>3.3000000000000004E-3</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="11"/>
-        <v>7.4249999999999997E-2</v>
+        <v>1.6500000000000002E-3</v>
       </c>
       <c r="P5" s="46">
         <f>(B5*170)/1000</f>
-        <v>7.65</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -21613,7 +23854,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" ref="B8:P8" si="12">SUM(B3:B6)</f>
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="12"/>
@@ -21621,55 +23862,55 @@
       </c>
       <c r="D8" s="12">
         <f t="shared" si="12"/>
-        <v>29.225000000000001</v>
+        <v>2.1675000000000004</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="12"/>
-        <v>2.6302500000000002</v>
+        <v>0.19732500000000003</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="12"/>
-        <v>0.43837500000000001</v>
+        <v>3.25125E-2</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="12"/>
-        <v>7.3062500000000004</v>
+        <v>0.54187500000000011</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="12"/>
-        <v>0.146125</v>
+        <v>1.0837500000000003E-2</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="12"/>
-        <v>0.29225000000000001</v>
+        <v>2.1675000000000007E-2</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="12"/>
-        <v>0.146125</v>
+        <v>1.0837500000000003E-2</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="12"/>
-        <v>0.146125</v>
+        <v>1.0837500000000003E-2</v>
       </c>
       <c r="L8" s="12">
         <f t="shared" si="12"/>
-        <v>0.1169</v>
+        <v>8.6700000000000006E-3</v>
       </c>
       <c r="M8" s="12">
         <f t="shared" si="12"/>
-        <v>0.146125</v>
+        <v>1.0837500000000003E-2</v>
       </c>
       <c r="N8" s="12">
         <f t="shared" si="12"/>
-        <v>0.58450000000000002</v>
+        <v>4.3350000000000014E-2</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="12"/>
-        <v>0.29225000000000001</v>
+        <v>2.1675000000000007E-2</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" si="12"/>
-        <v>7.65</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -21680,55 +23921,55 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40">
         <f>D8*'Cost of raw materials'!C7</f>
-        <v>1052.1000000000001</v>
+        <v>78.030000000000015</v>
       </c>
       <c r="E9" s="40">
         <f>E8*'Cost of raw materials'!G9</f>
-        <v>389.27700000000004</v>
+        <v>29.204100000000004</v>
       </c>
       <c r="F9" s="40">
         <f>F8*'Cost of raw materials'!C9</f>
-        <v>3.9453750000000003</v>
+        <v>0.2926125</v>
       </c>
       <c r="G9" s="40">
         <f>G8*'Cost of raw materials'!C8</f>
-        <v>284.94375000000002</v>
+        <v>21.133125000000003</v>
       </c>
       <c r="H9" s="40">
         <f>H8*'Cost of raw materials'!C11</f>
-        <v>45.591000000000001</v>
+        <v>3.3813000000000009</v>
       </c>
       <c r="I9" s="40">
         <f>I8*'Cost of raw materials'!C10</f>
-        <v>92.058750000000003</v>
+        <v>6.8276250000000021</v>
       </c>
       <c r="J9" s="40">
         <f>J8*'Cost of raw materials'!C13</f>
-        <v>80.368750000000006</v>
+        <v>5.9606250000000021</v>
       </c>
       <c r="K9" s="40">
         <f>K8*'Cost of raw materials'!C18</f>
-        <v>67.948125000000005</v>
+        <v>5.0394375000000018</v>
       </c>
       <c r="L9" s="40">
         <f>L8*'Cost of raw materials'!C19</f>
-        <v>22.211000000000002</v>
+        <v>1.6473000000000002</v>
       </c>
       <c r="M9" s="40">
         <f>M8*'Cost of raw materials'!C15</f>
-        <v>37.408000000000001</v>
+        <v>2.7744000000000009</v>
       </c>
       <c r="N9" s="40">
         <f>N8*'Cost of raw materials'!C21</f>
-        <v>84.752499999999998</v>
+        <v>6.2857500000000019</v>
       </c>
       <c r="O9" s="40">
         <f>O8*'Cost of raw materials'!C22</f>
-        <v>45.298749999999998</v>
+        <v>3.3596250000000012</v>
       </c>
       <c r="P9" s="39">
         <f>P8*(M13/16.38)</f>
-        <v>398.61263736263749</v>
+        <v>8.8580586080586112</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -21882,7 +24123,7 @@
       </c>
       <c r="B15" s="48">
         <f>P9</f>
-        <v>398.61263736263749</v>
+        <v>8.8580586080586112</v>
       </c>
     </row>
     <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25"/>
@@ -21908,7 +24149,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21977,10 +24218,10 @@
       <c r="O2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="134"/>
+      <c r="R2" s="148"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22037,8 +24278,8 @@
         <v>1.503E-2</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -22241,12 +24482,12 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -22264,10 +24505,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K1" s="22"/>
-      <c r="M1" s="138" t="s">
+      <c r="M1" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="138"/>
+      <c r="N1" s="152"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -22280,7 +24521,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>199</v>
+        <v>334</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -22313,10 +24554,10 @@
         <v>63</v>
       </c>
       <c r="O2" s="17"/>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22375,8 +24616,8 @@
         <v>2.5019999999999997E-2</v>
       </c>
       <c r="O3" s="17"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
